--- a/Base/Teams/Chiefs/Team Data.xlsx
+++ b/Base/Teams/Chiefs/Team Data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Chiefs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_66D1BCBC9EC36F001B0DF7614787DA07D421A0AE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1100956-C211-4753-A91D-BDA2F8F4EDDA}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="YDS" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
     <sheet name="TURNS" sheetId="7" r:id="rId7"/>
     <sheet name="PEN" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -35,16 +41,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>3 3 1 1 18 7 9 9 6 8 8 4 4 3 -1 11 2 27 3 4 3 2 9 0 -2 4 -1 4 14 -1 2 0 17 5 0 14 3 15 10 4 1 -1 4 3 1 21 1 5 2 4 2 3 22 1 3 4 5 1 1 -1 9 4 16 1 7 3 11 2 0 -1 0 12 6 5 3 3 1 2 4 2 2 5 6 5 1 3 13 1 9 4 2 1 5 -1 11 4 1 2 1 18 9 4 2 8 5 6 6 3 3 5 10 8 5 1 4 6 2 -1 2 3 0 1 5 3 -1 9 1 9 4 2 31 0 5 5 5 12 14 5 11 5 3 4 6 8 3 17 0 8 11 5 1 8 4 5 5 7 3 9 0 -3 2 -4 3 0 9 -4 2 13 2 4 11 16 1 2 27 0 1 16 3 1 1 0 0 2 3 1 3 2 4 1 4 -3 4 3 4 3 3 8 1 2 0 11 -2 2 2 0 2 7 4 8 0 3 0 4 5 3 8 6 10 4 3 5 11 3 2 9 2 3 0 -2 14 -4 -5 7 2 3 6 1 0 8 -2 2 3 4 10 10 17 5 0 0 5 4 7 4 4 8 1 1 4 2 5 6 30 20 3 0 16 3 1 6 3 10 6 5 12 4 1 -3 2 6 3 13 32 0 8 5 9 -2 3 -1 9 2 12 4 0 0 0 -3 -8 1 5 1 1 13 -5 3 8 4 11 6 7 1 6 3 16 1 3 4 1 2 1 6 3 2 1 12 4 0 8 24 4 4 1 2 5 5 10 -3 0 3 1 13 9 7 3 6 20 11 4 3 11 2 1 17 4 3 3 2 3 6 3 0 1 0 10 3 2 6 5 2 3 1 4 12 6 4 2 1 2 4 9 13 4 1 0 16 4 1 9 2 2 13 5 -2 50 6 6 2 4 1 -3 3 9 0 5 11 1 2 5 2 -3 13 11 2 5 5 11 6 -1 2 10 7 26 10 3 3 7 1 -2 4 4 1 2 5 3 4 4 3 8 9 7 1 2 5 4 7 0 4 0 9 1 7 -1 1 3 9 4 2 7 6 15 1 3 -5 4 -2 -2 4 12 10 4 11 7 8 7 3 4 7 5 14 10 4 2 3 8 4 2 18 2 12 7 5 7 4 -1 2 2 21 5 4 5 4 5 3 12 2 15 24 17 1 1 2 9 3 10 10 1 8 1 2 4 1 12 9 16 3 3 5 4 4 2 10 5 2 3 15 3 6 4 1 9 5 0 -1 23 9 -1 -2 9 5 9 0 7 2 0 6 3 3 17 3 6 1 6 4 0 5 11 4 3 3 3 10 5 2 -1 1 3 0 5 2 2 11 -1 13 18 6 9 9 6 2 5 2 10 -3 4 2 4 4 9 7 5 9 3 8 12 -1 3 4 6 0 -1 1 8 6 -1 7 7 2 6 0 0 6 4 7 7 7 2 4 10 2 -4 -1 -1 2 3 2 5 0 5 1 3 21 1 3 2 0 6 -1 5 3 2 6 -1 4 4 4 3 6 8 33 11 4 3 4 1 5 1 5 0 2 3 3 7 4 14 3 6 4 10 -2 -7</t>
-  </si>
-  <si>
-    <t>6 6 11 7 15 10 13 2 6 5 4 9 9 2 17 11 7 12 14 7 19 15 1 3 13 1 12 5 10 6 7 20 9 14 13 10 11 22 2 54 11 16 8 14 8 4 5 4 11 33 15 11 13 15 2 5 7 29 5 18 -4 20 10 49 9 5 7 24 7 6 9 7 6 18 13 11 2 17 5 8 22 17 11 2 14 21 24 8 5 5 10 6 19 45 6 6 6 1 9 12 26 32 4 13 5 16 37 8 4 23 15 23 6 16 2 42 4 3 -1 15 7 8 5 6 22 11 5 15 4 12 15 16 8 9 6 -3 21 -2 20 2 37 8 11 8 19 14 38 4 5 15 17 7 6 17 7 22 10 11 2 13 9 15 18 30 5 13 2 36 7 4 15 23 -3 18 5 3 -4 14 9 25 14 16 8 6 8 19 26 16 5 41 10 7 0 14 10 3 8 6 32 23 7 5 8 14 1 10 9 10 28 14 29 -5 3 44 4 10 26 28 8 13 2 3 8 10 14 6 8 4 3 17 21 11 8 3 19 11 6 3 9 8 11 12 13 3 5 15 6 19 9 10 9 16 15 3 22 34 23 6 3 1 75 19 3 14 7 44 20 12 14 2 9 5 13 9 2 8 29 37 7 7 8 9 14 8 2 2 4 6 20 8 11 3 15 3 2 8 19 14 18 20 1 19 6 4 10 -5 15 28 5 20 12 15 30 14 5 20 8 5 17 9 9 1 16 17 7 37 21 9 13 16 9 5 15 6 26 44 28 26 5 32 13 5 11 9 8 4 -5 11 6 5 14 10 23 23 19 1 2 13 4 20 9 5 16 9 9 8 16 7 7 10 15 6 10 31 5 4 13 9 9 5 11 2 9 4 11 12 13 26 0 4 31 2 9 17 5 19 16 9 25 12 21 9 -2 37 3 7 2 3 11 8 8 18 12 3 -2 6 9 12 10 8 10 12 31 8 3 7 26 -1 9 42 9 11 20 8 14 8 15 -5 9 7 3 13 22 16 14 8 5 23 24 4 5 1 9 1 11 11 16 11 8 3 3 5 15 9 11 33 17 16 5 6 8 9 7 0 71 1 12 12 5 3 6 14 13 4 12 11 -1 5 8 0 5 21 13 17 33 12 9 4 23 8 18 16 1 4 17 9 11 24 9 8 -6 4 11 6 22 19 -2 9 28 6 7 12 6 11 8 3 14 75 8 4 14 6 7 19 10 33 17 11 14 10 4 14 20 14 5 11 40 5 46 3 8 3 23 13 7 7 15 5 6 6 8 17 -1 5 15 28 7 6 11 12 8 10 2 6 23 18 10 5 5 7 11 8 11 9 36 1 9 2 19 32 4 6 4 9 2 15 7 6 3 14 7 10 5 12 11 44 12 6 15 11 9 7 8 5 8 10 6 26 8 12 8 11 5 4 3 11 8 17 6 8 5 5 4 1 8 6 4 4 11 6 20 9 19 27 49 3 5 7 27 19 17 14 9 10 5 13 9 5 12 13 2 9 0 3 11 5 21 19 6 12 6 24 7 8 6 6 5 10 9 23 8 11 24 12 14 6 4 9 10 4 2 10 3 9 12 7 0 15 5 6 6 7 11 9 17 9 3 11 12 9 18 8 4 9 10 10 15 14 24 2 2 7 10 4 2 1 7 2 7 12 2 25 6 14 10 13 22 9 13 6 7 5 11 22 19 8 8 7 13 12 -1 16 27 3 1 0 9 7 11 7 13 17 2 10 16 32 3 7 3 38 8 30 22 1 10 8 12 0 8 37 13 23 7 11 8 24 14 22 10 12 6 6 4 8 8 8</t>
-  </si>
-  <si>
-    <t>5 7 9 2 19 4 6 1 4 7 2 2 2 1 5 6 17 2 4 13 1 9 9 6 4 3 5 3 0 1 3 3 5 3 13 5 3 1 7 9 5 8 7 2 3 3 5 9 1 8 7 4 2 0 7 3 3 -1 1 11 1 -1 2 5 3 30 5 6 11 3 6 4 18 4 8 11 1 4 5 24 3 2 8 5 2 2 3 4 10 18 -1 2 1 2 3 6 2 5 6 -1 8 4 4 7 0 9 41 4 2 5 3 5 1 10 7 3 6 1 2 7 2 2 43 1 3 4 4 2 0 4 2 2 0 7 7 2 4 7 2 5 1 9 10 3 9 4 2 3 5 4 1 13 3 -3 3 6 -1 7 -6 2 0 6 3 -1 6 3 2 14 2 6 20 9 4 19 6 1 1 6 5 10 8 -1 10 6 4 2 4 11 0 3 2 3 3 3 6 7 6 4 0 3 9 3 5 2 2 3 1 6 4 2 5 0 5 6 0 8 5 2 6 5 4 7 5 3 6 13 4 6 0 10 3 -1 1 2 -4 4 4 1 6 1 1 4 13 2 2 2 5 6 5 3 0 2 5 2 2 11 1 0 4 2 5 12 4 0 -3 5 4 1 2 11 3 1 34 1 6 0 3 1 0 2 8 0 4 8 8 4 3 65 1 6 3 3 13 2 0 3 5 2 7 1 3 -1 4 5 1 8 6 1 1 7 7 1 -2 6 2 2 2 2 2 3 5 2 3 7 2 9 3 5 2 1 9 5 5 4 2 3 7 2 1 11 2 3 6 2 4 5 2 1 8 14 4 3 4 -7 5 0 6 3 4 6 6 3 3 2 2 4 3 2 6 5 2 1 3 1 9 2 5 2 0 1 11 0 8 5 3 1 9 3 3 34 1 6 2 -2 5 5 5 6 0 6 4 -3 23 18 2 9 3 7 6 1 10 4 4 3 0 -1 1 3 7 17 2 15 3 7 10 4 4 5 1 18 8 11 3 13 -3 3 6 6 11 7 8 4 1 1 0 3 4 27 6 3 2 0 4 7 8 4 4 8 1 1 5 2 6 7 -1 6 4 2 4 17 8 18 5 15 6 17 4 2 6 7 6 2 2 -2 5 2 6 5 12 31 9 7 1 9 9 8 0 0 21 3 4 5 20 14 -4 3 4 -2 20 6 2 8 5 9 2 1 11 5 9 -1 3 1 1 2 1 4 -1 9 1 2 3 3 5 -2 -1 5 9 1 -1 11 6 9 6 0 8 1 2 5 11 12 5 12 6 3 3 -4 7 2 2 7 4 2 13 10 0 8 22 2 11 9 9 8 2 -1 3 5 -1 0 0 3 1 4 12 4 6 6 0 8 3 4 8 1 3 5 3 3 2 2 15 1 7 8 6 4 4 11 2 5 3 9 2 3 4 0 8 5 0 3 4 -1 2 4 0 11 1 -1 2 2 4 6 2 1 2 8 5 4 -4 9 3 2 -4 5 2 0 2 -3 11 2 2 6 2 14 5 4 0 3 5 4 10 2 2 4 9 15 2 3 -1 7 7 -2 8 5 3 1 5 5 0 7 8 2 2 4 9 6 4 9 3 5 3 3 1 -1 12 2 -1 9 2 1 3 8 -1 2 5 31 3 1 5 1 5 2 8 3 5 4 4 4</t>
-  </si>
-  <si>
-    <t>12 5 6 11 9 19 7 15 20 8 7 20 10 12 19 31 17 8 6 35 16 14 10 12 5 22 6 14 11 14 8 32 17 14 25 22 7 5 19 1 6 7 0 0 7 4 6 13 7 7 8 5 19 6 6 4 7 6 13 11 0 8 8 9 15 -4 5 8 19 0 25 4 12 30 9 46 12 5 59 23 5 72 3 8 10 1 4 2 4 23 7 2 4 11 6 4 2 15 13 4 7 5 14 22 8 3 27 5 2 10 7 19 5 17 13 21 12 13 4 6 6 13 11 24 5 11 9 8 4 15 5 -2 1 27 13 5 15 8 1 5 -6 10 6 8 3 7 4 1 12 7 0 5 11 7 14 9 3 11 12 -6 8 8 3 28 24 3 11 2 9 22 11 5 3 9 6 23 0 26 29 16 7 11 17 18 14 11 11 4 1 18 16 7 9 3 21 3 20 5 7 1 12 6 6 2 6 8 48 -4 44 9 14 9 8 7 5 7 8 6 10 11 7 37 7 5 8 11 0 10 5 5 8 21 11 10 8 5 16 14 18 7 7 10 14 2 12 16 9 10 10 -1 11 11 13 5 23 10 29 2 6 9 9 18 4 22 5 51 21 8 25 24 9 14 8 12 5 12 17 26 -1 3 15 7 7 5 8 54 5 7 0 15 17 6 9 6 2 3 7 7 17 11 8 22 9 4 20 11 32 6 6 12 17 5 8 48 27 18 27 11 -3 3 7 -8 26 26 23 25 18 0 4 2 6 17 4 3 4 5 2 17 6 7 3 2 6 14 12 20 7 2 6 17 23 6 8 6 10 6 13 9 11 7 15 6 6 34 1 5 16 15 5 8 3 31 -3 9 4 17 8 5 15 1 3 12 25 15 6 8 14 16 8 44 17 3 9 10 9 43 11 9 30 4 10 3 4 19 11 17 -4 7 20 8 9 7 11 4 4 12 8 27 20 42 19 9 10 6 0 4 3 8 8 11 19 4 20 8 6 16 5 12 7 21 11 5 0 20 43 15 6 16 4 13 22 21 12 10 6 3 5 15 3 7 14 18 6 37 12 1 21 8 7 6 4 14 14 9 18 19 17 9 9 15 23 8 24 35 61 15 53 41 1 -2 11 5 16 16 8 9 13 6 3 7 12 2 7 3 5 6 6 6 4 16 39 10 14 4 -4 -4 9 12 4 -2 7 10 18 3 5 3 24 8 13 22 10 2 20 6 12 9 11 6 5 8 24 5 50 19 3 11 1 12 41 2 5 4 22 4 6 11 6 5 7 16 4 3 3 10 15 5 6 21 35 0 11 -1 14 16 3 8 2 15 5 6 5 1 4 3 27 3 6 7 5 22 37 24 40 11 5 5 7 9 6 12 3 15 -2 8 -3 11 11 2 2 8 11 3 1 5 4 5 16 4 0 6 12 18 14 -2 3 19 5 19 7 11 16</t>
+    <t>3 3 1 1 18 7 9 9 6 8 8 4 4 3 -1 11 2 27 3 4 3 2 9 0 -2 4 -1 4 14 -1 2 0 17 5 0 14 3 15 10 4 1 -1 4 3 1 21 1 5 2 4 2 3 22 1 3 4 5 1 1 -1 9 4 16 1 7 3 11 2 0 -1 0 12 6 5 3 3 1 2 4 2 2 5 6 5 1 3 13 1 9 4 2 1 5 -1 11 4 1 2 1 18 9 4 2 8 5 6 6 3 3 5 10 8 5 1 4 6 2 -1 2 3 0 1 5 3 -1 9 1 9 4 2 31 0 5 5 5 12 14 5 11 5 3 4 6 8 3 17 0 8 11 5 1 8 4 5 5 7 3 9 0 -3 2 -4 3 0 9 -4 2 13 2 4 11 16 1 2 27 0 1 16 3 1 1 0 0 2 3 1 3 2 4 1 4 -3 4 3 4 3 3 8 1 2 0 11 -2 2 2 0 2 7 4 8 0 3 0 4 5 3 8 6 10 4 3 5 11 3 2 9 2 3 0 -2 14 -4 -5 7 2 3 6 1 0 8 -2 2 3 4 10 10 17 5 0 0 5 4 7 4 4 8 1 1 4 2 5 6 30 20 3 0 16 3 1 6 3 10 6 5 12 4 1 -3 2 6 3 13 32 0 8 5 9 -2 3 -1 9 2 12 4 0 0 0 -3 -8 1 5 1 1 13 -5 3 8 4 11 6 7 1 6 3 16 1 3 4 1 2 1 6 3 2 1 12 4 0 8 24 4 4 1 2 5 5 10 -3 0 3 1 13 9 7 3 6 20 11 4 3 11 2 1 17 4 3 3 2 3 6 3 0 1 0 10 3 2 6 5 2 3 1 4 12 6 4 2 1 2 4 9 13 4 1 0 16 4 1 9 2 2 13 5 -2 50 6 6 2 4 1 -3 3 9 0 5 11 1 2 5 2 -3 13 11 2 5 5 11 6 -1 2 10 7 26 10 3 3 7 1 -2 4 4 1 2 5 3 4 4 3 8 9 7 1 2 5 4 7 0 4 0 9 1 7 -1 1 3 9 4 2 7 6 15 1 3 -5 4 -2 -2 4 12 10 4 11 7 8 7 3 4 7 5 14 10 4 2 3 8 4 2 18 2 12 7 5 7 4 -1 2 2 21 5 4 5 4 5 3 12 2 15 24 17 1 1 2 9 3 10 10 1 8 1 2 4 1 12 9 16 3 3 5 4 4 2 10 5 2 3 15 3 6 4 1 9 5 0 -1 23 9 -1 -2 9 5 9 0 7 2 0 6 3 3 17 3 6 1 6 4 0 5 11 4 3 3 3 10 5 2 -1 1 3 0 5 2 2 11 -1 13 18 6 9 9 6 2 5 2 10 -3 4 2 4 4 9 7 5 9 3 8 12 -1 3 4 6 0 -1 1 8 6 -1 7 7 2 6 0 0 6 4 7 7 7 2 4 10 2 -4 -1 -1 2 3 2 5 0 5 1 3 21 1 3 2 0 6 -1 5 3 2 6 -1 4 4 4 3 6 8 33 11 4 3 4 1 5 1 5 0 2 3 3 7 4 14 3 6 4 10 -2 -7 10 2 3 5 10 4 2 12 4 2 0 5 4 2 4 4 4 4 6 7 -4 1</t>
+  </si>
+  <si>
+    <t>6 6 11 7 15 10 13 2 6 5 4 9 9 2 17 11 7 12 14 7 19 15 1 3 13 1 12 5 10 6 7 20 9 14 13 10 11 22 2 54 11 16 8 14 8 4 5 4 11 33 15 11 13 15 2 5 7 29 5 18 -4 20 10 49 9 5 7 24 7 6 9 7 6 18 13 11 2 17 5 8 22 17 11 2 14 21 24 8 5 5 10 6 19 45 6 6 6 1 9 12 26 32 4 13 5 16 37 8 4 23 15 23 6 16 2 42 4 3 -1 15 7 8 5 6 22 11 5 15 4 12 15 16 8 9 6 -3 21 -2 20 2 37 8 11 8 19 14 38 4 5 15 17 7 6 17 7 22 10 11 2 13 9 15 18 30 5 13 2 36 7 4 15 23 -3 18 5 3 -4 14 9 25 14 16 8 6 8 19 26 16 5 41 10 7 0 14 10 3 8 6 32 23 7 5 8 14 1 10 9 10 28 14 29 -5 3 44 4 10 26 28 8 13 2 3 8 10 14 6 8 4 3 17 21 11 8 3 19 11 6 3 9 8 11 12 13 3 5 15 6 19 9 10 9 16 15 3 22 34 23 6 3 1 75 19 3 14 7 44 20 12 14 2 9 5 13 9 2 8 29 37 7 7 8 9 14 8 2 2 4 6 20 8 11 3 15 3 2 8 19 14 18 20 1 19 6 4 10 -5 15 28 5 20 12 15 30 14 5 20 8 5 17 9 9 1 16 17 7 37 21 9 13 16 9 5 15 6 26 44 28 26 5 32 13 5 11 9 8 4 -5 11 6 5 14 10 23 23 19 1 2 13 4 20 9 5 16 9 9 8 16 7 7 10 15 6 10 31 5 4 13 9 9 5 11 2 9 4 11 12 13 26 0 4 31 2 9 17 5 19 16 9 25 12 21 9 -2 37 3 7 2 3 11 8 8 18 12 3 -2 6 9 12 10 8 10 12 31 8 3 7 26 -1 9 42 9 11 20 8 14 8 15 -5 9 7 3 13 22 16 14 8 5 23 24 4 5 1 9 1 11 11 16 11 8 3 3 5 15 9 11 33 17 16 5 6 8 9 7 0 71 1 12 12 5 3 6 14 13 4 12 11 -1 5 8 0 5 21 13 17 33 12 9 4 23 8 18 16 1 4 17 9 11 24 9 8 -6 4 11 6 22 19 -2 9 28 6 7 12 6 11 8 3 14 75 8 4 14 6 7 19 10 33 17 11 14 10 4 14 20 14 5 11 40 5 46 3 8 3 23 13 7 7 15 5 6 6 8 17 -1 5 15 28 7 6 11 12 8 10 2 6 23 18 10 5 5 7 11 8 11 9 36 1 9 2 19 32 4 6 4 9 2 15 7 6 3 14 7 10 5 12 11 44 12 6 15 11 9 7 8 5 8 10 6 26 8 12 8 11 5 4 3 11 8 17 6 8 5 5 4 1 8 6 4 4 11 6 20 9 19 27 49 3 5 7 27 19 17 14 9 10 5 13 9 5 12 13 2 9 0 3 11 5 21 19 6 12 6 24 7 8 6 6 5 10 9 23 8 11 24 12 14 6 4 9 10 4 2 10 3 9 12 7 0 15 5 6 6 7 11 9 17 9 3 11 12 9 18 8 4 9 10 10 15 14 24 2 2 7 10 4 2 1 7 2 7 12 2 25 6 14 10 13 22 9 13 6 7 5 11 22 19 8 8 7 13 12 -1 16 27 3 1 0 9 7 11 7 13 17 2 10 16 32 3 7 3 38 8 30 22 1 10 8 12 0 8 37 13 23 7 11 8 24 14 22 10 12 6 6 4 8 8 8 9 9 12 13 9 29 14 -7 12 6 14 14 38 8 4</t>
+  </si>
+  <si>
+    <t>5 7 9 2 19 4 6 1 4 7 2 2 2 1 5 6 17 2 4 13 1 9 9 6 4 3 5 3 0 1 3 3 5 3 13 5 3 1 7 9 5 8 7 2 3 3 5 9 1 8 7 4 2 0 7 3 3 -1 1 11 1 -1 2 5 3 30 5 6 11 3 6 4 18 4 8 11 1 4 5 24 3 2 8 5 2 2 3 4 10 18 -1 2 1 2 3 6 2 5 6 -1 8 4 4 7 0 9 41 4 2 5 3 5 1 10 7 3 6 1 2 7 2 2 43 1 3 4 4 2 0 4 2 2 0 7 7 2 4 7 2 5 1 9 10 3 9 4 2 3 5 4 1 13 3 -3 3 6 -1 7 -6 2 0 6 3 -1 6 3 2 14 2 6 20 9 4 19 6 1 1 6 5 10 8 -1 10 6 4 2 4 11 0 3 2 3 3 3 6 7 6 4 0 3 9 3 5 2 2 3 1 6 4 2 5 0 5 6 0 8 5 2 6 5 4 7 5 3 6 13 4 6 0 10 3 -1 1 2 -4 4 4 1 6 1 1 4 13 2 2 2 5 6 5 3 0 2 5 2 2 11 1 0 4 2 5 12 4 0 -3 5 4 1 2 11 3 1 34 1 6 0 3 1 0 2 8 0 4 8 8 4 3 65 1 6 3 3 13 2 0 3 5 2 7 1 3 -1 4 5 1 8 6 1 1 7 7 1 -2 6 2 2 2 2 2 3 5 2 3 7 2 9 3 5 2 1 9 5 5 4 2 3 7 2 1 11 2 3 6 2 4 5 2 1 8 14 4 3 4 -7 5 0 6 3 4 6 6 3 3 2 2 4 3 2 6 5 2 1 3 1 9 2 5 2 0 1 11 0 8 5 3 1 9 3 3 34 1 6 2 -2 5 5 5 6 0 6 4 -3 23 18 2 9 3 7 6 1 10 4 4 3 0 -1 1 3 7 17 2 15 3 7 10 4 4 5 1 18 8 11 3 13 -3 3 6 6 11 7 8 4 1 1 0 3 4 27 6 3 2 0 4 7 8 4 4 8 1 1 5 2 6 7 -1 6 4 2 4 17 8 18 5 15 6 17 4 2 6 7 6 2 2 -2 5 2 6 5 12 31 9 7 1 9 9 8 0 0 21 3 4 5 20 14 -4 3 4 -2 20 6 2 8 5 9 2 1 11 5 9 -1 3 1 1 2 1 4 -1 9 1 2 3 3 5 -2 -1 5 9 1 -1 11 6 9 6 0 8 1 2 5 11 12 5 12 6 3 3 -4 7 2 2 7 4 2 13 10 0 8 22 2 11 9 9 8 2 -1 3 5 -1 0 0 3 1 4 12 4 6 6 0 8 3 4 8 1 3 5 3 3 2 2 15 1 7 8 6 4 4 11 2 5 3 9 2 3 4 0 8 5 0 3 4 -1 2 4 0 11 1 -1 2 2 4 6 2 1 2 8 5 4 -4 9 3 2 -4 5 2 0 2 -3 11 2 2 6 2 14 5 4 0 3 5 4 10 2 2 4 9 15 2 3 -1 7 7 -2 8 5 3 1 5 5 0 7 8 2 2 4 9 6 4 9 3 5 3 3 1 -1 12 2 -1 9 2 1 3 8 -1 2 5 31 3 1 5 1 5 2 8 3 5 4 4 4 9 -1 1 14 2 9 6 7 2 14 3 0 1 11 3 5 5 -1 5 4 8 9 7 2 6 2 16 1</t>
+  </si>
+  <si>
+    <t>12 5 6 11 9 19 7 15 20 8 7 20 10 12 19 31 17 8 6 35 16 14 10 12 5 22 6 14 11 14 8 32 17 14 25 22 7 5 19 1 6 7 0 0 7 4 6 13 7 7 8 5 19 6 6 4 7 6 13 11 0 8 8 9 15 -4 5 8 19 0 25 4 12 30 9 46 12 5 59 23 5 72 3 8 10 1 4 2 4 23 7 2 4 11 6 4 2 15 13 4 7 5 14 22 8 3 27 5 2 10 7 19 5 17 13 21 12 13 4 6 6 13 11 24 5 11 9 8 4 15 5 -2 1 27 13 5 15 8 1 5 -6 10 6 8 3 7 4 1 12 7 0 5 11 7 14 9 3 11 12 -6 8 8 3 28 24 3 11 2 9 22 11 5 3 9 6 23 0 26 29 16 7 11 17 18 14 11 11 4 1 18 16 7 9 3 21 3 20 5 7 1 12 6 6 2 6 8 48 -4 44 9 14 9 8 7 5 7 8 6 10 11 7 37 7 5 8 11 0 10 5 5 8 21 11 10 8 5 16 14 18 7 7 10 14 2 12 16 9 10 10 -1 11 11 13 5 23 10 29 2 6 9 9 18 4 22 5 51 21 8 25 24 9 14 8 12 5 12 17 26 -1 3 15 7 7 5 8 54 5 7 0 15 17 6 9 6 2 3 7 7 17 11 8 22 9 4 20 11 32 6 6 12 17 5 8 48 27 18 27 11 -3 3 7 -8 26 26 23 25 18 0 4 2 6 17 4 3 4 5 2 17 6 7 3 2 6 14 12 20 7 2 6 17 23 6 8 6 10 6 13 9 11 7 15 6 6 34 1 5 16 15 5 8 3 31 -3 9 4 17 8 5 15 1 3 12 25 15 6 8 14 16 8 44 17 3 9 10 9 43 11 9 30 4 10 3 4 19 11 17 -4 7 20 8 9 7 11 4 4 12 8 27 20 42 19 9 10 6 0 4 3 8 8 11 19 4 20 8 6 16 5 12 7 21 11 5 0 20 43 15 6 16 4 13 22 21 12 10 6 3 5 15 3 7 14 18 6 37 12 1 21 8 7 6 4 14 14 9 18 19 17 9 9 15 23 8 24 35 61 15 53 41 1 -2 11 5 16 16 8 9 13 6 3 7 12 2 7 3 5 6 6 6 4 16 39 10 14 4 -4 -4 9 12 4 -2 7 10 18 3 5 3 24 8 13 22 10 2 20 6 12 9 11 6 5 8 24 5 50 19 3 11 1 12 41 2 5 4 22 4 6 11 6 5 7 16 4 3 3 10 15 5 6 21 35 0 11 -1 14 16 3 8 2 15 5 6 5 1 4 3 27 3 6 7 5 22 37 24 40 11 5 5 7 9 6 12 3 15 -2 8 -3 11 11 2 2 8 11 3 1 5 4 5 16 4 0 6 12 18 14 -2 3 19 5 19 7 11 16 36 10 10 6 3 2 34 5 9 5 8 11 9 13 19 12 6 19 10 7</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +167,19 @@
     <t>RM</t>
   </si>
   <si>
-    <t>66 66 63 60 64 69 63 57 58 65 65 51 44 68 65 62 67 63 46 66 61 61 46 60 67 68 64 60 59 73 60 63 65 12 55 62 61 66 66 60 66 67 62 46 63 64 65 63 60 60</t>
-  </si>
-  <si>
-    <t>21 22 23 16 28 20 29 26 93 19 19 18 9 29 17 23 23 0 6 22 31 24 7 18 27 26 28 21 13 17 20 14 44 0 15 23 19 17 17 12 19 26 19 3 23 19 18 19 21 18</t>
+    <t>66 66 63 60 64 69 63 57 58 65 65 51 44 68 65 62 67 63 46 66 61 61 46 60 67 68 64 60 59 73 60 63 65 12 55 62 61 66 66 60 66 67 62 46 63 64 65 63 60 60 66 63</t>
+  </si>
+  <si>
+    <t>21 22 23 16 28 20 29 26 93 19 19 18 9 29 17 23 23 0 6 22 31 24 7 18 27 26 28 21 13 17 20 14 44 0 15 23 19 17 17 12 19 26 19 3 23 19 18 19 21 18 26 18</t>
   </si>
   <si>
     <t>20 31 19 22 23 22 11 2 23 26 29 21 29 27 15 21 44 26 19 31 28 18 24 18 26 41 21 25 24 20 8 33 3 9 25 30 28 22 32 28 31 33 0 28 23 12 20 14 38 27 39</t>
   </si>
   <si>
-    <t>44 38 54 38 42 32 54 55 58 65 65 53 60 44 67 53 47 33 33 42 38 57 29 38 44 40 36 55 52 50 54 32 23 39 30 43 41 58 48 51 34 61 45 37 41 25 31 52 58 24 24 44 38 44 51 27 29 44 47 54 49 32 51 46 42 34 19 52 41 50 52 43 54 55 44 64 42 49 49 68 31</t>
-  </si>
-  <si>
-    <t>0 0 19 0 3 0 0 0 16 12 0 0 0 0 0 0 0 0 0 24 0 0 0 0 0 0 0 8 3 0 2 0 0 -2 0 0 0 -4 11 1 0 17 9 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 16 0 0 7 0 0 0 0 0 0 0 0 0 0 0 15 0 0 7 0 0</t>
-  </si>
-  <si>
-    <t>0 0 0 0 0 16 0 7 0 0 0 11 0 2 0 0 0 11 10 0 0 0 0 36 0 0 6 0 -2 12 0 5 3 0 5 0 0 0 67 0 0 0 -2 0 0 -7 -1 1 0 0 0 0 11 9 0 0 8 0 0 0 0 0 0 7 0 13 17 0 0 7 30 30 0 0 0 0 0 31 25 0 0 0 0 0 0 0 0 3 0 0 0 37 0 9 0 0 0 0 0 0 9</t>
+    <t>44 38 54 38 42 32 54 55 58 65 65 53 60 44 67 53 47 33 33 42 38 57 29 38 44 40 36 55 52 50 54 32 23 39 30 43 41 58 48 51 34 61 45 37 41 25 31 52 58 24 24 44 38 44 51 27 29 44 47 54 49 32 51 46 42 34 19 52 41 50 52 43 54 55 44 64 42 49 49 68 31 54 50 37</t>
+  </si>
+  <si>
+    <t>0 0 19 0 3 0 0 0 16 12 0 0 0 0 0 0 0 0 0 24 0 0 0 0 0 0 0 8 3 0 2 0 0 -2 0 0 0 -4 11 1 0 17 9 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 16 0 0 7 0 0 0 0 0 0 0 0 0 0 0 15 0 0 7 0 0 14 6 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -204,13 +207,16 @@
   </si>
   <si>
     <t>Offside</t>
+  </si>
+  <si>
+    <t>0 0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,6 +279,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -319,7 +333,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -351,9 +365,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -385,6 +417,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -560,14 +610,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,7 +625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -586,7 +636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -603,14 +653,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -660,45 +710,45 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="D2">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H2">
         <v>4</v>
       </c>
       <c r="I2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>663</v>
+        <v>692</v>
       </c>
       <c r="M2">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="N2">
         <v>27</v>
@@ -710,39 +760,39 @@
         <v>19</v>
       </c>
       <c r="Q2">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="D3">
         <v>17</v>
       </c>
       <c r="E3">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F3">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="G3">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H3">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I3">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="J3">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +804,7 @@
         <v>382</v>
       </c>
       <c r="N3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -772,14 +822,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -808,7 +858,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -840,7 +890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -878,14 +928,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -935,7 +985,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -943,81 +993,81 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>5</v>
       </c>
       <c r="F2">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G2">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="H2">
         <v>4</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>528</v>
+        <v>568</v>
       </c>
       <c r="M2">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="N2">
         <v>23</v>
       </c>
       <c r="O2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="P2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="Q2">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F3">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="G3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I3">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="J3">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1079,7 @@
         <v>305</v>
       </c>
       <c r="N3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1047,14 +1097,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1083,7 +1133,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1115,7 +1165,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1153,14 +1203,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
@@ -1210,27 +1262,27 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B2">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -1239,22 +1291,22 @@
         <v>3</v>
       </c>
       <c r="J2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1263,12 +1315,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1277,7 +1329,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -1291,7 +1343,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -1302,10 +1354,10 @@
         <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
@@ -1319,45 +1371,45 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2">
         <v>10</v>
       </c>
       <c r="E2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -1368,10 +1420,10 @@
         <v>15</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1380,14 +1432,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1398,51 +1450,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B2">
-        <v>37</v>
-      </c>
-      <c r="C2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="B3">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5">
         <v>2</v>

--- a/Base/Teams/Chiefs/Team Data.xlsx
+++ b/Base/Teams/Chiefs/Team Data.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Chiefs/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_66D1BCBC9EC36F001B0DF7614787DA07D421A0AE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1100956-C211-4753-A91D-BDA2F8F4EDDA}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="YDS" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
     <sheet name="TURNS" sheetId="7" r:id="rId7"/>
     <sheet name="PEN" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -41,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>3 3 1 1 18 7 9 9 6 8 8 4 4 3 -1 11 2 27 3 4 3 2 9 0 -2 4 -1 4 14 -1 2 0 17 5 0 14 3 15 10 4 1 -1 4 3 1 21 1 5 2 4 2 3 22 1 3 4 5 1 1 -1 9 4 16 1 7 3 11 2 0 -1 0 12 6 5 3 3 1 2 4 2 2 5 6 5 1 3 13 1 9 4 2 1 5 -1 11 4 1 2 1 18 9 4 2 8 5 6 6 3 3 5 10 8 5 1 4 6 2 -1 2 3 0 1 5 3 -1 9 1 9 4 2 31 0 5 5 5 12 14 5 11 5 3 4 6 8 3 17 0 8 11 5 1 8 4 5 5 7 3 9 0 -3 2 -4 3 0 9 -4 2 13 2 4 11 16 1 2 27 0 1 16 3 1 1 0 0 2 3 1 3 2 4 1 4 -3 4 3 4 3 3 8 1 2 0 11 -2 2 2 0 2 7 4 8 0 3 0 4 5 3 8 6 10 4 3 5 11 3 2 9 2 3 0 -2 14 -4 -5 7 2 3 6 1 0 8 -2 2 3 4 10 10 17 5 0 0 5 4 7 4 4 8 1 1 4 2 5 6 30 20 3 0 16 3 1 6 3 10 6 5 12 4 1 -3 2 6 3 13 32 0 8 5 9 -2 3 -1 9 2 12 4 0 0 0 -3 -8 1 5 1 1 13 -5 3 8 4 11 6 7 1 6 3 16 1 3 4 1 2 1 6 3 2 1 12 4 0 8 24 4 4 1 2 5 5 10 -3 0 3 1 13 9 7 3 6 20 11 4 3 11 2 1 17 4 3 3 2 3 6 3 0 1 0 10 3 2 6 5 2 3 1 4 12 6 4 2 1 2 4 9 13 4 1 0 16 4 1 9 2 2 13 5 -2 50 6 6 2 4 1 -3 3 9 0 5 11 1 2 5 2 -3 13 11 2 5 5 11 6 -1 2 10 7 26 10 3 3 7 1 -2 4 4 1 2 5 3 4 4 3 8 9 7 1 2 5 4 7 0 4 0 9 1 7 -1 1 3 9 4 2 7 6 15 1 3 -5 4 -2 -2 4 12 10 4 11 7 8 7 3 4 7 5 14 10 4 2 3 8 4 2 18 2 12 7 5 7 4 -1 2 2 21 5 4 5 4 5 3 12 2 15 24 17 1 1 2 9 3 10 10 1 8 1 2 4 1 12 9 16 3 3 5 4 4 2 10 5 2 3 15 3 6 4 1 9 5 0 -1 23 9 -1 -2 9 5 9 0 7 2 0 6 3 3 17 3 6 1 6 4 0 5 11 4 3 3 3 10 5 2 -1 1 3 0 5 2 2 11 -1 13 18 6 9 9 6 2 5 2 10 -3 4 2 4 4 9 7 5 9 3 8 12 -1 3 4 6 0 -1 1 8 6 -1 7 7 2 6 0 0 6 4 7 7 7 2 4 10 2 -4 -1 -1 2 3 2 5 0 5 1 3 21 1 3 2 0 6 -1 5 3 2 6 -1 4 4 4 3 6 8 33 11 4 3 4 1 5 1 5 0 2 3 3 7 4 14 3 6 4 10 -2 -7 10 2 3 5 10 4 2 12 4 2 0 5 4 2 4 4 4 4 6 7 -4 1</t>
-  </si>
-  <si>
-    <t>6 6 11 7 15 10 13 2 6 5 4 9 9 2 17 11 7 12 14 7 19 15 1 3 13 1 12 5 10 6 7 20 9 14 13 10 11 22 2 54 11 16 8 14 8 4 5 4 11 33 15 11 13 15 2 5 7 29 5 18 -4 20 10 49 9 5 7 24 7 6 9 7 6 18 13 11 2 17 5 8 22 17 11 2 14 21 24 8 5 5 10 6 19 45 6 6 6 1 9 12 26 32 4 13 5 16 37 8 4 23 15 23 6 16 2 42 4 3 -1 15 7 8 5 6 22 11 5 15 4 12 15 16 8 9 6 -3 21 -2 20 2 37 8 11 8 19 14 38 4 5 15 17 7 6 17 7 22 10 11 2 13 9 15 18 30 5 13 2 36 7 4 15 23 -3 18 5 3 -4 14 9 25 14 16 8 6 8 19 26 16 5 41 10 7 0 14 10 3 8 6 32 23 7 5 8 14 1 10 9 10 28 14 29 -5 3 44 4 10 26 28 8 13 2 3 8 10 14 6 8 4 3 17 21 11 8 3 19 11 6 3 9 8 11 12 13 3 5 15 6 19 9 10 9 16 15 3 22 34 23 6 3 1 75 19 3 14 7 44 20 12 14 2 9 5 13 9 2 8 29 37 7 7 8 9 14 8 2 2 4 6 20 8 11 3 15 3 2 8 19 14 18 20 1 19 6 4 10 -5 15 28 5 20 12 15 30 14 5 20 8 5 17 9 9 1 16 17 7 37 21 9 13 16 9 5 15 6 26 44 28 26 5 32 13 5 11 9 8 4 -5 11 6 5 14 10 23 23 19 1 2 13 4 20 9 5 16 9 9 8 16 7 7 10 15 6 10 31 5 4 13 9 9 5 11 2 9 4 11 12 13 26 0 4 31 2 9 17 5 19 16 9 25 12 21 9 -2 37 3 7 2 3 11 8 8 18 12 3 -2 6 9 12 10 8 10 12 31 8 3 7 26 -1 9 42 9 11 20 8 14 8 15 -5 9 7 3 13 22 16 14 8 5 23 24 4 5 1 9 1 11 11 16 11 8 3 3 5 15 9 11 33 17 16 5 6 8 9 7 0 71 1 12 12 5 3 6 14 13 4 12 11 -1 5 8 0 5 21 13 17 33 12 9 4 23 8 18 16 1 4 17 9 11 24 9 8 -6 4 11 6 22 19 -2 9 28 6 7 12 6 11 8 3 14 75 8 4 14 6 7 19 10 33 17 11 14 10 4 14 20 14 5 11 40 5 46 3 8 3 23 13 7 7 15 5 6 6 8 17 -1 5 15 28 7 6 11 12 8 10 2 6 23 18 10 5 5 7 11 8 11 9 36 1 9 2 19 32 4 6 4 9 2 15 7 6 3 14 7 10 5 12 11 44 12 6 15 11 9 7 8 5 8 10 6 26 8 12 8 11 5 4 3 11 8 17 6 8 5 5 4 1 8 6 4 4 11 6 20 9 19 27 49 3 5 7 27 19 17 14 9 10 5 13 9 5 12 13 2 9 0 3 11 5 21 19 6 12 6 24 7 8 6 6 5 10 9 23 8 11 24 12 14 6 4 9 10 4 2 10 3 9 12 7 0 15 5 6 6 7 11 9 17 9 3 11 12 9 18 8 4 9 10 10 15 14 24 2 2 7 10 4 2 1 7 2 7 12 2 25 6 14 10 13 22 9 13 6 7 5 11 22 19 8 8 7 13 12 -1 16 27 3 1 0 9 7 11 7 13 17 2 10 16 32 3 7 3 38 8 30 22 1 10 8 12 0 8 37 13 23 7 11 8 24 14 22 10 12 6 6 4 8 8 8 9 9 12 13 9 29 14 -7 12 6 14 14 38 8 4</t>
-  </si>
-  <si>
-    <t>5 7 9 2 19 4 6 1 4 7 2 2 2 1 5 6 17 2 4 13 1 9 9 6 4 3 5 3 0 1 3 3 5 3 13 5 3 1 7 9 5 8 7 2 3 3 5 9 1 8 7 4 2 0 7 3 3 -1 1 11 1 -1 2 5 3 30 5 6 11 3 6 4 18 4 8 11 1 4 5 24 3 2 8 5 2 2 3 4 10 18 -1 2 1 2 3 6 2 5 6 -1 8 4 4 7 0 9 41 4 2 5 3 5 1 10 7 3 6 1 2 7 2 2 43 1 3 4 4 2 0 4 2 2 0 7 7 2 4 7 2 5 1 9 10 3 9 4 2 3 5 4 1 13 3 -3 3 6 -1 7 -6 2 0 6 3 -1 6 3 2 14 2 6 20 9 4 19 6 1 1 6 5 10 8 -1 10 6 4 2 4 11 0 3 2 3 3 3 6 7 6 4 0 3 9 3 5 2 2 3 1 6 4 2 5 0 5 6 0 8 5 2 6 5 4 7 5 3 6 13 4 6 0 10 3 -1 1 2 -4 4 4 1 6 1 1 4 13 2 2 2 5 6 5 3 0 2 5 2 2 11 1 0 4 2 5 12 4 0 -3 5 4 1 2 11 3 1 34 1 6 0 3 1 0 2 8 0 4 8 8 4 3 65 1 6 3 3 13 2 0 3 5 2 7 1 3 -1 4 5 1 8 6 1 1 7 7 1 -2 6 2 2 2 2 2 3 5 2 3 7 2 9 3 5 2 1 9 5 5 4 2 3 7 2 1 11 2 3 6 2 4 5 2 1 8 14 4 3 4 -7 5 0 6 3 4 6 6 3 3 2 2 4 3 2 6 5 2 1 3 1 9 2 5 2 0 1 11 0 8 5 3 1 9 3 3 34 1 6 2 -2 5 5 5 6 0 6 4 -3 23 18 2 9 3 7 6 1 10 4 4 3 0 -1 1 3 7 17 2 15 3 7 10 4 4 5 1 18 8 11 3 13 -3 3 6 6 11 7 8 4 1 1 0 3 4 27 6 3 2 0 4 7 8 4 4 8 1 1 5 2 6 7 -1 6 4 2 4 17 8 18 5 15 6 17 4 2 6 7 6 2 2 -2 5 2 6 5 12 31 9 7 1 9 9 8 0 0 21 3 4 5 20 14 -4 3 4 -2 20 6 2 8 5 9 2 1 11 5 9 -1 3 1 1 2 1 4 -1 9 1 2 3 3 5 -2 -1 5 9 1 -1 11 6 9 6 0 8 1 2 5 11 12 5 12 6 3 3 -4 7 2 2 7 4 2 13 10 0 8 22 2 11 9 9 8 2 -1 3 5 -1 0 0 3 1 4 12 4 6 6 0 8 3 4 8 1 3 5 3 3 2 2 15 1 7 8 6 4 4 11 2 5 3 9 2 3 4 0 8 5 0 3 4 -1 2 4 0 11 1 -1 2 2 4 6 2 1 2 8 5 4 -4 9 3 2 -4 5 2 0 2 -3 11 2 2 6 2 14 5 4 0 3 5 4 10 2 2 4 9 15 2 3 -1 7 7 -2 8 5 3 1 5 5 0 7 8 2 2 4 9 6 4 9 3 5 3 3 1 -1 12 2 -1 9 2 1 3 8 -1 2 5 31 3 1 5 1 5 2 8 3 5 4 4 4 9 -1 1 14 2 9 6 7 2 14 3 0 1 11 3 5 5 -1 5 4 8 9 7 2 6 2 16 1</t>
-  </si>
-  <si>
-    <t>12 5 6 11 9 19 7 15 20 8 7 20 10 12 19 31 17 8 6 35 16 14 10 12 5 22 6 14 11 14 8 32 17 14 25 22 7 5 19 1 6 7 0 0 7 4 6 13 7 7 8 5 19 6 6 4 7 6 13 11 0 8 8 9 15 -4 5 8 19 0 25 4 12 30 9 46 12 5 59 23 5 72 3 8 10 1 4 2 4 23 7 2 4 11 6 4 2 15 13 4 7 5 14 22 8 3 27 5 2 10 7 19 5 17 13 21 12 13 4 6 6 13 11 24 5 11 9 8 4 15 5 -2 1 27 13 5 15 8 1 5 -6 10 6 8 3 7 4 1 12 7 0 5 11 7 14 9 3 11 12 -6 8 8 3 28 24 3 11 2 9 22 11 5 3 9 6 23 0 26 29 16 7 11 17 18 14 11 11 4 1 18 16 7 9 3 21 3 20 5 7 1 12 6 6 2 6 8 48 -4 44 9 14 9 8 7 5 7 8 6 10 11 7 37 7 5 8 11 0 10 5 5 8 21 11 10 8 5 16 14 18 7 7 10 14 2 12 16 9 10 10 -1 11 11 13 5 23 10 29 2 6 9 9 18 4 22 5 51 21 8 25 24 9 14 8 12 5 12 17 26 -1 3 15 7 7 5 8 54 5 7 0 15 17 6 9 6 2 3 7 7 17 11 8 22 9 4 20 11 32 6 6 12 17 5 8 48 27 18 27 11 -3 3 7 -8 26 26 23 25 18 0 4 2 6 17 4 3 4 5 2 17 6 7 3 2 6 14 12 20 7 2 6 17 23 6 8 6 10 6 13 9 11 7 15 6 6 34 1 5 16 15 5 8 3 31 -3 9 4 17 8 5 15 1 3 12 25 15 6 8 14 16 8 44 17 3 9 10 9 43 11 9 30 4 10 3 4 19 11 17 -4 7 20 8 9 7 11 4 4 12 8 27 20 42 19 9 10 6 0 4 3 8 8 11 19 4 20 8 6 16 5 12 7 21 11 5 0 20 43 15 6 16 4 13 22 21 12 10 6 3 5 15 3 7 14 18 6 37 12 1 21 8 7 6 4 14 14 9 18 19 17 9 9 15 23 8 24 35 61 15 53 41 1 -2 11 5 16 16 8 9 13 6 3 7 12 2 7 3 5 6 6 6 4 16 39 10 14 4 -4 -4 9 12 4 -2 7 10 18 3 5 3 24 8 13 22 10 2 20 6 12 9 11 6 5 8 24 5 50 19 3 11 1 12 41 2 5 4 22 4 6 11 6 5 7 16 4 3 3 10 15 5 6 21 35 0 11 -1 14 16 3 8 2 15 5 6 5 1 4 3 27 3 6 7 5 22 37 24 40 11 5 5 7 9 6 12 3 15 -2 8 -3 11 11 2 2 8 11 3 1 5 4 5 16 4 0 6 12 18 14 -2 3 19 5 19 7 11 16 36 10 10 6 3 2 34 5 9 5 8 11 9 13 19 12 6 19 10 7</t>
+    <t>3 3 1 1 18 7 9 9 6 8 8 4 4 3 -1 11 2 27 3 4 3 2 9 0 -2 4 -1 4 14 -1 2 0 17 5 0 14 3 15 10 4 1 -1 4 3 1 21 1 5 2 4 2 3 22 1 3 4 5 1 1 -1 9 4 16 1 7 3 11 2 0 -1 0 12 6 5 3 3 1 2 4 2 2 5 6 5 1 3 13 1 9 4 2 1 5 -1 11 4 1 2 1 18 9 4 2 8 5 6 6 3 3 5 10 8 5 1 4 6 2 -1 2 3 0 1 5 3 -1 9 1 9 4 2 31 0 5 5 5 12 14 5 11 5 3 4 6 8 3 17 0 8 11 5 1 8 4 5 5 7 3 9 0 -3 2 -4 3 0 9 -4 2 13 2 4 11 16 1 2 27 0 1 16 3 1 1 0 0 2 3 1 3 2 4 1 4 -3 4 3 4 3 3 8 1 2 0 11 -2 2 2 0 2 7 4 8 0 3 0 4 5 3 8 6 10 4 3 5 11 3 2 9 2 3 0 -2 14 -4 -5 7 2 3 6 1 0 8 -2 2 3 4 10 10 17 5 0 0 5 4 7 4 4 8 1 1 4 2 5 6 30 20 3 0 16 3 1 6 3 10 6 5 12 4 1 -3 2 6 3 13 32 0 8 5 9 -2 3 -1 9 2 12 4 0 0 0 -3 -8 1 5 1 1 13 -5 3 8 4 11 6 7 1 6 3 16 1 3 4 1 2 1 6 3 2 1 12 4 0 8 24 4 4 1 2 5 5 10 -3 0 3 1 13 9 7 3 6 20 11 4 3 11 2 1 17 4 3 3 2 3 6 3 0 1 0 10 3 2 6 5 2 3 1 4 12 6 4 2 1 2 4 9 13 4 1 0 16 4 1 9 2 2 13 5 -2 50 6 6 2 4 1 -3 3 9 0 5 11 1 2 5 2 -3 13 11 2 5 5 11 6 -1 2 10 7 26 10 3 3 7 1 -2 4 4 1 2 5 3 4 4 3 8 9 7 1 2 5 4 7 0 4 0 9 1 7 -1 1 3 9 4 2 7 6 15 1 3 -5 4 -2 -2 4 12 10 4 11 7 8 7 3 4 7 5 14 10 4 2 3 8 4 2 18 2 12 7 5 7 4 -1 2 2 21 5 4 5 4 5 3 12 2 15 24 17 1 1 2 9 3 10 10 1 8 1 2 4 1 12 9 16 3 3 5 4 4 2 10 5 2 3 15 3 6 4 1 9 5 0 -1 23 9 -1 -2 9 5 9 0 7 2 0 6 3 3 17 3 6 1 6 4 0 5 11 4 3 3 3 10 5 2 -1 1 3 0 5 2 2 11 -1 13 18 6 9 9 6 2 5 2 10 -3 4 2 4 4 9 7 5 9 3 8 12 -1 3 4 6 0 -1 1 8 6 -1 7 7 2 6 0 0 6 4 7 7 7 2 4 10 2 -4 -1 -1 2 3 2 5 0 5 1 3 21 1 3 2 0 6 -1 5 3 2 6 -1 4 4 4 3 6 8 33 11 4 3 4 1 5 1 5 0 2 3 3 7 4 14 3 6 4 10 -2 -7 10 2 3 5 10 4 2 12 4 2 0 5 4 2 4 4 4 4 6 7 -4 1 2 1 2 7 5 7 0 3 1 0 0 1 4 9 6 4 2 10 4 2 -2 2 4 2 5 2</t>
+  </si>
+  <si>
+    <t>6 6 11 7 15 10 13 2 6 5 4 9 9 2 17 11 7 12 14 7 19 15 1 3 13 1 12 5 10 6 7 20 9 14 13 10 11 22 2 54 11 16 8 14 8 4 5 4 11 33 15 11 13 15 2 5 7 29 5 18 -4 20 10 49 9 5 7 24 7 6 9 7 6 18 13 11 2 17 5 8 22 17 11 2 14 21 24 8 5 5 10 6 19 45 6 6 6 1 9 12 26 32 4 13 5 16 37 8 4 23 15 23 6 16 2 42 4 3 -1 15 7 8 5 6 22 11 5 15 4 12 15 16 8 9 6 -3 21 -2 20 2 37 8 11 8 19 14 38 4 5 15 17 7 6 17 7 22 10 11 2 13 9 15 18 30 5 13 2 36 7 4 15 23 -3 18 5 3 -4 14 9 25 14 16 8 6 8 19 26 16 5 41 10 7 0 14 10 3 8 6 32 23 7 5 8 14 1 10 9 10 28 14 29 -5 3 44 4 10 26 28 8 13 2 3 8 10 14 6 8 4 3 17 21 11 8 3 19 11 6 3 9 8 11 12 13 3 5 15 6 19 9 10 9 16 15 3 22 34 23 6 3 1 75 19 3 14 7 44 20 12 14 2 9 5 13 9 2 8 29 37 7 7 8 9 14 8 2 2 4 6 20 8 11 3 15 3 2 8 19 14 18 20 1 19 6 4 10 -5 15 28 5 20 12 15 30 14 5 20 8 5 17 9 9 1 16 17 7 37 21 9 13 16 9 5 15 6 26 44 28 26 5 32 13 5 11 9 8 4 -5 11 6 5 14 10 23 23 19 1 2 13 4 20 9 5 16 9 9 8 16 7 7 10 15 6 10 31 5 4 13 9 9 5 11 2 9 4 11 12 13 26 0 4 31 2 9 17 5 19 16 9 25 12 21 9 -2 37 3 7 2 3 11 8 8 18 12 3 -2 6 9 12 10 8 10 12 31 8 3 7 26 -1 9 42 9 11 20 8 14 8 15 -5 9 7 3 13 22 16 14 8 5 23 24 4 5 1 9 1 11 11 16 11 8 3 3 5 15 9 11 33 17 16 5 6 8 9 7 0 71 1 12 12 5 3 6 14 13 4 12 11 -1 5 8 0 5 21 13 17 33 12 9 4 23 8 18 16 1 4 17 9 11 24 9 8 -6 4 11 6 22 19 -2 9 28 6 7 12 6 11 8 3 14 75 8 4 14 6 7 19 10 33 17 11 14 10 4 14 20 14 5 11 40 5 46 3 8 3 23 13 7 7 15 5 6 6 8 17 -1 5 15 28 7 6 11 12 8 10 2 6 23 18 10 5 5 7 11 8 11 9 36 1 9 2 19 32 4 6 4 9 2 15 7 6 3 14 7 10 5 12 11 44 12 6 15 11 9 7 8 5 8 10 6 26 8 12 8 11 5 4 3 11 8 17 6 8 5 5 4 1 8 6 4 4 11 6 20 9 19 27 49 3 5 7 27 19 17 14 9 10 5 13 9 5 12 13 2 9 0 3 11 5 21 19 6 12 6 24 7 8 6 6 5 10 9 23 8 11 24 12 14 6 4 9 10 4 2 10 3 9 12 7 0 15 5 6 6 7 11 9 17 9 3 11 12 9 18 8 4 9 10 10 15 14 24 2 2 7 10 4 2 1 7 2 7 12 2 25 6 14 10 13 22 9 13 6 7 5 11 22 19 8 8 7 13 12 -1 16 27 3 1 0 9 7 11 7 13 17 2 10 16 32 3 7 3 38 8 30 22 1 10 8 12 0 8 37 13 23 7 11 8 24 14 22 10 12 6 6 4 8 8 8 9 9 12 13 9 29 14 -7 12 6 14 14 38 8 4 6 44 23 10 19 19 28 7 9 3 1 7 38 15 5 -3 2 8 16 1</t>
+  </si>
+  <si>
+    <t>5 7 9 2 19 4 6 1 4 7 2 2 2 1 5 6 17 2 4 13 1 9 9 6 4 3 5 3 0 1 3 3 5 3 13 5 3 1 7 9 5 8 7 2 3 3 5 9 1 8 7 4 2 0 7 3 3 -1 1 11 1 -1 2 5 3 30 5 6 11 3 6 4 18 4 8 11 1 4 5 24 3 2 8 5 2 2 3 4 10 18 -1 2 1 2 3 6 2 5 6 -1 8 4 4 7 0 9 41 4 2 5 3 5 1 10 7 3 6 1 2 7 2 2 43 1 3 4 4 2 0 4 2 2 0 7 7 2 4 7 2 5 1 9 10 3 9 4 2 3 5 4 1 13 3 -3 3 6 -1 7 -6 2 0 6 3 -1 6 3 2 14 2 6 20 9 4 19 6 1 1 6 5 10 8 -1 10 6 4 2 4 11 0 3 2 3 3 3 6 7 6 4 0 3 9 3 5 2 2 3 1 6 4 2 5 0 5 6 0 8 5 2 6 5 4 7 5 3 6 13 4 6 0 10 3 -1 1 2 -4 4 4 1 6 1 1 4 13 2 2 2 5 6 5 3 0 2 5 2 2 11 1 0 4 2 5 12 4 0 -3 5 4 1 2 11 3 1 34 1 6 0 3 1 0 2 8 0 4 8 8 4 3 65 1 6 3 3 13 2 0 3 5 2 7 1 3 -1 4 5 1 8 6 1 1 7 7 1 -2 6 2 2 2 2 2 3 5 2 3 7 2 9 3 5 2 1 9 5 5 4 2 3 7 2 1 11 2 3 6 2 4 5 2 1 8 14 4 3 4 -7 5 0 6 3 4 6 6 3 3 2 2 4 3 2 6 5 2 1 3 1 9 2 5 2 0 1 11 0 8 5 3 1 9 3 3 34 1 6 2 -2 5 5 5 6 0 6 4 -3 23 18 2 9 3 7 6 1 10 4 4 3 0 -1 1 3 7 17 2 15 3 7 10 4 4 5 1 18 8 11 3 13 -3 3 6 6 11 7 8 4 1 1 0 3 4 27 6 3 2 0 4 7 8 4 4 8 1 1 5 2 6 7 -1 6 4 2 4 17 8 18 5 15 6 17 4 2 6 7 6 2 2 -2 5 2 6 5 12 31 9 7 1 9 9 8 0 0 21 3 4 5 20 14 -4 3 4 -2 20 6 2 8 5 9 2 1 11 5 9 -1 3 1 1 2 1 4 -1 9 1 2 3 3 5 -2 -1 5 9 1 -1 11 6 9 6 0 8 1 2 5 11 12 5 12 6 3 3 -4 7 2 2 7 4 2 13 10 0 8 22 2 11 9 9 8 2 -1 3 5 -1 0 0 3 1 4 12 4 6 6 0 8 3 4 8 1 3 5 3 3 2 2 15 1 7 8 6 4 4 11 2 5 3 9 2 3 4 0 8 5 0 3 4 -1 2 4 0 11 1 -1 2 2 4 6 2 1 2 8 5 4 -4 9 3 2 -4 5 2 0 2 -3 11 2 2 6 2 14 5 4 0 3 5 4 10 2 2 4 9 15 2 3 -1 7 7 -2 8 5 3 1 5 5 0 7 8 2 2 4 9 6 4 9 3 5 3 3 1 -1 12 2 -1 9 2 1 3 8 -1 2 5 31 3 1 5 1 5 2 8 3 5 4 4 4 9 -1 1 14 2 9 6 7 2 14 3 0 1 11 3 5 5 -1 5 4 8 9 7 2 6 2 16 1 -3 5 1 4 3 4 1 5 3</t>
+  </si>
+  <si>
+    <t>12 5 6 11 9 19 7 15 20 8 7 20 10 12 19 31 17 8 6 35 16 14 10 12 5 22 6 14 11 14 8 32 17 14 25 22 7 5 19 1 6 7 0 0 7 4 6 13 7 7 8 5 19 6 6 4 7 6 13 11 0 8 8 9 15 -4 5 8 19 0 25 4 12 30 9 46 12 5 59 23 5 72 3 8 10 1 4 2 4 23 7 2 4 11 6 4 2 15 13 4 7 5 14 22 8 3 27 5 2 10 7 19 5 17 13 21 12 13 4 6 6 13 11 24 5 11 9 8 4 15 5 -2 1 27 13 5 15 8 1 5 -6 10 6 8 3 7 4 1 12 7 0 5 11 7 14 9 3 11 12 -6 8 8 3 28 24 3 11 2 9 22 11 5 3 9 6 23 0 26 29 16 7 11 17 18 14 11 11 4 1 18 16 7 9 3 21 3 20 5 7 1 12 6 6 2 6 8 48 -4 44 9 14 9 8 7 5 7 8 6 10 11 7 37 7 5 8 11 0 10 5 5 8 21 11 10 8 5 16 14 18 7 7 10 14 2 12 16 9 10 10 -1 11 11 13 5 23 10 29 2 6 9 9 18 4 22 5 51 21 8 25 24 9 14 8 12 5 12 17 26 -1 3 15 7 7 5 8 54 5 7 0 15 17 6 9 6 2 3 7 7 17 11 8 22 9 4 20 11 32 6 6 12 17 5 8 48 27 18 27 11 -3 3 7 -8 26 26 23 25 18 0 4 2 6 17 4 3 4 5 2 17 6 7 3 2 6 14 12 20 7 2 6 17 23 6 8 6 10 6 13 9 11 7 15 6 6 34 1 5 16 15 5 8 3 31 -3 9 4 17 8 5 15 1 3 12 25 15 6 8 14 16 8 44 17 3 9 10 9 43 11 9 30 4 10 3 4 19 11 17 -4 7 20 8 9 7 11 4 4 12 8 27 20 42 19 9 10 6 0 4 3 8 8 11 19 4 20 8 6 16 5 12 7 21 11 5 0 20 43 15 6 16 4 13 22 21 12 10 6 3 5 15 3 7 14 18 6 37 12 1 21 8 7 6 4 14 14 9 18 19 17 9 9 15 23 8 24 35 61 15 53 41 1 -2 11 5 16 16 8 9 13 6 3 7 12 2 7 3 5 6 6 6 4 16 39 10 14 4 -4 -4 9 12 4 -2 7 10 18 3 5 3 24 8 13 22 10 2 20 6 12 9 11 6 5 8 24 5 50 19 3 11 1 12 41 2 5 4 22 4 6 11 6 5 7 16 4 3 3 10 15 5 6 21 35 0 11 -1 14 16 3 8 2 15 5 6 5 1 4 3 27 3 6 7 5 22 37 24 40 11 5 5 7 9 6 12 3 15 -2 8 -3 11 11 2 2 8 11 3 1 5 4 5 16 4 0 6 12 18 14 -2 3 19 5 19 7 11 16 36 10 10 6 3 2 34 5 9 5 8 11 9 13 19 12 6 19 10 7 7 8 9 16 14 2 7 19 7 2 5 7 13 10 6 4 6 4 19 19 6 4</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -167,19 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>66 66 63 60 64 69 63 57 58 65 65 51 44 68 65 62 67 63 46 66 61 61 46 60 67 68 64 60 59 73 60 63 65 12 55 62 61 66 66 60 66 67 62 46 63 64 65 63 60 60 66 63</t>
-  </si>
-  <si>
-    <t>21 22 23 16 28 20 29 26 93 19 19 18 9 29 17 23 23 0 6 22 31 24 7 18 27 26 28 21 13 17 20 14 44 0 15 23 19 17 17 12 19 26 19 3 23 19 18 19 21 18 26 18</t>
-  </si>
-  <si>
-    <t>20 31 19 22 23 22 11 2 23 26 29 21 29 27 15 21 44 26 19 31 28 18 24 18 26 41 21 25 24 20 8 33 3 9 25 30 28 22 32 28 31 33 0 28 23 12 20 14 38 27 39</t>
-  </si>
-  <si>
-    <t>44 38 54 38 42 32 54 55 58 65 65 53 60 44 67 53 47 33 33 42 38 57 29 38 44 40 36 55 52 50 54 32 23 39 30 43 41 58 48 51 34 61 45 37 41 25 31 52 58 24 24 44 38 44 51 27 29 44 47 54 49 32 51 46 42 34 19 52 41 50 52 43 54 55 44 64 42 49 49 68 31 54 50 37</t>
-  </si>
-  <si>
-    <t>0 0 19 0 3 0 0 0 16 12 0 0 0 0 0 0 0 0 0 24 0 0 0 0 0 0 0 8 3 0 2 0 0 -2 0 0 0 -4 11 1 0 17 9 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 16 0 0 7 0 0 0 0 0 0 0 0 0 0 0 15 0 0 7 0 0 14 6 0</t>
+    <t>66 66 63 60 64 69 63 57 58 65 65 51 44 68 65 62 67 63 46 66 61 61 46 60 67 68 64 60 59 73 60 63 65 12 55 62 61 66 66 60 66 67 62 46 63 64 65 63 60 60 66 63 68 58 63</t>
+  </si>
+  <si>
+    <t>21 22 23 16 28 20 29 26 93 19 19 18 9 29 17 23 23 0 6 22 31 24 7 18 27 26 28 21 13 17 20 14 44 0 15 23 19 17 17 12 19 26 19 3 23 19 18 19 21 18 26 18 28 16 29</t>
+  </si>
+  <si>
+    <t>20 31 19 22 23 22 11 2 23 26 29 21 29 27 15 21 44 26 19 31 28 18 24 18 26 41 21 25 24 20 8 33 3 9 25 30 28 22 32 28 31 33 0 28 23 12 20 14 38 27 39 24</t>
+  </si>
+  <si>
+    <t>44 38 54 38 42 32 54 55 58 65 65 53 60 44 67 53 47 33 33 42 38 57 29 38 44 40 36 55 52 50 54 32 23 39 30 43 41 58 48 51 34 61 45 37 41 25 31 52 58 24 24 44 38 44 51 27 29 44 47 54 49 32 51 46 42 34 19 52 41 50 52 43 54 55 44 64 42 49 49 68 31 54 50 37 52</t>
+  </si>
+  <si>
+    <t>0 0 19 0 3 0 0 0 16 12 0 0 0 0 0 0 0 0 0 24 0 0 0 0 0 0 0 8 3 0 2 0 0 -2 0 0 0 -4 11 1 0 17 9 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 16 0 0 7 0 0 0 0 0 0 0 0 0 0 0 15 0 0 7 0 0 14 6 0 6</t>
+  </si>
+  <si>
+    <t>0 0 0 0 11</t>
   </si>
   <si>
     <t>INT</t>
@@ -207,16 +204,13 @@
   </si>
   <si>
     <t>Offside</t>
-  </si>
-  <si>
-    <t>0 0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,14 +273,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -333,7 +319,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -365,27 +351,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -417,24 +385,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -610,14 +560,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -625,7 +575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -636,7 +586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -653,14 +603,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -710,7 +660,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -718,19 +668,19 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -739,16 +689,16 @@
         <v>13</v>
       </c>
       <c r="J2">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>692</v>
+        <v>716</v>
       </c>
       <c r="M2">
-        <v>441</v>
+        <v>461</v>
       </c>
       <c r="N2">
         <v>27</v>
@@ -760,39 +710,39 @@
         <v>19</v>
       </c>
       <c r="Q2">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="D3">
         <v>17</v>
       </c>
       <c r="E3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F3">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G3">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H3">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I3">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="J3">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -804,7 +754,7 @@
         <v>382</v>
       </c>
       <c r="N3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -822,14 +772,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,7 +808,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -890,7 +840,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -928,14 +878,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -985,7 +935,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -993,7 +943,7 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="D2">
         <v>23</v>
@@ -1002,7 +952,7 @@
         <v>5</v>
       </c>
       <c r="F2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G2">
         <v>108</v>
@@ -1020,25 +970,25 @@
         <v>25</v>
       </c>
       <c r="L2">
-        <v>568</v>
+        <v>601</v>
       </c>
       <c r="M2">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="N2">
         <v>23</v>
       </c>
       <c r="O2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q2">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1046,28 +996,28 @@
         <v>17</v>
       </c>
       <c r="C3">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F3">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="G3">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H3">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I3">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J3">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1079,7 +1029,7 @@
         <v>305</v>
       </c>
       <c r="N3">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1097,14 +1047,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1133,7 +1083,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1165,7 +1115,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1203,16 +1153,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
@@ -1262,27 +1210,27 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -1291,10 +1239,10 @@
         <v>3</v>
       </c>
       <c r="J2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L2">
         <v>42</v>
@@ -1303,10 +1251,10 @@
         <v>36</v>
       </c>
       <c r="N2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1315,12 +1263,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1329,7 +1277,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -1343,7 +1291,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -1354,10 +1302,10 @@
         <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
@@ -1371,28 +1319,28 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -1400,16 +1348,16 @@
         <v>13</v>
       </c>
       <c r="C2">
+        <v>17</v>
+      </c>
+      <c r="D2">
+        <v>11</v>
+      </c>
+      <c r="E2">
         <v>16</v>
       </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -1423,7 +1371,7 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1432,14 +1380,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1450,51 +1398,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3">
-        <v>36</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D4">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5">
         <v>2</v>

--- a/Base/Teams/Chiefs/Team Data.xlsx
+++ b/Base/Teams/Chiefs/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>3 3 1 1 18 7 9 9 6 8 8 4 4 3 -1 11 2 27 3 4 3 2 9 0 -2 4 -1 4 14 -1 2 0 17 5 0 14 3 15 10 4 1 -1 4 3 1 21 1 5 2 4 2 3 22 1 3 4 5 1 1 -1 9 4 16 1 7 3 11 2 0 -1 0 12 6 5 3 3 1 2 4 2 2 5 6 5 1 3 13 1 9 4 2 1 5 -1 11 4 1 2 1 18 9 4 2 8 5 6 6 3 3 5 10 8 5 1 4 6 2 -1 2 3 0 1 5 3 -1 9 1 9 4 2 31 0 5 5 5 12 14 5 11 5 3 4 6 8 3 17 0 8 11 5 1 8 4 5 5 7 3 9 0 -3 2 -4 3 0 9 -4 2 13 2 4 11 16 1 2 27 0 1 16 3 1 1 0 0 2 3 1 3 2 4 1 4 -3 4 3 4 3 3 8 1 2 0 11 -2 2 2 0 2 7 4 8 0 3 0 4 5 3 8 6 10 4 3 5 11 3 2 9 2 3 0 -2 14 -4 -5 7 2 3 6 1 0 8 -2 2 3 4 10 10 17 5 0 0 5 4 7 4 4 8 1 1 4 2 5 6 30 20 3 0 16 3 1 6 3 10 6 5 12 4 1 -3 2 6 3 13 32 0 8 5 9 -2 3 -1 9 2 12 4 0 0 0 -3 -8 1 5 1 1 13 -5 3 8 4 11 6 7 1 6 3 16 1 3 4 1 2 1 6 3 2 1 12 4 0 8 24 4 4 1 2 5 5 10 -3 0 3 1 13 9 7 3 6 20 11 4 3 11 2 1 17 4 3 3 2 3 6 3 0 1 0 10 3 2 6 5 2 3 1 4 12 6 4 2 1 2 4 9 13 4 1 0 16 4 1 9 2 2 13 5 -2 50 6 6 2 4 1 -3 3 9 0 5 11 1 2 5 2 -3 13 11 2 5 5 11 6 -1 2 10 7 26 10 3 3 7 1 -2 4 4 1 2 5 3 4 4 3 8 9 7 1 2 5 4 7 0 4 0 9 1 7 -1 1 3 9 4 2 7 6 15 1 3 -5 4 -2 -2 4 12 10 4 11 7 8 7 3 4 7 5 14 10 4 2 3 8 4 2 18 2 12 7 5 7 4 -1 2 2 21 5 4 5 4 5 3 12 2 15 24 17 1 1 2 9 3 10 10 1 8 1 2 4 1 12 9 16 3 3 5 4 4 2 10 5 2 3 15 3 6 4 1 9 5 0 -1 23 9 -1 -2 9 5 9 0 7 2 0 6 3 3 17 3 6 1 6 4 0 5 11 4 3 3 3 10 5 2 -1 1 3 0 5 2 2 11 -1 13 18 6 9 9 6 2 5 2 10 -3 4 2 4 4 9 7 5 9 3 8 12 -1 3 4 6 0 -1 1 8 6 -1 7 7 2 6 0 0 6 4 7 7 7 2 4 10 2 -4 -1 -1 2 3 2 5 0 5 1 3 21 1 3 2 0 6 -1 5 3 2 6 -1 4 4 4 3 6 8 33 11 4 3 4 1 5 1 5 0 2 3 3 7 4 14 3 6 4 10 -2 -7 10 2 3 5 10 4 2 12 4 2 0 5 4 2 4 4 4 4 6 7 -4 1 2 1 2 7 5 7 0 3 1 0 0 1 4 9 6 4 2 10 4 2 -2 2 4 2 5 2</t>
-  </si>
-  <si>
-    <t>6 6 11 7 15 10 13 2 6 5 4 9 9 2 17 11 7 12 14 7 19 15 1 3 13 1 12 5 10 6 7 20 9 14 13 10 11 22 2 54 11 16 8 14 8 4 5 4 11 33 15 11 13 15 2 5 7 29 5 18 -4 20 10 49 9 5 7 24 7 6 9 7 6 18 13 11 2 17 5 8 22 17 11 2 14 21 24 8 5 5 10 6 19 45 6 6 6 1 9 12 26 32 4 13 5 16 37 8 4 23 15 23 6 16 2 42 4 3 -1 15 7 8 5 6 22 11 5 15 4 12 15 16 8 9 6 -3 21 -2 20 2 37 8 11 8 19 14 38 4 5 15 17 7 6 17 7 22 10 11 2 13 9 15 18 30 5 13 2 36 7 4 15 23 -3 18 5 3 -4 14 9 25 14 16 8 6 8 19 26 16 5 41 10 7 0 14 10 3 8 6 32 23 7 5 8 14 1 10 9 10 28 14 29 -5 3 44 4 10 26 28 8 13 2 3 8 10 14 6 8 4 3 17 21 11 8 3 19 11 6 3 9 8 11 12 13 3 5 15 6 19 9 10 9 16 15 3 22 34 23 6 3 1 75 19 3 14 7 44 20 12 14 2 9 5 13 9 2 8 29 37 7 7 8 9 14 8 2 2 4 6 20 8 11 3 15 3 2 8 19 14 18 20 1 19 6 4 10 -5 15 28 5 20 12 15 30 14 5 20 8 5 17 9 9 1 16 17 7 37 21 9 13 16 9 5 15 6 26 44 28 26 5 32 13 5 11 9 8 4 -5 11 6 5 14 10 23 23 19 1 2 13 4 20 9 5 16 9 9 8 16 7 7 10 15 6 10 31 5 4 13 9 9 5 11 2 9 4 11 12 13 26 0 4 31 2 9 17 5 19 16 9 25 12 21 9 -2 37 3 7 2 3 11 8 8 18 12 3 -2 6 9 12 10 8 10 12 31 8 3 7 26 -1 9 42 9 11 20 8 14 8 15 -5 9 7 3 13 22 16 14 8 5 23 24 4 5 1 9 1 11 11 16 11 8 3 3 5 15 9 11 33 17 16 5 6 8 9 7 0 71 1 12 12 5 3 6 14 13 4 12 11 -1 5 8 0 5 21 13 17 33 12 9 4 23 8 18 16 1 4 17 9 11 24 9 8 -6 4 11 6 22 19 -2 9 28 6 7 12 6 11 8 3 14 75 8 4 14 6 7 19 10 33 17 11 14 10 4 14 20 14 5 11 40 5 46 3 8 3 23 13 7 7 15 5 6 6 8 17 -1 5 15 28 7 6 11 12 8 10 2 6 23 18 10 5 5 7 11 8 11 9 36 1 9 2 19 32 4 6 4 9 2 15 7 6 3 14 7 10 5 12 11 44 12 6 15 11 9 7 8 5 8 10 6 26 8 12 8 11 5 4 3 11 8 17 6 8 5 5 4 1 8 6 4 4 11 6 20 9 19 27 49 3 5 7 27 19 17 14 9 10 5 13 9 5 12 13 2 9 0 3 11 5 21 19 6 12 6 24 7 8 6 6 5 10 9 23 8 11 24 12 14 6 4 9 10 4 2 10 3 9 12 7 0 15 5 6 6 7 11 9 17 9 3 11 12 9 18 8 4 9 10 10 15 14 24 2 2 7 10 4 2 1 7 2 7 12 2 25 6 14 10 13 22 9 13 6 7 5 11 22 19 8 8 7 13 12 -1 16 27 3 1 0 9 7 11 7 13 17 2 10 16 32 3 7 3 38 8 30 22 1 10 8 12 0 8 37 13 23 7 11 8 24 14 22 10 12 6 6 4 8 8 8 9 9 12 13 9 29 14 -7 12 6 14 14 38 8 4 6 44 23 10 19 19 28 7 9 3 1 7 38 15 5 -3 2 8 16 1</t>
-  </si>
-  <si>
-    <t>5 7 9 2 19 4 6 1 4 7 2 2 2 1 5 6 17 2 4 13 1 9 9 6 4 3 5 3 0 1 3 3 5 3 13 5 3 1 7 9 5 8 7 2 3 3 5 9 1 8 7 4 2 0 7 3 3 -1 1 11 1 -1 2 5 3 30 5 6 11 3 6 4 18 4 8 11 1 4 5 24 3 2 8 5 2 2 3 4 10 18 -1 2 1 2 3 6 2 5 6 -1 8 4 4 7 0 9 41 4 2 5 3 5 1 10 7 3 6 1 2 7 2 2 43 1 3 4 4 2 0 4 2 2 0 7 7 2 4 7 2 5 1 9 10 3 9 4 2 3 5 4 1 13 3 -3 3 6 -1 7 -6 2 0 6 3 -1 6 3 2 14 2 6 20 9 4 19 6 1 1 6 5 10 8 -1 10 6 4 2 4 11 0 3 2 3 3 3 6 7 6 4 0 3 9 3 5 2 2 3 1 6 4 2 5 0 5 6 0 8 5 2 6 5 4 7 5 3 6 13 4 6 0 10 3 -1 1 2 -4 4 4 1 6 1 1 4 13 2 2 2 5 6 5 3 0 2 5 2 2 11 1 0 4 2 5 12 4 0 -3 5 4 1 2 11 3 1 34 1 6 0 3 1 0 2 8 0 4 8 8 4 3 65 1 6 3 3 13 2 0 3 5 2 7 1 3 -1 4 5 1 8 6 1 1 7 7 1 -2 6 2 2 2 2 2 3 5 2 3 7 2 9 3 5 2 1 9 5 5 4 2 3 7 2 1 11 2 3 6 2 4 5 2 1 8 14 4 3 4 -7 5 0 6 3 4 6 6 3 3 2 2 4 3 2 6 5 2 1 3 1 9 2 5 2 0 1 11 0 8 5 3 1 9 3 3 34 1 6 2 -2 5 5 5 6 0 6 4 -3 23 18 2 9 3 7 6 1 10 4 4 3 0 -1 1 3 7 17 2 15 3 7 10 4 4 5 1 18 8 11 3 13 -3 3 6 6 11 7 8 4 1 1 0 3 4 27 6 3 2 0 4 7 8 4 4 8 1 1 5 2 6 7 -1 6 4 2 4 17 8 18 5 15 6 17 4 2 6 7 6 2 2 -2 5 2 6 5 12 31 9 7 1 9 9 8 0 0 21 3 4 5 20 14 -4 3 4 -2 20 6 2 8 5 9 2 1 11 5 9 -1 3 1 1 2 1 4 -1 9 1 2 3 3 5 -2 -1 5 9 1 -1 11 6 9 6 0 8 1 2 5 11 12 5 12 6 3 3 -4 7 2 2 7 4 2 13 10 0 8 22 2 11 9 9 8 2 -1 3 5 -1 0 0 3 1 4 12 4 6 6 0 8 3 4 8 1 3 5 3 3 2 2 15 1 7 8 6 4 4 11 2 5 3 9 2 3 4 0 8 5 0 3 4 -1 2 4 0 11 1 -1 2 2 4 6 2 1 2 8 5 4 -4 9 3 2 -4 5 2 0 2 -3 11 2 2 6 2 14 5 4 0 3 5 4 10 2 2 4 9 15 2 3 -1 7 7 -2 8 5 3 1 5 5 0 7 8 2 2 4 9 6 4 9 3 5 3 3 1 -1 12 2 -1 9 2 1 3 8 -1 2 5 31 3 1 5 1 5 2 8 3 5 4 4 4 9 -1 1 14 2 9 6 7 2 14 3 0 1 11 3 5 5 -1 5 4 8 9 7 2 6 2 16 1 -3 5 1 4 3 4 1 5 3</t>
-  </si>
-  <si>
-    <t>12 5 6 11 9 19 7 15 20 8 7 20 10 12 19 31 17 8 6 35 16 14 10 12 5 22 6 14 11 14 8 32 17 14 25 22 7 5 19 1 6 7 0 0 7 4 6 13 7 7 8 5 19 6 6 4 7 6 13 11 0 8 8 9 15 -4 5 8 19 0 25 4 12 30 9 46 12 5 59 23 5 72 3 8 10 1 4 2 4 23 7 2 4 11 6 4 2 15 13 4 7 5 14 22 8 3 27 5 2 10 7 19 5 17 13 21 12 13 4 6 6 13 11 24 5 11 9 8 4 15 5 -2 1 27 13 5 15 8 1 5 -6 10 6 8 3 7 4 1 12 7 0 5 11 7 14 9 3 11 12 -6 8 8 3 28 24 3 11 2 9 22 11 5 3 9 6 23 0 26 29 16 7 11 17 18 14 11 11 4 1 18 16 7 9 3 21 3 20 5 7 1 12 6 6 2 6 8 48 -4 44 9 14 9 8 7 5 7 8 6 10 11 7 37 7 5 8 11 0 10 5 5 8 21 11 10 8 5 16 14 18 7 7 10 14 2 12 16 9 10 10 -1 11 11 13 5 23 10 29 2 6 9 9 18 4 22 5 51 21 8 25 24 9 14 8 12 5 12 17 26 -1 3 15 7 7 5 8 54 5 7 0 15 17 6 9 6 2 3 7 7 17 11 8 22 9 4 20 11 32 6 6 12 17 5 8 48 27 18 27 11 -3 3 7 -8 26 26 23 25 18 0 4 2 6 17 4 3 4 5 2 17 6 7 3 2 6 14 12 20 7 2 6 17 23 6 8 6 10 6 13 9 11 7 15 6 6 34 1 5 16 15 5 8 3 31 -3 9 4 17 8 5 15 1 3 12 25 15 6 8 14 16 8 44 17 3 9 10 9 43 11 9 30 4 10 3 4 19 11 17 -4 7 20 8 9 7 11 4 4 12 8 27 20 42 19 9 10 6 0 4 3 8 8 11 19 4 20 8 6 16 5 12 7 21 11 5 0 20 43 15 6 16 4 13 22 21 12 10 6 3 5 15 3 7 14 18 6 37 12 1 21 8 7 6 4 14 14 9 18 19 17 9 9 15 23 8 24 35 61 15 53 41 1 -2 11 5 16 16 8 9 13 6 3 7 12 2 7 3 5 6 6 6 4 16 39 10 14 4 -4 -4 9 12 4 -2 7 10 18 3 5 3 24 8 13 22 10 2 20 6 12 9 11 6 5 8 24 5 50 19 3 11 1 12 41 2 5 4 22 4 6 11 6 5 7 16 4 3 3 10 15 5 6 21 35 0 11 -1 14 16 3 8 2 15 5 6 5 1 4 3 27 3 6 7 5 22 37 24 40 11 5 5 7 9 6 12 3 15 -2 8 -3 11 11 2 2 8 11 3 1 5 4 5 16 4 0 6 12 18 14 -2 3 19 5 19 7 11 16 36 10 10 6 3 2 34 5 9 5 8 11 9 13 19 12 6 19 10 7 7 8 9 16 14 2 7 19 7 2 5 7 13 10 6 4 6 4 19 19 6 4</t>
+    <t>3 3 1 1 18 7 9 9 6 8 8 4 4 3 -1 11 2 27 3 4 3 2 9 0 -2 4 -1 4 14 -1 2 0 17 5 0 14 3 15 10 4 1 -1 4 3 1 21 1 5 2 4 2 3 22 1 3 4 5 1 1 -1 9 4 16 1 7 3 11 2 0 -1 0 12 6 5 3 3 1 2 4 2 2 5 6 5 1 3 13 1 9 4 2 1 5 -1 11 4 1 2 1 18 9 4 2 8 5 6 6 3 3 5 10 8 5 1 4 6 2 -1 2 3 0 1 5 3 -1 9 1 9 4 2 31 0 5 5 5 12 14 5 11 5 3 4 6 8 3 17 0 8 11 5 1 8 4 5 5 7 3 9 0 -3 2 -4 3 0 9 -4 2 13 2 4 11 16 1 2 27 0 1 16 3 1 1 0 0 2 3 1 3 2 4 1 4 -3 4 3 4 3 3 8 1 2 0 11 -2 2 2 0 2 7 4 8 0 3 0 4 5 3 8 6 10 4 3 5 11 3 2 9 2 3 0 -2 14 -4 -5 7 2 3 6 1 0 8 -2 2 3 4 10 10 17 5 0 0 5 4 7 4 4 8 1 1 4 2 5 6 30 20 3 0 16 3 1 6 3 10 6 5 12 4 1 -3 2 6 3 13 32 0 8 5 9 -2 3 -1 9 2 12 4 0 0 0 -3 -8 1 5 1 1 13 -5 3 8 4 11 6 7 1 6 3 16 1 3 4 1 2 1 6 3 2 1 12 4 0 8 24 4 4 1 2 5 5 10 -3 0 3 1 13 9 7 3 6 20 11 4 3 11 2 1 17 4 3 3 2 3 6 3 0 1 0 10 3 2 6 5 2 3 1 4 12 6 4 2 1 2 4 9 13 4 1 0 16 4 1 9 2 2 13 5 -2 50 6 6 2 4 1 -3 3 9 0 5 11 1 2 5 2 -3 13 11 2 5 5 11 6 -1 2 10 7 26 10 3 3 7 1 -2 4 4 1 2 5 3 4 4 3 8 9 7 1 2 5 4 7 0 4 0 9 1 7 -1 1 3 9 4 2 7 6 15 1 3 -5 4 -2 -2 4 12 10 4 11 7 8 7 3 4 7 5 14 10 4 2 3 8 4 2 18 2 12 7 5 7 4 -1 2 2 21 5 4 5 4 5 3 12 2 15 24 17 1 1 2 9 3 10 10 1 8 1 2 4 1 12 9 16 3 3 5 4 4 2 10 5 2 3 15 3 6 4 1 9 5 0 -1 23 9 -1 -2 9 5 9 0 7 2 0 6 3 3 17 3 6 1 6 4 0 5 11 4 3 3 3 10 5 2 -1 1 3 0 5 2 2 11 -1 13 18 6 9 9 6 2 5 2 10 -3 4 2 4 4 9 7 5 9 3 8 12 -1 3 4 6 0 -1 1 8 6 -1 7 7 2 6 0 0 6 4 7 7 7 2 4 10 2 -4 -1 -1 2 3 2 5 0 5 1 3 21 1 3 2 0 6 -1 5 3 2 6 -1 4 4 4 3 6 8 33 11 4 3 4 1 5 1 5 0 2 3 3 7 4 14 3 6 4 10 -2 -7 10 2 3 5 10 4 2 12 4 2 0 5 4 2 4 4 4 4 6 7 -4 1 2 1 2 7 5 7 0 3 1 0 0 1 4 9 6 4 2 10 4 2 -2 2 4 2 5 2 5 11 9 7 0 5 0 -1 3 3 1 2 3 0 1 5 0 1 32</t>
+  </si>
+  <si>
+    <t>6 6 11 7 15 10 13 2 6 5 4 9 9 2 17 11 7 12 14 7 19 15 1 3 13 1 12 5 10 6 7 20 9 14 13 10 11 22 2 54 11 16 8 14 8 4 5 4 11 33 15 11 13 15 2 5 7 29 5 18 -4 20 10 49 9 5 7 24 7 6 9 7 6 18 13 11 2 17 5 8 22 17 11 2 14 21 24 8 5 5 10 6 19 45 6 6 6 1 9 12 26 32 4 13 5 16 37 8 4 23 15 23 6 16 2 42 4 3 -1 15 7 8 5 6 22 11 5 15 4 12 15 16 8 9 6 -3 21 -2 20 2 37 8 11 8 19 14 38 4 5 15 17 7 6 17 7 22 10 11 2 13 9 15 18 30 5 13 2 36 7 4 15 23 -3 18 5 3 -4 14 9 25 14 16 8 6 8 19 26 16 5 41 10 7 0 14 10 3 8 6 32 23 7 5 8 14 1 10 9 10 28 14 29 -5 3 44 4 10 26 28 8 13 2 3 8 10 14 6 8 4 3 17 21 11 8 3 19 11 6 3 9 8 11 12 13 3 5 15 6 19 9 10 9 16 15 3 22 34 23 6 3 1 75 19 3 14 7 44 20 12 14 2 9 5 13 9 2 8 29 37 7 7 8 9 14 8 2 2 4 6 20 8 11 3 15 3 2 8 19 14 18 20 1 19 6 4 10 -5 15 28 5 20 12 15 30 14 5 20 8 5 17 9 9 1 16 17 7 37 21 9 13 16 9 5 15 6 26 44 28 26 5 32 13 5 11 9 8 4 -5 11 6 5 14 10 23 23 19 1 2 13 4 20 9 5 16 9 9 8 16 7 7 10 15 6 10 31 5 4 13 9 9 5 11 2 9 4 11 12 13 26 0 4 31 2 9 17 5 19 16 9 25 12 21 9 -2 37 3 7 2 3 11 8 8 18 12 3 -2 6 9 12 10 8 10 12 31 8 3 7 26 -1 9 42 9 11 20 8 14 8 15 -5 9 7 3 13 22 16 14 8 5 23 24 4 5 1 9 1 11 11 16 11 8 3 3 5 15 9 11 33 17 16 5 6 8 9 7 0 71 1 12 12 5 3 6 14 13 4 12 11 -1 5 8 0 5 21 13 17 33 12 9 4 23 8 18 16 1 4 17 9 11 24 9 8 -6 4 11 6 22 19 -2 9 28 6 7 12 6 11 8 3 14 75 8 4 14 6 7 19 10 33 17 11 14 10 4 14 20 14 5 11 40 5 46 3 8 3 23 13 7 7 15 5 6 6 8 17 -1 5 15 28 7 6 11 12 8 10 2 6 23 18 10 5 5 7 11 8 11 9 36 1 9 2 19 32 4 6 4 9 2 15 7 6 3 14 7 10 5 12 11 44 12 6 15 11 9 7 8 5 8 10 6 26 8 12 8 11 5 4 3 11 8 17 6 8 5 5 4 1 8 6 4 4 11 6 20 9 19 27 49 3 5 7 27 19 17 14 9 10 5 13 9 5 12 13 2 9 0 3 11 5 21 19 6 12 6 24 7 8 6 6 5 10 9 23 8 11 24 12 14 6 4 9 10 4 2 10 3 9 12 7 0 15 5 6 6 7 11 9 17 9 3 11 12 9 18 8 4 9 10 10 15 14 24 2 2 7 10 4 2 1 7 2 7 12 2 25 6 14 10 13 22 9 13 6 7 5 11 22 19 8 8 7 13 12 -1 16 27 3 1 0 9 7 11 7 13 17 2 10 16 32 3 7 3 38 8 30 22 1 10 8 12 0 8 37 13 23 7 11 8 24 14 22 10 12 6 6 4 8 8 8 9 9 12 13 9 29 14 -7 12 6 14 14 38 8 4 6 44 23 10 19 19 28 7 9 3 1 7 38 15 5 -3 2 8 16 1 12 14 5 9 20 11 12 -1 17 4 3 6 5 23 10 40 5 3 9 0 6 69 1 5 10 20 7 10 27 14 34</t>
+  </si>
+  <si>
+    <t>5 7 9 2 19 4 6 1 4 7 2 2 2 1 5 6 17 2 4 13 1 9 9 6 4 3 5 3 0 1 3 3 5 3 13 5 3 1 7 9 5 8 7 2 3 3 5 9 1 8 7 4 2 0 7 3 3 -1 1 11 1 -1 2 5 3 30 5 6 11 3 6 4 18 4 8 11 1 4 5 24 3 2 8 5 2 2 3 4 10 18 -1 2 1 2 3 6 2 5 6 -1 8 4 4 7 0 9 41 4 2 5 3 5 1 10 7 3 6 1 2 7 2 2 43 1 3 4 4 2 0 4 2 2 0 7 7 2 4 7 2 5 1 9 10 3 9 4 2 3 5 4 1 13 3 -3 3 6 -1 7 -6 2 0 6 3 -1 6 3 2 14 2 6 20 9 4 19 6 1 1 6 5 10 8 -1 10 6 4 2 4 11 0 3 2 3 3 3 6 7 6 4 0 3 9 3 5 2 2 3 1 6 4 2 5 0 5 6 0 8 5 2 6 5 4 7 5 3 6 13 4 6 0 10 3 -1 1 2 -4 4 4 1 6 1 1 4 13 2 2 2 5 6 5 3 0 2 5 2 2 11 1 0 4 2 5 12 4 0 -3 5 4 1 2 11 3 1 34 1 6 0 3 1 0 2 8 0 4 8 8 4 3 65 1 6 3 3 13 2 0 3 5 2 7 1 3 -1 4 5 1 8 6 1 1 7 7 1 -2 6 2 2 2 2 2 3 5 2 3 7 2 9 3 5 2 1 9 5 5 4 2 3 7 2 1 11 2 3 6 2 4 5 2 1 8 14 4 3 4 -7 5 0 6 3 4 6 6 3 3 2 2 4 3 2 6 5 2 1 3 1 9 2 5 2 0 1 11 0 8 5 3 1 9 3 3 34 1 6 2 -2 5 5 5 6 0 6 4 -3 23 18 2 9 3 7 6 1 10 4 4 3 0 -1 1 3 7 17 2 15 3 7 10 4 4 5 1 18 8 11 3 13 -3 3 6 6 11 7 8 4 1 1 0 3 4 27 6 3 2 0 4 7 8 4 4 8 1 1 5 2 6 7 -1 6 4 2 4 17 8 18 5 15 6 17 4 2 6 7 6 2 2 -2 5 2 6 5 12 31 9 7 1 9 9 8 0 0 21 3 4 5 20 14 -4 3 4 -2 20 6 2 8 5 9 2 1 11 5 9 -1 3 1 1 2 1 4 -1 9 1 2 3 3 5 -2 -1 5 9 1 -1 11 6 9 6 0 8 1 2 5 11 12 5 12 6 3 3 -4 7 2 2 7 4 2 13 10 0 8 22 2 11 9 9 8 2 -1 3 5 -1 0 0 3 1 4 12 4 6 6 0 8 3 4 8 1 3 5 3 3 2 2 15 1 7 8 6 4 4 11 2 5 3 9 2 3 4 0 8 5 0 3 4 -1 2 4 0 11 1 -1 2 2 4 6 2 1 2 8 5 4 -4 9 3 2 -4 5 2 0 2 -3 11 2 2 6 2 14 5 4 0 3 5 4 10 2 2 4 9 15 2 3 -1 7 7 -2 8 5 3 1 5 5 0 7 8 2 2 4 9 6 4 9 3 5 3 3 1 -1 12 2 -1 9 2 1 3 8 -1 2 5 31 3 1 5 1 5 2 8 3 5 4 4 4 9 -1 1 14 2 9 6 7 2 14 3 0 1 11 3 5 5 -1 5 4 8 9 7 2 6 2 16 1 -3 5 1 4 3 4 1 5 3 4 15 3 15 4 3 6 2 4 1 2 7 0 9 4 6 8 4 3 1 8 2 4 8 22 1 1 3 0 2 2 3 2 6 15 2 2</t>
+  </si>
+  <si>
+    <t>12 5 6 11 9 19 7 15 20 8 7 20 10 12 19 31 17 8 6 35 16 14 10 12 5 22 6 14 11 14 8 32 17 14 25 22 7 5 19 1 6 7 0 0 7 4 6 13 7 7 8 5 19 6 6 4 7 6 13 11 0 8 8 9 15 -4 5 8 19 0 25 4 12 30 9 46 12 5 59 23 5 72 3 8 10 1 4 2 4 23 7 2 4 11 6 4 2 15 13 4 7 5 14 22 8 3 27 5 2 10 7 19 5 17 13 21 12 13 4 6 6 13 11 24 5 11 9 8 4 15 5 -2 1 27 13 5 15 8 1 5 -6 10 6 8 3 7 4 1 12 7 0 5 11 7 14 9 3 11 12 -6 8 8 3 28 24 3 11 2 9 22 11 5 3 9 6 23 0 26 29 16 7 11 17 18 14 11 11 4 1 18 16 7 9 3 21 3 20 5 7 1 12 6 6 2 6 8 48 -4 44 9 14 9 8 7 5 7 8 6 10 11 7 37 7 5 8 11 0 10 5 5 8 21 11 10 8 5 16 14 18 7 7 10 14 2 12 16 9 10 10 -1 11 11 13 5 23 10 29 2 6 9 9 18 4 22 5 51 21 8 25 24 9 14 8 12 5 12 17 26 -1 3 15 7 7 5 8 54 5 7 0 15 17 6 9 6 2 3 7 7 17 11 8 22 9 4 20 11 32 6 6 12 17 5 8 48 27 18 27 11 -3 3 7 -8 26 26 23 25 18 0 4 2 6 17 4 3 4 5 2 17 6 7 3 2 6 14 12 20 7 2 6 17 23 6 8 6 10 6 13 9 11 7 15 6 6 34 1 5 16 15 5 8 3 31 -3 9 4 17 8 5 15 1 3 12 25 15 6 8 14 16 8 44 17 3 9 10 9 43 11 9 30 4 10 3 4 19 11 17 -4 7 20 8 9 7 11 4 4 12 8 27 20 42 19 9 10 6 0 4 3 8 8 11 19 4 20 8 6 16 5 12 7 21 11 5 0 20 43 15 6 16 4 13 22 21 12 10 6 3 5 15 3 7 14 18 6 37 12 1 21 8 7 6 4 14 14 9 18 19 17 9 9 15 23 8 24 35 61 15 53 41 1 -2 11 5 16 16 8 9 13 6 3 7 12 2 7 3 5 6 6 6 4 16 39 10 14 4 -4 -4 9 12 4 -2 7 10 18 3 5 3 24 8 13 22 10 2 20 6 12 9 11 6 5 8 24 5 50 19 3 11 1 12 41 2 5 4 22 4 6 11 6 5 7 16 4 3 3 10 15 5 6 21 35 0 11 -1 14 16 3 8 2 15 5 6 5 1 4 3 27 3 6 7 5 22 37 24 40 11 5 5 7 9 6 12 3 15 -2 8 -3 11 11 2 2 8 11 3 1 5 4 5 16 4 0 6 12 18 14 -2 3 19 5 19 7 11 16 36 10 10 6 3 2 34 5 9 5 8 11 9 13 19 12 6 19 10 7 7 8 9 16 14 2 7 19 7 2 5 7 13 10 6 4 6 4 19 19 6 4 9 4 12 12 13 15 4 2 27 7 5 4 17 6 29 8 5 15 15 8 5 14</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>66 66 63 60 64 69 63 57 58 65 65 51 44 68 65 62 67 63 46 66 61 61 46 60 67 68 64 60 59 73 60 63 65 12 55 62 61 66 66 60 66 67 62 46 63 64 65 63 60 60 66 63 68 58 63</t>
-  </si>
-  <si>
-    <t>21 22 23 16 28 20 29 26 93 19 19 18 9 29 17 23 23 0 6 22 31 24 7 18 27 26 28 21 13 17 20 14 44 0 15 23 19 17 17 12 19 26 19 3 23 19 18 19 21 18 26 18 28 16 29</t>
-  </si>
-  <si>
-    <t>20 31 19 22 23 22 11 2 23 26 29 21 29 27 15 21 44 26 19 31 28 18 24 18 26 41 21 25 24 20 8 33 3 9 25 30 28 22 32 28 31 33 0 28 23 12 20 14 38 27 39 24</t>
-  </si>
-  <si>
-    <t>44 38 54 38 42 32 54 55 58 65 65 53 60 44 67 53 47 33 33 42 38 57 29 38 44 40 36 55 52 50 54 32 23 39 30 43 41 58 48 51 34 61 45 37 41 25 31 52 58 24 24 44 38 44 51 27 29 44 47 54 49 32 51 46 42 34 19 52 41 50 52 43 54 55 44 64 42 49 49 68 31 54 50 37 52</t>
-  </si>
-  <si>
-    <t>0 0 19 0 3 0 0 0 16 12 0 0 0 0 0 0 0 0 0 24 0 0 0 0 0 0 0 8 3 0 2 0 0 -2 0 0 0 -4 11 1 0 17 9 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 16 0 0 7 0 0 0 0 0 0 0 0 0 0 0 15 0 0 7 0 0 14 6 0 6</t>
-  </si>
-  <si>
-    <t>0 0 0 0 11</t>
+    <t>66 66 63 60 64 69 63 57 58 65 65 51 44 68 65 62 67 63 46 66 61 61 46 60 67 68 64 60 59 73 60 63 65 12 55 62 61 66 66 60 66 67 62 46 63 64 65 63 60 60 66 63 68 58 63 64</t>
+  </si>
+  <si>
+    <t>21 22 23 16 28 20 29 26 93 19 19 18 9 29 17 23 23 0 6 22 31 24 7 18 27 26 28 21 13 17 20 14 44 0 15 23 19 17 17 12 19 26 19 3 23 19 18 19 21 18 26 18 28 16 29 75</t>
+  </si>
+  <si>
+    <t>20 31 19 22 23 22 11 2 23 26 29 21 29 27 15 21 44 26 19 31 28 18 24 18 26 41 21 25 24 20 8 33 3 9 25 30 28 22 32 28 31 33 0 28 23 12 20 14 38 27 39 24 19</t>
+  </si>
+  <si>
+    <t>44 38 54 38 42 32 54 55 58 65 65 53 60 44 67 53 47 33 33 42 38 57 29 38 44 40 36 55 52 50 54 32 23 39 30 43 41 58 48 51 34 61 45 37 41 25 31 52 58 24 24 44 38 44 51 27 29 44 47 54 49 32 51 46 42 34 19 52 41 50 52 43 54 55 44 64 42 49 49 68 31 54 50 37 52 32</t>
+  </si>
+  <si>
+    <t>0 0 19 0 3 0 0 0 16 12 0 0 0 0 0 0 0 0 0 24 0 0 0 0 0 0 0 8 3 0 2 0 0 -2 0 0 0 -4 11 1 0 17 9 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 16 0 0 7 0 0 0 0 0 0 0 0 0 0 0 15 0 0 7 0 0 14 6 0 6 0</t>
+  </si>
+  <si>
+    <t>0 0 0 0 11 8</t>
   </si>
   <si>
     <t>INT</t>
@@ -665,22 +665,22 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>15</v>
       </c>
       <c r="F2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -689,7 +689,7 @@
         <v>13</v>
       </c>
       <c r="J2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,10 +701,10 @@
         <v>461</v>
       </c>
       <c r="N2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P2">
         <v>19</v>
@@ -721,37 +721,37 @@
         <v>28</v>
       </c>
       <c r="C3">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F3">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="G3">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H3">
         <v>52</v>
       </c>
       <c r="I3">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="J3">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>562</v>
+        <v>609</v>
       </c>
       <c r="M3">
-        <v>382</v>
+        <v>413</v>
       </c>
       <c r="N3">
         <v>27</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>931</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -943,19 +943,19 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E2">
         <v>5</v>
       </c>
       <c r="F2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G2">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -964,7 +964,7 @@
         <v>12</v>
       </c>
       <c r="J2">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -979,10 +979,10 @@
         <v>23</v>
       </c>
       <c r="O2">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="P2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q2">
         <v>1071</v>
@@ -996,37 +996,37 @@
         <v>17</v>
       </c>
       <c r="C3">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F3">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="G3">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I3">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="J3">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>474</v>
+        <v>513</v>
       </c>
       <c r="M3">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="N3">
         <v>37</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>843</v>
+        <v>923</v>
       </c>
     </row>
   </sheetData>
@@ -1215,34 +1215,34 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
         <v>4</v>
       </c>
-      <c r="I2">
-        <v>3</v>
-      </c>
       <c r="J2">
+        <v>90</v>
+      </c>
+      <c r="K2">
         <v>88</v>
-      </c>
-      <c r="K2">
-        <v>86</v>
       </c>
       <c r="L2">
         <v>42</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1362,16 +1362,16 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1409,7 +1409,7 @@
         <v>60</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Base/Teams/Chiefs/Team Data.xlsx
+++ b/Base/Teams/Chiefs/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>3 3 1 1 18 7 9 9 6 8 8 4 4 3 -1 11 2 27 3 4 3 2 9 0 -2 4 -1 4 14 -1 2 0 17 5 0 14 3 15 10 4 1 -1 4 3 1 21 1 5 2 4 2 3 22 1 3 4 5 1 1 -1 9 4 16 1 7 3 11 2 0 -1 0 12 6 5 3 3 1 2 4 2 2 5 6 5 1 3 13 1 9 4 2 1 5 -1 11 4 1 2 1 18 9 4 2 8 5 6 6 3 3 5 10 8 5 1 4 6 2 -1 2 3 0 1 5 3 -1 9 1 9 4 2 31 0 5 5 5 12 14 5 11 5 3 4 6 8 3 17 0 8 11 5 1 8 4 5 5 7 3 9 0 -3 2 -4 3 0 9 -4 2 13 2 4 11 16 1 2 27 0 1 16 3 1 1 0 0 2 3 1 3 2 4 1 4 -3 4 3 4 3 3 8 1 2 0 11 -2 2 2 0 2 7 4 8 0 3 0 4 5 3 8 6 10 4 3 5 11 3 2 9 2 3 0 -2 14 -4 -5 7 2 3 6 1 0 8 -2 2 3 4 10 10 17 5 0 0 5 4 7 4 4 8 1 1 4 2 5 6 30 20 3 0 16 3 1 6 3 10 6 5 12 4 1 -3 2 6 3 13 32 0 8 5 9 -2 3 -1 9 2 12 4 0 0 0 -3 -8 1 5 1 1 13 -5 3 8 4 11 6 7 1 6 3 16 1 3 4 1 2 1 6 3 2 1 12 4 0 8 24 4 4 1 2 5 5 10 -3 0 3 1 13 9 7 3 6 20 11 4 3 11 2 1 17 4 3 3 2 3 6 3 0 1 0 10 3 2 6 5 2 3 1 4 12 6 4 2 1 2 4 9 13 4 1 0 16 4 1 9 2 2 13 5 -2 50 6 6 2 4 1 -3 3 9 0 5 11 1 2 5 2 -3 13 11 2 5 5 11 6 -1 2 10 7 26 10 3 3 7 1 -2 4 4 1 2 5 3 4 4 3 8 9 7 1 2 5 4 7 0 4 0 9 1 7 -1 1 3 9 4 2 7 6 15 1 3 -5 4 -2 -2 4 12 10 4 11 7 8 7 3 4 7 5 14 10 4 2 3 8 4 2 18 2 12 7 5 7 4 -1 2 2 21 5 4 5 4 5 3 12 2 15 24 17 1 1 2 9 3 10 10 1 8 1 2 4 1 12 9 16 3 3 5 4 4 2 10 5 2 3 15 3 6 4 1 9 5 0 -1 23 9 -1 -2 9 5 9 0 7 2 0 6 3 3 17 3 6 1 6 4 0 5 11 4 3 3 3 10 5 2 -1 1 3 0 5 2 2 11 -1 13 18 6 9 9 6 2 5 2 10 -3 4 2 4 4 9 7 5 9 3 8 12 -1 3 4 6 0 -1 1 8 6 -1 7 7 2 6 0 0 6 4 7 7 7 2 4 10 2 -4 -1 -1 2 3 2 5 0 5 1 3 21 1 3 2 0 6 -1 5 3 2 6 -1 4 4 4 3 6 8 33 11 4 3 4 1 5 1 5 0 2 3 3 7 4 14 3 6 4 10 -2 -7 10 2 3 5 10 4 2 12 4 2 0 5 4 2 4 4 4 4 6 7 -4 1 2 1 2 7 5 7 0 3 1 0 0 1 4 9 6 4 2 10 4 2 -2 2 4 2 5 2 5 11 9 7 0 5 0 -1 3 3 1 2 3 0 1 5 0 1 32</t>
-  </si>
-  <si>
-    <t>6 6 11 7 15 10 13 2 6 5 4 9 9 2 17 11 7 12 14 7 19 15 1 3 13 1 12 5 10 6 7 20 9 14 13 10 11 22 2 54 11 16 8 14 8 4 5 4 11 33 15 11 13 15 2 5 7 29 5 18 -4 20 10 49 9 5 7 24 7 6 9 7 6 18 13 11 2 17 5 8 22 17 11 2 14 21 24 8 5 5 10 6 19 45 6 6 6 1 9 12 26 32 4 13 5 16 37 8 4 23 15 23 6 16 2 42 4 3 -1 15 7 8 5 6 22 11 5 15 4 12 15 16 8 9 6 -3 21 -2 20 2 37 8 11 8 19 14 38 4 5 15 17 7 6 17 7 22 10 11 2 13 9 15 18 30 5 13 2 36 7 4 15 23 -3 18 5 3 -4 14 9 25 14 16 8 6 8 19 26 16 5 41 10 7 0 14 10 3 8 6 32 23 7 5 8 14 1 10 9 10 28 14 29 -5 3 44 4 10 26 28 8 13 2 3 8 10 14 6 8 4 3 17 21 11 8 3 19 11 6 3 9 8 11 12 13 3 5 15 6 19 9 10 9 16 15 3 22 34 23 6 3 1 75 19 3 14 7 44 20 12 14 2 9 5 13 9 2 8 29 37 7 7 8 9 14 8 2 2 4 6 20 8 11 3 15 3 2 8 19 14 18 20 1 19 6 4 10 -5 15 28 5 20 12 15 30 14 5 20 8 5 17 9 9 1 16 17 7 37 21 9 13 16 9 5 15 6 26 44 28 26 5 32 13 5 11 9 8 4 -5 11 6 5 14 10 23 23 19 1 2 13 4 20 9 5 16 9 9 8 16 7 7 10 15 6 10 31 5 4 13 9 9 5 11 2 9 4 11 12 13 26 0 4 31 2 9 17 5 19 16 9 25 12 21 9 -2 37 3 7 2 3 11 8 8 18 12 3 -2 6 9 12 10 8 10 12 31 8 3 7 26 -1 9 42 9 11 20 8 14 8 15 -5 9 7 3 13 22 16 14 8 5 23 24 4 5 1 9 1 11 11 16 11 8 3 3 5 15 9 11 33 17 16 5 6 8 9 7 0 71 1 12 12 5 3 6 14 13 4 12 11 -1 5 8 0 5 21 13 17 33 12 9 4 23 8 18 16 1 4 17 9 11 24 9 8 -6 4 11 6 22 19 -2 9 28 6 7 12 6 11 8 3 14 75 8 4 14 6 7 19 10 33 17 11 14 10 4 14 20 14 5 11 40 5 46 3 8 3 23 13 7 7 15 5 6 6 8 17 -1 5 15 28 7 6 11 12 8 10 2 6 23 18 10 5 5 7 11 8 11 9 36 1 9 2 19 32 4 6 4 9 2 15 7 6 3 14 7 10 5 12 11 44 12 6 15 11 9 7 8 5 8 10 6 26 8 12 8 11 5 4 3 11 8 17 6 8 5 5 4 1 8 6 4 4 11 6 20 9 19 27 49 3 5 7 27 19 17 14 9 10 5 13 9 5 12 13 2 9 0 3 11 5 21 19 6 12 6 24 7 8 6 6 5 10 9 23 8 11 24 12 14 6 4 9 10 4 2 10 3 9 12 7 0 15 5 6 6 7 11 9 17 9 3 11 12 9 18 8 4 9 10 10 15 14 24 2 2 7 10 4 2 1 7 2 7 12 2 25 6 14 10 13 22 9 13 6 7 5 11 22 19 8 8 7 13 12 -1 16 27 3 1 0 9 7 11 7 13 17 2 10 16 32 3 7 3 38 8 30 22 1 10 8 12 0 8 37 13 23 7 11 8 24 14 22 10 12 6 6 4 8 8 8 9 9 12 13 9 29 14 -7 12 6 14 14 38 8 4 6 44 23 10 19 19 28 7 9 3 1 7 38 15 5 -3 2 8 16 1 12 14 5 9 20 11 12 -1 17 4 3 6 5 23 10 40 5 3 9 0 6 69 1 5 10 20 7 10 27 14 34</t>
-  </si>
-  <si>
-    <t>5 7 9 2 19 4 6 1 4 7 2 2 2 1 5 6 17 2 4 13 1 9 9 6 4 3 5 3 0 1 3 3 5 3 13 5 3 1 7 9 5 8 7 2 3 3 5 9 1 8 7 4 2 0 7 3 3 -1 1 11 1 -1 2 5 3 30 5 6 11 3 6 4 18 4 8 11 1 4 5 24 3 2 8 5 2 2 3 4 10 18 -1 2 1 2 3 6 2 5 6 -1 8 4 4 7 0 9 41 4 2 5 3 5 1 10 7 3 6 1 2 7 2 2 43 1 3 4 4 2 0 4 2 2 0 7 7 2 4 7 2 5 1 9 10 3 9 4 2 3 5 4 1 13 3 -3 3 6 -1 7 -6 2 0 6 3 -1 6 3 2 14 2 6 20 9 4 19 6 1 1 6 5 10 8 -1 10 6 4 2 4 11 0 3 2 3 3 3 6 7 6 4 0 3 9 3 5 2 2 3 1 6 4 2 5 0 5 6 0 8 5 2 6 5 4 7 5 3 6 13 4 6 0 10 3 -1 1 2 -4 4 4 1 6 1 1 4 13 2 2 2 5 6 5 3 0 2 5 2 2 11 1 0 4 2 5 12 4 0 -3 5 4 1 2 11 3 1 34 1 6 0 3 1 0 2 8 0 4 8 8 4 3 65 1 6 3 3 13 2 0 3 5 2 7 1 3 -1 4 5 1 8 6 1 1 7 7 1 -2 6 2 2 2 2 2 3 5 2 3 7 2 9 3 5 2 1 9 5 5 4 2 3 7 2 1 11 2 3 6 2 4 5 2 1 8 14 4 3 4 -7 5 0 6 3 4 6 6 3 3 2 2 4 3 2 6 5 2 1 3 1 9 2 5 2 0 1 11 0 8 5 3 1 9 3 3 34 1 6 2 -2 5 5 5 6 0 6 4 -3 23 18 2 9 3 7 6 1 10 4 4 3 0 -1 1 3 7 17 2 15 3 7 10 4 4 5 1 18 8 11 3 13 -3 3 6 6 11 7 8 4 1 1 0 3 4 27 6 3 2 0 4 7 8 4 4 8 1 1 5 2 6 7 -1 6 4 2 4 17 8 18 5 15 6 17 4 2 6 7 6 2 2 -2 5 2 6 5 12 31 9 7 1 9 9 8 0 0 21 3 4 5 20 14 -4 3 4 -2 20 6 2 8 5 9 2 1 11 5 9 -1 3 1 1 2 1 4 -1 9 1 2 3 3 5 -2 -1 5 9 1 -1 11 6 9 6 0 8 1 2 5 11 12 5 12 6 3 3 -4 7 2 2 7 4 2 13 10 0 8 22 2 11 9 9 8 2 -1 3 5 -1 0 0 3 1 4 12 4 6 6 0 8 3 4 8 1 3 5 3 3 2 2 15 1 7 8 6 4 4 11 2 5 3 9 2 3 4 0 8 5 0 3 4 -1 2 4 0 11 1 -1 2 2 4 6 2 1 2 8 5 4 -4 9 3 2 -4 5 2 0 2 -3 11 2 2 6 2 14 5 4 0 3 5 4 10 2 2 4 9 15 2 3 -1 7 7 -2 8 5 3 1 5 5 0 7 8 2 2 4 9 6 4 9 3 5 3 3 1 -1 12 2 -1 9 2 1 3 8 -1 2 5 31 3 1 5 1 5 2 8 3 5 4 4 4 9 -1 1 14 2 9 6 7 2 14 3 0 1 11 3 5 5 -1 5 4 8 9 7 2 6 2 16 1 -3 5 1 4 3 4 1 5 3 4 15 3 15 4 3 6 2 4 1 2 7 0 9 4 6 8 4 3 1 8 2 4 8 22 1 1 3 0 2 2 3 2 6 15 2 2</t>
-  </si>
-  <si>
-    <t>12 5 6 11 9 19 7 15 20 8 7 20 10 12 19 31 17 8 6 35 16 14 10 12 5 22 6 14 11 14 8 32 17 14 25 22 7 5 19 1 6 7 0 0 7 4 6 13 7 7 8 5 19 6 6 4 7 6 13 11 0 8 8 9 15 -4 5 8 19 0 25 4 12 30 9 46 12 5 59 23 5 72 3 8 10 1 4 2 4 23 7 2 4 11 6 4 2 15 13 4 7 5 14 22 8 3 27 5 2 10 7 19 5 17 13 21 12 13 4 6 6 13 11 24 5 11 9 8 4 15 5 -2 1 27 13 5 15 8 1 5 -6 10 6 8 3 7 4 1 12 7 0 5 11 7 14 9 3 11 12 -6 8 8 3 28 24 3 11 2 9 22 11 5 3 9 6 23 0 26 29 16 7 11 17 18 14 11 11 4 1 18 16 7 9 3 21 3 20 5 7 1 12 6 6 2 6 8 48 -4 44 9 14 9 8 7 5 7 8 6 10 11 7 37 7 5 8 11 0 10 5 5 8 21 11 10 8 5 16 14 18 7 7 10 14 2 12 16 9 10 10 -1 11 11 13 5 23 10 29 2 6 9 9 18 4 22 5 51 21 8 25 24 9 14 8 12 5 12 17 26 -1 3 15 7 7 5 8 54 5 7 0 15 17 6 9 6 2 3 7 7 17 11 8 22 9 4 20 11 32 6 6 12 17 5 8 48 27 18 27 11 -3 3 7 -8 26 26 23 25 18 0 4 2 6 17 4 3 4 5 2 17 6 7 3 2 6 14 12 20 7 2 6 17 23 6 8 6 10 6 13 9 11 7 15 6 6 34 1 5 16 15 5 8 3 31 -3 9 4 17 8 5 15 1 3 12 25 15 6 8 14 16 8 44 17 3 9 10 9 43 11 9 30 4 10 3 4 19 11 17 -4 7 20 8 9 7 11 4 4 12 8 27 20 42 19 9 10 6 0 4 3 8 8 11 19 4 20 8 6 16 5 12 7 21 11 5 0 20 43 15 6 16 4 13 22 21 12 10 6 3 5 15 3 7 14 18 6 37 12 1 21 8 7 6 4 14 14 9 18 19 17 9 9 15 23 8 24 35 61 15 53 41 1 -2 11 5 16 16 8 9 13 6 3 7 12 2 7 3 5 6 6 6 4 16 39 10 14 4 -4 -4 9 12 4 -2 7 10 18 3 5 3 24 8 13 22 10 2 20 6 12 9 11 6 5 8 24 5 50 19 3 11 1 12 41 2 5 4 22 4 6 11 6 5 7 16 4 3 3 10 15 5 6 21 35 0 11 -1 14 16 3 8 2 15 5 6 5 1 4 3 27 3 6 7 5 22 37 24 40 11 5 5 7 9 6 12 3 15 -2 8 -3 11 11 2 2 8 11 3 1 5 4 5 16 4 0 6 12 18 14 -2 3 19 5 19 7 11 16 36 10 10 6 3 2 34 5 9 5 8 11 9 13 19 12 6 19 10 7 7 8 9 16 14 2 7 19 7 2 5 7 13 10 6 4 6 4 19 19 6 4 9 4 12 12 13 15 4 2 27 7 5 4 17 6 29 8 5 15 15 8 5 14</t>
+    <t>3 3 1 1 18 7 9 9 6 8 8 4 4 3 -1 11 2 27 3 4 3 2 9 0 -2 4 -1 4 14 -1 2 0 17 5 0 14 3 15 10 4 1 -1 4 3 1 21 1 5 2 4 2 3 22 1 3 4 5 1 1 -1 9 4 16 1 7 3 11 2 0 -1 0 12 6 5 3 3 1 2 4 2 2 5 6 5 1 3 13 1 9 4 2 1 5 -1 11 4 1 2 1 18 9 4 2 8 5 6 6 3 3 5 10 8 5 1 4 6 2 -1 2 3 0 1 5 3 -1 9 1 9 4 2 31 0 5 5 5 12 14 5 11 5 3 4 6 8 3 17 0 8 11 5 1 8 4 5 5 7 3 9 0 -3 2 -4 3 0 9 -4 2 13 2 4 11 16 1 2 27 0 1 16 3 1 1 0 0 2 3 1 3 2 4 1 4 -3 4 3 4 3 3 8 1 2 0 11 -2 2 2 0 2 7 4 8 0 3 0 4 5 3 8 6 10 4 3 5 11 3 2 9 2 3 0 -2 14 -4 -5 7 2 3 6 1 0 8 -2 2 3 4 10 10 17 5 0 0 5 4 7 4 4 8 1 1 4 2 5 6 30 20 3 0 16 3 1 6 3 10 6 5 12 4 1 -3 2 6 3 13 32 0 8 5 9 -2 3 -1 9 2 12 4 0 0 0 -3 -8 1 5 1 1 13 -5 3 8 4 11 6 7 1 6 3 16 1 3 4 1 2 1 6 3 2 1 12 4 0 8 24 4 4 1 2 5 5 10 -3 0 3 1 13 9 7 3 6 20 11 4 3 11 2 1 17 4 3 3 2 3 6 3 0 1 0 10 3 2 6 5 2 3 1 4 12 6 4 2 1 2 4 9 13 4 1 0 16 4 1 9 2 2 13 5 -2 50 6 6 2 4 1 -3 3 9 0 5 11 1 2 5 2 -3 13 11 2 5 5 11 6 -1 2 10 7 26 10 3 3 7 1 -2 4 4 1 2 5 3 4 4 3 8 9 7 1 2 5 4 7 0 4 0 9 1 7 -1 1 3 9 4 2 7 6 15 1 3 -5 4 -2 -2 4 12 10 4 11 7 8 7 3 4 7 5 14 10 4 2 3 8 4 2 18 2 12 7 5 7 4 -1 2 2 21 5 4 5 4 5 3 12 2 15 24 17 1 1 2 9 3 10 10 1 8 1 2 4 1 12 9 16 3 3 5 4 4 2 10 5 2 3 15 3 6 4 1 9 5 0 -1 23 9 -1 -2 9 5 9 0 7 2 0 6 3 3 17 3 6 1 6 4 0 5 11 4 3 3 3 10 5 2 -1 1 3 0 5 2 2 11 -1 13 18 6 9 9 6 2 5 2 10 -3 4 2 4 4 9 7 5 9 3 8 12 -1 3 4 6 0 -1 1 8 6 -1 7 7 2 6 0 0 6 4 7 7 7 2 4 10 2 -4 -1 -1 2 3 2 5 0 5 1 3 21 1 3 2 0 6 -1 5 3 2 6 -1 4 4 4 3 6 8 33 11 4 3 4 1 5 1 5 0 2 3 3 7 4 14 3 6 4 10 -2 -7 10 2 3 5 10 4 2 12 4 2 0 5 4 2 4 4 4 4 6 7 -4 1 2 1 2 7 5 7 0 3 1 0 0 1 4 9 6 4 2 10 4 2 -2 2 4 2 5 2 5 11 9 7 0 5 0 -1 3 3 1 2 3 0 1 5 0 1 32 0 3 4 0 1 3 8 12 5 5 2 3 2 7 2 6 3 8 3 10 4 6 7 2 7 4 0 1 0 0 1 5 -2 3</t>
+  </si>
+  <si>
+    <t>6 6 11 7 15 10 13 2 6 5 4 9 9 2 17 11 7 12 14 7 19 15 1 3 13 1 12 5 10 6 7 20 9 14 13 10 11 22 2 54 11 16 8 14 8 4 5 4 11 33 15 11 13 15 2 5 7 29 5 18 -4 20 10 49 9 5 7 24 7 6 9 7 6 18 13 11 2 17 5 8 22 17 11 2 14 21 24 8 5 5 10 6 19 45 6 6 6 1 9 12 26 32 4 13 5 16 37 8 4 23 15 23 6 16 2 42 4 3 -1 15 7 8 5 6 22 11 5 15 4 12 15 16 8 9 6 -3 21 -2 20 2 37 8 11 8 19 14 38 4 5 15 17 7 6 17 7 22 10 11 2 13 9 15 18 30 5 13 2 36 7 4 15 23 -3 18 5 3 -4 14 9 25 14 16 8 6 8 19 26 16 5 41 10 7 0 14 10 3 8 6 32 23 7 5 8 14 1 10 9 10 28 14 29 -5 3 44 4 10 26 28 8 13 2 3 8 10 14 6 8 4 3 17 21 11 8 3 19 11 6 3 9 8 11 12 13 3 5 15 6 19 9 10 9 16 15 3 22 34 23 6 3 1 75 19 3 14 7 44 20 12 14 2 9 5 13 9 2 8 29 37 7 7 8 9 14 8 2 2 4 6 20 8 11 3 15 3 2 8 19 14 18 20 1 19 6 4 10 -5 15 28 5 20 12 15 30 14 5 20 8 5 17 9 9 1 16 17 7 37 21 9 13 16 9 5 15 6 26 44 28 26 5 32 13 5 11 9 8 4 -5 11 6 5 14 10 23 23 19 1 2 13 4 20 9 5 16 9 9 8 16 7 7 10 15 6 10 31 5 4 13 9 9 5 11 2 9 4 11 12 13 26 0 4 31 2 9 17 5 19 16 9 25 12 21 9 -2 37 3 7 2 3 11 8 8 18 12 3 -2 6 9 12 10 8 10 12 31 8 3 7 26 -1 9 42 9 11 20 8 14 8 15 -5 9 7 3 13 22 16 14 8 5 23 24 4 5 1 9 1 11 11 16 11 8 3 3 5 15 9 11 33 17 16 5 6 8 9 7 0 71 1 12 12 5 3 6 14 13 4 12 11 -1 5 8 0 5 21 13 17 33 12 9 4 23 8 18 16 1 4 17 9 11 24 9 8 -6 4 11 6 22 19 -2 9 28 6 7 12 6 11 8 3 14 75 8 4 14 6 7 19 10 33 17 11 14 10 4 14 20 14 5 11 40 5 46 3 8 3 23 13 7 7 15 5 6 6 8 17 -1 5 15 28 7 6 11 12 8 10 2 6 23 18 10 5 5 7 11 8 11 9 36 1 9 2 19 32 4 6 4 9 2 15 7 6 3 14 7 10 5 12 11 44 12 6 15 11 9 7 8 5 8 10 6 26 8 12 8 11 5 4 3 11 8 17 6 8 5 5 4 1 8 6 4 4 11 6 20 9 19 27 49 3 5 7 27 19 17 14 9 10 5 13 9 5 12 13 2 9 0 3 11 5 21 19 6 12 6 24 7 8 6 6 5 10 9 23 8 11 24 12 14 6 4 9 10 4 2 10 3 9 12 7 0 15 5 6 6 7 11 9 17 9 3 11 12 9 18 8 4 9 10 10 15 14 24 2 2 7 10 4 2 1 7 2 7 12 2 25 6 14 10 13 22 9 13 6 7 5 11 22 19 8 8 7 13 12 -1 16 27 3 1 0 9 7 11 7 13 17 2 10 16 32 3 7 3 38 8 30 22 1 10 8 12 0 8 37 13 23 7 11 8 24 14 22 10 12 6 6 4 8 8 8 9 9 12 13 9 29 14 -7 12 6 14 14 38 8 4 6 44 23 10 19 19 28 7 9 3 1 7 38 15 5 -3 2 8 16 1 12 14 5 9 20 11 12 -1 17 4 3 6 5 23 10 40 5 3 9 0 6 69 1 5 10 20 7 10 27 14 34 10 11 11 9 13 -1 5 18 18 5 7 3 14 8 50 3 8 9 4 6 9 16 22</t>
+  </si>
+  <si>
+    <t>5 7 9 2 19 4 6 1 4 7 2 2 2 1 5 6 17 2 4 13 1 9 9 6 4 3 5 3 0 1 3 3 5 3 13 5 3 1 7 9 5 8 7 2 3 3 5 9 1 8 7 4 2 0 7 3 3 -1 1 11 1 -1 2 5 3 30 5 6 11 3 6 4 18 4 8 11 1 4 5 24 3 2 8 5 2 2 3 4 10 18 -1 2 1 2 3 6 2 5 6 -1 8 4 4 7 0 9 41 4 2 5 3 5 1 10 7 3 6 1 2 7 2 2 43 1 3 4 4 2 0 4 2 2 0 7 7 2 4 7 2 5 1 9 10 3 9 4 2 3 5 4 1 13 3 -3 3 6 -1 7 -6 2 0 6 3 -1 6 3 2 14 2 6 20 9 4 19 6 1 1 6 5 10 8 -1 10 6 4 2 4 11 0 3 2 3 3 3 6 7 6 4 0 3 9 3 5 2 2 3 1 6 4 2 5 0 5 6 0 8 5 2 6 5 4 7 5 3 6 13 4 6 0 10 3 -1 1 2 -4 4 4 1 6 1 1 4 13 2 2 2 5 6 5 3 0 2 5 2 2 11 1 0 4 2 5 12 4 0 -3 5 4 1 2 11 3 1 34 1 6 0 3 1 0 2 8 0 4 8 8 4 3 65 1 6 3 3 13 2 0 3 5 2 7 1 3 -1 4 5 1 8 6 1 1 7 7 1 -2 6 2 2 2 2 2 3 5 2 3 7 2 9 3 5 2 1 9 5 5 4 2 3 7 2 1 11 2 3 6 2 4 5 2 1 8 14 4 3 4 -7 5 0 6 3 4 6 6 3 3 2 2 4 3 2 6 5 2 1 3 1 9 2 5 2 0 1 11 0 8 5 3 1 9 3 3 34 1 6 2 -2 5 5 5 6 0 6 4 -3 23 18 2 9 3 7 6 1 10 4 4 3 0 -1 1 3 7 17 2 15 3 7 10 4 4 5 1 18 8 11 3 13 -3 3 6 6 11 7 8 4 1 1 0 3 4 27 6 3 2 0 4 7 8 4 4 8 1 1 5 2 6 7 -1 6 4 2 4 17 8 18 5 15 6 17 4 2 6 7 6 2 2 -2 5 2 6 5 12 31 9 7 1 9 9 8 0 0 21 3 4 5 20 14 -4 3 4 -2 20 6 2 8 5 9 2 1 11 5 9 -1 3 1 1 2 1 4 -1 9 1 2 3 3 5 -2 -1 5 9 1 -1 11 6 9 6 0 8 1 2 5 11 12 5 12 6 3 3 -4 7 2 2 7 4 2 13 10 0 8 22 2 11 9 9 8 2 -1 3 5 -1 0 0 3 1 4 12 4 6 6 0 8 3 4 8 1 3 5 3 3 2 2 15 1 7 8 6 4 4 11 2 5 3 9 2 3 4 0 8 5 0 3 4 -1 2 4 0 11 1 -1 2 2 4 6 2 1 2 8 5 4 -4 9 3 2 -4 5 2 0 2 -3 11 2 2 6 2 14 5 4 0 3 5 4 10 2 2 4 9 15 2 3 -1 7 7 -2 8 5 3 1 5 5 0 7 8 2 2 4 9 6 4 9 3 5 3 3 1 -1 12 2 -1 9 2 1 3 8 -1 2 5 31 3 1 5 1 5 2 8 3 5 4 4 4 9 -1 1 14 2 9 6 7 2 14 3 0 1 11 3 5 5 -1 5 4 8 9 7 2 6 2 16 1 -3 5 1 4 3 4 1 5 3 4 15 3 15 4 3 6 2 4 1 2 7 0 9 4 6 8 4 3 1 8 2 4 8 22 1 1 3 0 2 2 3 2 6 15 2 2 -2 0 2 1 21 5 5 8 6 6 6 12 4 6 3 6 6 5 8 4 2 11 17 2</t>
+  </si>
+  <si>
+    <t>12 5 6 11 9 19 7 15 20 8 7 20 10 12 19 31 17 8 6 35 16 14 10 12 5 22 6 14 11 14 8 32 17 14 25 22 7 5 19 1 6 7 0 0 7 4 6 13 7 7 8 5 19 6 6 4 7 6 13 11 0 8 8 9 15 -4 5 8 19 0 25 4 12 30 9 46 12 5 59 23 5 72 3 8 10 1 4 2 4 23 7 2 4 11 6 4 2 15 13 4 7 5 14 22 8 3 27 5 2 10 7 19 5 17 13 21 12 13 4 6 6 13 11 24 5 11 9 8 4 15 5 -2 1 27 13 5 15 8 1 5 -6 10 6 8 3 7 4 1 12 7 0 5 11 7 14 9 3 11 12 -6 8 8 3 28 24 3 11 2 9 22 11 5 3 9 6 23 0 26 29 16 7 11 17 18 14 11 11 4 1 18 16 7 9 3 21 3 20 5 7 1 12 6 6 2 6 8 48 -4 44 9 14 9 8 7 5 7 8 6 10 11 7 37 7 5 8 11 0 10 5 5 8 21 11 10 8 5 16 14 18 7 7 10 14 2 12 16 9 10 10 -1 11 11 13 5 23 10 29 2 6 9 9 18 4 22 5 51 21 8 25 24 9 14 8 12 5 12 17 26 -1 3 15 7 7 5 8 54 5 7 0 15 17 6 9 6 2 3 7 7 17 11 8 22 9 4 20 11 32 6 6 12 17 5 8 48 27 18 27 11 -3 3 7 -8 26 26 23 25 18 0 4 2 6 17 4 3 4 5 2 17 6 7 3 2 6 14 12 20 7 2 6 17 23 6 8 6 10 6 13 9 11 7 15 6 6 34 1 5 16 15 5 8 3 31 -3 9 4 17 8 5 15 1 3 12 25 15 6 8 14 16 8 44 17 3 9 10 9 43 11 9 30 4 10 3 4 19 11 17 -4 7 20 8 9 7 11 4 4 12 8 27 20 42 19 9 10 6 0 4 3 8 8 11 19 4 20 8 6 16 5 12 7 21 11 5 0 20 43 15 6 16 4 13 22 21 12 10 6 3 5 15 3 7 14 18 6 37 12 1 21 8 7 6 4 14 14 9 18 19 17 9 9 15 23 8 24 35 61 15 53 41 1 -2 11 5 16 16 8 9 13 6 3 7 12 2 7 3 5 6 6 6 4 16 39 10 14 4 -4 -4 9 12 4 -2 7 10 18 3 5 3 24 8 13 22 10 2 20 6 12 9 11 6 5 8 24 5 50 19 3 11 1 12 41 2 5 4 22 4 6 11 6 5 7 16 4 3 3 10 15 5 6 21 35 0 11 -1 14 16 3 8 2 15 5 6 5 1 4 3 27 3 6 7 5 22 37 24 40 11 5 5 7 9 6 12 3 15 -2 8 -3 11 11 2 2 8 11 3 1 5 4 5 16 4 0 6 12 18 14 -2 3 19 5 19 7 11 16 36 10 10 6 3 2 34 5 9 5 8 11 9 13 19 12 6 19 10 7 7 8 9 16 14 2 7 19 7 2 5 7 13 10 6 4 6 4 19 19 6 4 9 4 12 12 13 15 4 2 27 7 5 4 17 6 29 8 5 15 15 8 5 14 18 9 5 -3 24 10 0 1 3 5 10 6 2 17 4 8 2 5 6 6 3 3 7 4 6 12</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>66 66 63 60 64 69 63 57 58 65 65 51 44 68 65 62 67 63 46 66 61 61 46 60 67 68 64 60 59 73 60 63 65 12 55 62 61 66 66 60 66 67 62 46 63 64 65 63 60 60 66 63 68 58 63 64</t>
-  </si>
-  <si>
-    <t>21 22 23 16 28 20 29 26 93 19 19 18 9 29 17 23 23 0 6 22 31 24 7 18 27 26 28 21 13 17 20 14 44 0 15 23 19 17 17 12 19 26 19 3 23 19 18 19 21 18 26 18 28 16 29 75</t>
-  </si>
-  <si>
-    <t>20 31 19 22 23 22 11 2 23 26 29 21 29 27 15 21 44 26 19 31 28 18 24 18 26 41 21 25 24 20 8 33 3 9 25 30 28 22 32 28 31 33 0 28 23 12 20 14 38 27 39 24 19</t>
-  </si>
-  <si>
-    <t>44 38 54 38 42 32 54 55 58 65 65 53 60 44 67 53 47 33 33 42 38 57 29 38 44 40 36 55 52 50 54 32 23 39 30 43 41 58 48 51 34 61 45 37 41 25 31 52 58 24 24 44 38 44 51 27 29 44 47 54 49 32 51 46 42 34 19 52 41 50 52 43 54 55 44 64 42 49 49 68 31 54 50 37 52 32</t>
-  </si>
-  <si>
-    <t>0 0 19 0 3 0 0 0 16 12 0 0 0 0 0 0 0 0 0 24 0 0 0 0 0 0 0 8 3 0 2 0 0 -2 0 0 0 -4 11 1 0 17 9 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 16 0 0 7 0 0 0 0 0 0 0 0 0 0 0 15 0 0 7 0 0 14 6 0 6 0</t>
-  </si>
-  <si>
-    <t>0 0 0 0 11 8</t>
+    <t>66 66 63 60 64 69 63 57 58 65 65 51 44 68 65 62 67 63 46 66 61 61 46 60 67 68 64 60 59 73 60 63 65 12 55 62 61 66 66 60 66 67 62 46 63 64 65 63 60 60 66 63 68 58 63 64 64 64 63</t>
+  </si>
+  <si>
+    <t>21 22 23 16 28 20 29 26 93 19 19 18 9 29 17 23 23 0 6 22 31 24 7 18 27 26 28 21 13 17 20 14 44 0 15 23 19 17 17 12 19 26 19 3 23 19 18 19 21 18 26 18 28 16 29 75 19 29 13</t>
+  </si>
+  <si>
+    <t>20 31 19 22 23 22 11 2 23 26 29 21 29 27 15 21 44 26 19 31 28 18 24 18 26 41 21 25 24 20 8 33 3 9 25 30 28 22 32 28 31 33 0 28 23 12 20 14 38 27 39 24 19 20</t>
+  </si>
+  <si>
+    <t>44 38 54 38 42 32 54 55 58 65 65 53 60 44 67 53 47 33 33 42 38 57 29 38 44 40 36 55 52 50 54 32 23 39 30 43 41 58 48 51 34 61 45 37 41 25 31 52 58 24 24 44 38 44 51 27 29 44 47 54 49 32 51 46 42 34 19 52 41 50 52 43 54 55 44 64 42 49 49 68 31 54 50 37 52 32 41 50</t>
+  </si>
+  <si>
+    <t>0 0 19 0 3 0 0 0 16 12 0 0 0 0 0 0 0 0 0 24 0 0 0 0 0 0 0 8 3 0 2 0 0 -2 0 0 0 -4 11 1 0 17 9 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 16 0 0 7 0 0 0 0 0 0 0 0 0 0 0 15 0 0 7 0 0 14 6 0 6 0 0 20</t>
+  </si>
+  <si>
+    <t>0 0 0 0 11 8 18 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,49 +668,49 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>15</v>
       </c>
       <c r="F2">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G2">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>716</v>
+        <v>746</v>
       </c>
       <c r="M2">
-        <v>461</v>
+        <v>484</v>
       </c>
       <c r="N2">
         <v>28</v>
       </c>
       <c r="O2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q2">
-        <v>1156</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -721,28 +721,28 @@
         <v>28</v>
       </c>
       <c r="C3">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F3">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="G3">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H3">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I3">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="J3">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>413</v>
       </c>
       <c r="N3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -943,19 +943,19 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="D2">
         <v>27</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -964,28 +964,28 @@
         <v>12</v>
       </c>
       <c r="J2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>601</v>
+        <v>643</v>
       </c>
       <c r="M2">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="N2">
         <v>23</v>
       </c>
       <c r="O2">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="P2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q2">
-        <v>1071</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -996,28 +996,28 @@
         <v>17</v>
       </c>
       <c r="C3">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="D3">
         <v>8</v>
       </c>
       <c r="E3">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F3">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="G3">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H3">
         <v>43</v>
       </c>
       <c r="I3">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="J3">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>327</v>
       </c>
       <c r="N3">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="G2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -1239,16 +1239,16 @@
         <v>4</v>
       </c>
       <c r="J2">
+        <v>93</v>
+      </c>
+      <c r="K2">
         <v>90</v>
       </c>
-      <c r="K2">
-        <v>88</v>
-      </c>
       <c r="L2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N2">
         <v>27</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1348,13 +1348,13 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E2">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1368,10 +1368,10 @@
         <v>16</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1403,13 +1403,13 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Base/Teams/Chiefs/Team Data.xlsx
+++ b/Base/Teams/Chiefs/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>3 3 1 1 18 7 9 9 6 8 8 4 4 3 -1 11 2 27 3 4 3 2 9 0 -2 4 -1 4 14 -1 2 0 17 5 0 14 3 15 10 4 1 -1 4 3 1 21 1 5 2 4 2 3 22 1 3 4 5 1 1 -1 9 4 16 1 7 3 11 2 0 -1 0 12 6 5 3 3 1 2 4 2 2 5 6 5 1 3 13 1 9 4 2 1 5 -1 11 4 1 2 1 18 9 4 2 8 5 6 6 3 3 5 10 8 5 1 4 6 2 -1 2 3 0 1 5 3 -1 9 1 9 4 2 31 0 5 5 5 12 14 5 11 5 3 4 6 8 3 17 0 8 11 5 1 8 4 5 5 7 3 9 0 -3 2 -4 3 0 9 -4 2 13 2 4 11 16 1 2 27 0 1 16 3 1 1 0 0 2 3 1 3 2 4 1 4 -3 4 3 4 3 3 8 1 2 0 11 -2 2 2 0 2 7 4 8 0 3 0 4 5 3 8 6 10 4 3 5 11 3 2 9 2 3 0 -2 14 -4 -5 7 2 3 6 1 0 8 -2 2 3 4 10 10 17 5 0 0 5 4 7 4 4 8 1 1 4 2 5 6 30 20 3 0 16 3 1 6 3 10 6 5 12 4 1 -3 2 6 3 13 32 0 8 5 9 -2 3 -1 9 2 12 4 0 0 0 -3 -8 1 5 1 1 13 -5 3 8 4 11 6 7 1 6 3 16 1 3 4 1 2 1 6 3 2 1 12 4 0 8 24 4 4 1 2 5 5 10 -3 0 3 1 13 9 7 3 6 20 11 4 3 11 2 1 17 4 3 3 2 3 6 3 0 1 0 10 3 2 6 5 2 3 1 4 12 6 4 2 1 2 4 9 13 4 1 0 16 4 1 9 2 2 13 5 -2 50 6 6 2 4 1 -3 3 9 0 5 11 1 2 5 2 -3 13 11 2 5 5 11 6 -1 2 10 7 26 10 3 3 7 1 -2 4 4 1 2 5 3 4 4 3 8 9 7 1 2 5 4 7 0 4 0 9 1 7 -1 1 3 9 4 2 7 6 15 1 3 -5 4 -2 -2 4 12 10 4 11 7 8 7 3 4 7 5 14 10 4 2 3 8 4 2 18 2 12 7 5 7 4 -1 2 2 21 5 4 5 4 5 3 12 2 15 24 17 1 1 2 9 3 10 10 1 8 1 2 4 1 12 9 16 3 3 5 4 4 2 10 5 2 3 15 3 6 4 1 9 5 0 -1 23 9 -1 -2 9 5 9 0 7 2 0 6 3 3 17 3 6 1 6 4 0 5 11 4 3 3 3 10 5 2 -1 1 3 0 5 2 2 11 -1 13 18 6 9 9 6 2 5 2 10 -3 4 2 4 4 9 7 5 9 3 8 12 -1 3 4 6 0 -1 1 8 6 -1 7 7 2 6 0 0 6 4 7 7 7 2 4 10 2 -4 -1 -1 2 3 2 5 0 5 1 3 21 1 3 2 0 6 -1 5 3 2 6 -1 4 4 4 3 6 8 33 11 4 3 4 1 5 1 5 0 2 3 3 7 4 14 3 6 4 10 -2 -7 10 2 3 5 10 4 2 12 4 2 0 5 4 2 4 4 4 4 6 7 -4 1 2 1 2 7 5 7 0 3 1 0 0 1 4 9 6 4 2 10 4 2 -2 2 4 2 5 2 5 11 9 7 0 5 0 -1 3 3 1 2 3 0 1 5 0 1 32 0 3 4 0 1 3 8 12 5 5 2 3 2 7 2 6 3 8 3 10 4 6 7 2 7 4 0 1 0 0 1 5 -2 3</t>
-  </si>
-  <si>
-    <t>6 6 11 7 15 10 13 2 6 5 4 9 9 2 17 11 7 12 14 7 19 15 1 3 13 1 12 5 10 6 7 20 9 14 13 10 11 22 2 54 11 16 8 14 8 4 5 4 11 33 15 11 13 15 2 5 7 29 5 18 -4 20 10 49 9 5 7 24 7 6 9 7 6 18 13 11 2 17 5 8 22 17 11 2 14 21 24 8 5 5 10 6 19 45 6 6 6 1 9 12 26 32 4 13 5 16 37 8 4 23 15 23 6 16 2 42 4 3 -1 15 7 8 5 6 22 11 5 15 4 12 15 16 8 9 6 -3 21 -2 20 2 37 8 11 8 19 14 38 4 5 15 17 7 6 17 7 22 10 11 2 13 9 15 18 30 5 13 2 36 7 4 15 23 -3 18 5 3 -4 14 9 25 14 16 8 6 8 19 26 16 5 41 10 7 0 14 10 3 8 6 32 23 7 5 8 14 1 10 9 10 28 14 29 -5 3 44 4 10 26 28 8 13 2 3 8 10 14 6 8 4 3 17 21 11 8 3 19 11 6 3 9 8 11 12 13 3 5 15 6 19 9 10 9 16 15 3 22 34 23 6 3 1 75 19 3 14 7 44 20 12 14 2 9 5 13 9 2 8 29 37 7 7 8 9 14 8 2 2 4 6 20 8 11 3 15 3 2 8 19 14 18 20 1 19 6 4 10 -5 15 28 5 20 12 15 30 14 5 20 8 5 17 9 9 1 16 17 7 37 21 9 13 16 9 5 15 6 26 44 28 26 5 32 13 5 11 9 8 4 -5 11 6 5 14 10 23 23 19 1 2 13 4 20 9 5 16 9 9 8 16 7 7 10 15 6 10 31 5 4 13 9 9 5 11 2 9 4 11 12 13 26 0 4 31 2 9 17 5 19 16 9 25 12 21 9 -2 37 3 7 2 3 11 8 8 18 12 3 -2 6 9 12 10 8 10 12 31 8 3 7 26 -1 9 42 9 11 20 8 14 8 15 -5 9 7 3 13 22 16 14 8 5 23 24 4 5 1 9 1 11 11 16 11 8 3 3 5 15 9 11 33 17 16 5 6 8 9 7 0 71 1 12 12 5 3 6 14 13 4 12 11 -1 5 8 0 5 21 13 17 33 12 9 4 23 8 18 16 1 4 17 9 11 24 9 8 -6 4 11 6 22 19 -2 9 28 6 7 12 6 11 8 3 14 75 8 4 14 6 7 19 10 33 17 11 14 10 4 14 20 14 5 11 40 5 46 3 8 3 23 13 7 7 15 5 6 6 8 17 -1 5 15 28 7 6 11 12 8 10 2 6 23 18 10 5 5 7 11 8 11 9 36 1 9 2 19 32 4 6 4 9 2 15 7 6 3 14 7 10 5 12 11 44 12 6 15 11 9 7 8 5 8 10 6 26 8 12 8 11 5 4 3 11 8 17 6 8 5 5 4 1 8 6 4 4 11 6 20 9 19 27 49 3 5 7 27 19 17 14 9 10 5 13 9 5 12 13 2 9 0 3 11 5 21 19 6 12 6 24 7 8 6 6 5 10 9 23 8 11 24 12 14 6 4 9 10 4 2 10 3 9 12 7 0 15 5 6 6 7 11 9 17 9 3 11 12 9 18 8 4 9 10 10 15 14 24 2 2 7 10 4 2 1 7 2 7 12 2 25 6 14 10 13 22 9 13 6 7 5 11 22 19 8 8 7 13 12 -1 16 27 3 1 0 9 7 11 7 13 17 2 10 16 32 3 7 3 38 8 30 22 1 10 8 12 0 8 37 13 23 7 11 8 24 14 22 10 12 6 6 4 8 8 8 9 9 12 13 9 29 14 -7 12 6 14 14 38 8 4 6 44 23 10 19 19 28 7 9 3 1 7 38 15 5 -3 2 8 16 1 12 14 5 9 20 11 12 -1 17 4 3 6 5 23 10 40 5 3 9 0 6 69 1 5 10 20 7 10 27 14 34 10 11 11 9 13 -1 5 18 18 5 7 3 14 8 50 3 8 9 4 6 9 16 22</t>
-  </si>
-  <si>
-    <t>5 7 9 2 19 4 6 1 4 7 2 2 2 1 5 6 17 2 4 13 1 9 9 6 4 3 5 3 0 1 3 3 5 3 13 5 3 1 7 9 5 8 7 2 3 3 5 9 1 8 7 4 2 0 7 3 3 -1 1 11 1 -1 2 5 3 30 5 6 11 3 6 4 18 4 8 11 1 4 5 24 3 2 8 5 2 2 3 4 10 18 -1 2 1 2 3 6 2 5 6 -1 8 4 4 7 0 9 41 4 2 5 3 5 1 10 7 3 6 1 2 7 2 2 43 1 3 4 4 2 0 4 2 2 0 7 7 2 4 7 2 5 1 9 10 3 9 4 2 3 5 4 1 13 3 -3 3 6 -1 7 -6 2 0 6 3 -1 6 3 2 14 2 6 20 9 4 19 6 1 1 6 5 10 8 -1 10 6 4 2 4 11 0 3 2 3 3 3 6 7 6 4 0 3 9 3 5 2 2 3 1 6 4 2 5 0 5 6 0 8 5 2 6 5 4 7 5 3 6 13 4 6 0 10 3 -1 1 2 -4 4 4 1 6 1 1 4 13 2 2 2 5 6 5 3 0 2 5 2 2 11 1 0 4 2 5 12 4 0 -3 5 4 1 2 11 3 1 34 1 6 0 3 1 0 2 8 0 4 8 8 4 3 65 1 6 3 3 13 2 0 3 5 2 7 1 3 -1 4 5 1 8 6 1 1 7 7 1 -2 6 2 2 2 2 2 3 5 2 3 7 2 9 3 5 2 1 9 5 5 4 2 3 7 2 1 11 2 3 6 2 4 5 2 1 8 14 4 3 4 -7 5 0 6 3 4 6 6 3 3 2 2 4 3 2 6 5 2 1 3 1 9 2 5 2 0 1 11 0 8 5 3 1 9 3 3 34 1 6 2 -2 5 5 5 6 0 6 4 -3 23 18 2 9 3 7 6 1 10 4 4 3 0 -1 1 3 7 17 2 15 3 7 10 4 4 5 1 18 8 11 3 13 -3 3 6 6 11 7 8 4 1 1 0 3 4 27 6 3 2 0 4 7 8 4 4 8 1 1 5 2 6 7 -1 6 4 2 4 17 8 18 5 15 6 17 4 2 6 7 6 2 2 -2 5 2 6 5 12 31 9 7 1 9 9 8 0 0 21 3 4 5 20 14 -4 3 4 -2 20 6 2 8 5 9 2 1 11 5 9 -1 3 1 1 2 1 4 -1 9 1 2 3 3 5 -2 -1 5 9 1 -1 11 6 9 6 0 8 1 2 5 11 12 5 12 6 3 3 -4 7 2 2 7 4 2 13 10 0 8 22 2 11 9 9 8 2 -1 3 5 -1 0 0 3 1 4 12 4 6 6 0 8 3 4 8 1 3 5 3 3 2 2 15 1 7 8 6 4 4 11 2 5 3 9 2 3 4 0 8 5 0 3 4 -1 2 4 0 11 1 -1 2 2 4 6 2 1 2 8 5 4 -4 9 3 2 -4 5 2 0 2 -3 11 2 2 6 2 14 5 4 0 3 5 4 10 2 2 4 9 15 2 3 -1 7 7 -2 8 5 3 1 5 5 0 7 8 2 2 4 9 6 4 9 3 5 3 3 1 -1 12 2 -1 9 2 1 3 8 -1 2 5 31 3 1 5 1 5 2 8 3 5 4 4 4 9 -1 1 14 2 9 6 7 2 14 3 0 1 11 3 5 5 -1 5 4 8 9 7 2 6 2 16 1 -3 5 1 4 3 4 1 5 3 4 15 3 15 4 3 6 2 4 1 2 7 0 9 4 6 8 4 3 1 8 2 4 8 22 1 1 3 0 2 2 3 2 6 15 2 2 -2 0 2 1 21 5 5 8 6 6 6 12 4 6 3 6 6 5 8 4 2 11 17 2</t>
-  </si>
-  <si>
-    <t>12 5 6 11 9 19 7 15 20 8 7 20 10 12 19 31 17 8 6 35 16 14 10 12 5 22 6 14 11 14 8 32 17 14 25 22 7 5 19 1 6 7 0 0 7 4 6 13 7 7 8 5 19 6 6 4 7 6 13 11 0 8 8 9 15 -4 5 8 19 0 25 4 12 30 9 46 12 5 59 23 5 72 3 8 10 1 4 2 4 23 7 2 4 11 6 4 2 15 13 4 7 5 14 22 8 3 27 5 2 10 7 19 5 17 13 21 12 13 4 6 6 13 11 24 5 11 9 8 4 15 5 -2 1 27 13 5 15 8 1 5 -6 10 6 8 3 7 4 1 12 7 0 5 11 7 14 9 3 11 12 -6 8 8 3 28 24 3 11 2 9 22 11 5 3 9 6 23 0 26 29 16 7 11 17 18 14 11 11 4 1 18 16 7 9 3 21 3 20 5 7 1 12 6 6 2 6 8 48 -4 44 9 14 9 8 7 5 7 8 6 10 11 7 37 7 5 8 11 0 10 5 5 8 21 11 10 8 5 16 14 18 7 7 10 14 2 12 16 9 10 10 -1 11 11 13 5 23 10 29 2 6 9 9 18 4 22 5 51 21 8 25 24 9 14 8 12 5 12 17 26 -1 3 15 7 7 5 8 54 5 7 0 15 17 6 9 6 2 3 7 7 17 11 8 22 9 4 20 11 32 6 6 12 17 5 8 48 27 18 27 11 -3 3 7 -8 26 26 23 25 18 0 4 2 6 17 4 3 4 5 2 17 6 7 3 2 6 14 12 20 7 2 6 17 23 6 8 6 10 6 13 9 11 7 15 6 6 34 1 5 16 15 5 8 3 31 -3 9 4 17 8 5 15 1 3 12 25 15 6 8 14 16 8 44 17 3 9 10 9 43 11 9 30 4 10 3 4 19 11 17 -4 7 20 8 9 7 11 4 4 12 8 27 20 42 19 9 10 6 0 4 3 8 8 11 19 4 20 8 6 16 5 12 7 21 11 5 0 20 43 15 6 16 4 13 22 21 12 10 6 3 5 15 3 7 14 18 6 37 12 1 21 8 7 6 4 14 14 9 18 19 17 9 9 15 23 8 24 35 61 15 53 41 1 -2 11 5 16 16 8 9 13 6 3 7 12 2 7 3 5 6 6 6 4 16 39 10 14 4 -4 -4 9 12 4 -2 7 10 18 3 5 3 24 8 13 22 10 2 20 6 12 9 11 6 5 8 24 5 50 19 3 11 1 12 41 2 5 4 22 4 6 11 6 5 7 16 4 3 3 10 15 5 6 21 35 0 11 -1 14 16 3 8 2 15 5 6 5 1 4 3 27 3 6 7 5 22 37 24 40 11 5 5 7 9 6 12 3 15 -2 8 -3 11 11 2 2 8 11 3 1 5 4 5 16 4 0 6 12 18 14 -2 3 19 5 19 7 11 16 36 10 10 6 3 2 34 5 9 5 8 11 9 13 19 12 6 19 10 7 7 8 9 16 14 2 7 19 7 2 5 7 13 10 6 4 6 4 19 19 6 4 9 4 12 12 13 15 4 2 27 7 5 4 17 6 29 8 5 15 15 8 5 14 18 9 5 -3 24 10 0 1 3 5 10 6 2 17 4 8 2 5 6 6 3 3 7 4 6 12</t>
+    <t>3 3 1 1 18 7 9 9 6 8 8 4 4 3 -1 11 2 27 3 4 3 2 9 0 -2 4 -1 4 14 -1 2 0 17 5 0 14 3 15 10 4 1 -1 4 3 1 21 1 5 2 4 2 3 22 1 3 4 5 1 1 -1 9 4 16 1 7 3 11 2 0 -1 0 12 6 5 3 3 1 2 4 2 2 5 6 5 1 3 13 1 9 4 2 1 5 -1 11 4 1 2 1 18 9 4 2 8 5 6 6 3 3 5 10 8 5 1 4 6 2 -1 2 3 0 1 5 3 -1 9 1 9 4 2 31 0 5 5 5 12 14 5 11 5 3 4 6 8 3 17 0 8 11 5 1 8 4 5 5 7 3 9 0 -3 2 -4 3 0 9 -4 2 13 2 4 11 16 1 2 27 0 1 16 3 1 1 0 0 2 3 1 3 2 4 1 4 -3 4 3 4 3 3 8 1 2 0 11 -2 2 2 0 2 7 4 8 0 3 0 4 5 3 8 6 10 4 3 5 11 3 2 9 2 3 0 -2 14 -4 -5 7 2 3 6 1 0 8 -2 2 3 4 10 10 17 5 0 0 5 4 7 4 4 8 1 1 4 2 5 6 30 20 3 0 16 3 1 6 3 10 6 5 12 4 1 -3 2 6 3 13 32 0 8 5 9 -2 3 -1 9 2 12 4 0 0 0 -3 -8 1 5 1 1 13 -5 3 8 4 11 6 7 1 6 3 16 1 3 4 1 2 1 6 3 2 1 12 4 0 8 24 4 4 1 2 5 5 10 -3 0 3 1 13 9 7 3 6 20 11 4 3 11 2 1 17 4 3 3 2 3 6 3 0 1 0 10 3 2 6 5 2 3 1 4 12 6 4 2 1 2 4 9 13 4 1 0 16 4 1 9 2 2 13 5 -2 50 6 6 2 4 1 -3 3 9 0 5 11 1 2 5 2 -3 13 11 2 5 5 11 6 -1 2 10 7 26 10 3 3 7 1 -2 4 4 1 2 5 3 4 4 3 8 9 7 1 2 5 4 7 0 4 0 9 1 7 -1 1 3 9 4 2 7 6 15 1 3 -5 4 -2 -2 4 12 10 4 11 7 8 7 3 4 7 5 14 10 4 2 3 8 4 2 18 2 12 7 5 7 4 -1 2 2 21 5 4 5 4 5 3 12 2 15 24 17 1 1 2 9 3 10 10 1 8 1 2 4 1 12 9 16 3 3 5 4 4 2 10 5 2 3 15 3 6 4 1 9 5 0 -1 23 9 -1 -2 9 5 9 0 7 2 0 6 3 3 17 3 6 1 6 4 0 5 11 4 3 3 3 10 5 2 -1 1 3 0 5 2 2 11 -1 13 18 6 9 9 6 2 5 2 10 -3 4 2 4 4 9 7 5 9 3 8 12 -1 3 4 6 0 -1 1 8 6 -1 7 7 2 6 0 0 6 4 7 7 7 2 4 10 2 -4 -1 -1 2 3 2 5 0 5 1 3 21 1 3 2 0 6 -1 5 3 2 6 -1 4 4 4 3 6 8 33 11 4 3 4 1 5 1 5 0 2 3 3 7 4 14 3 6 4 10 -2 -7 10 2 3 5 10 4 2 12 4 2 0 5 4 2 4 4 4 4 6 7 -4 1 2 1 2 7 5 7 0 3 1 0 0 1 4 9 6 4 2 10 4 2 -2 2 4 2 5 2 5 11 9 7 0 5 0 -1 3 3 1 2 3 0 1 5 0 1 32 0 3 4 0 1 3 8 12 5 5 2 3 2 7 2 6 3 8 3 10 4 6 7 2 7 4 0 1 0 0 1 5 -2 3 1 2 23 -1 6 2 1 8 10 6 8 1 14 3 17 1 19 8 0 5 8 11</t>
+  </si>
+  <si>
+    <t>6 6 11 7 15 10 13 2 6 5 4 9 9 2 17 11 7 12 14 7 19 15 1 3 13 1 12 5 10 6 7 20 9 14 13 10 11 22 2 54 11 16 8 14 8 4 5 4 11 33 15 11 13 15 2 5 7 29 5 18 -4 20 10 49 9 5 7 24 7 6 9 7 6 18 13 11 2 17 5 8 22 17 11 2 14 21 24 8 5 5 10 6 19 45 6 6 6 1 9 12 26 32 4 13 5 16 37 8 4 23 15 23 6 16 2 42 4 3 -1 15 7 8 5 6 22 11 5 15 4 12 15 16 8 9 6 -3 21 -2 20 2 37 8 11 8 19 14 38 4 5 15 17 7 6 17 7 22 10 11 2 13 9 15 18 30 5 13 2 36 7 4 15 23 -3 18 5 3 -4 14 9 25 14 16 8 6 8 19 26 16 5 41 10 7 0 14 10 3 8 6 32 23 7 5 8 14 1 10 9 10 28 14 29 -5 3 44 4 10 26 28 8 13 2 3 8 10 14 6 8 4 3 17 21 11 8 3 19 11 6 3 9 8 11 12 13 3 5 15 6 19 9 10 9 16 15 3 22 34 23 6 3 1 75 19 3 14 7 44 20 12 14 2 9 5 13 9 2 8 29 37 7 7 8 9 14 8 2 2 4 6 20 8 11 3 15 3 2 8 19 14 18 20 1 19 6 4 10 -5 15 28 5 20 12 15 30 14 5 20 8 5 17 9 9 1 16 17 7 37 21 9 13 16 9 5 15 6 26 44 28 26 5 32 13 5 11 9 8 4 -5 11 6 5 14 10 23 23 19 1 2 13 4 20 9 5 16 9 9 8 16 7 7 10 15 6 10 31 5 4 13 9 9 5 11 2 9 4 11 12 13 26 0 4 31 2 9 17 5 19 16 9 25 12 21 9 -2 37 3 7 2 3 11 8 8 18 12 3 -2 6 9 12 10 8 10 12 31 8 3 7 26 -1 9 42 9 11 20 8 14 8 15 -5 9 7 3 13 22 16 14 8 5 23 24 4 5 1 9 1 11 11 16 11 8 3 3 5 15 9 11 33 17 16 5 6 8 9 7 0 71 1 12 12 5 3 6 14 13 4 12 11 -1 5 8 0 5 21 13 17 33 12 9 4 23 8 18 16 1 4 17 9 11 24 9 8 -6 4 11 6 22 19 -2 9 28 6 7 12 6 11 8 3 14 75 8 4 14 6 7 19 10 33 17 11 14 10 4 14 20 14 5 11 40 5 46 3 8 3 23 13 7 7 15 5 6 6 8 17 -1 5 15 28 7 6 11 12 8 10 2 6 23 18 10 5 5 7 11 8 11 9 36 1 9 2 19 32 4 6 4 9 2 15 7 6 3 14 7 10 5 12 11 44 12 6 15 11 9 7 8 5 8 10 6 26 8 12 8 11 5 4 3 11 8 17 6 8 5 5 4 1 8 6 4 4 11 6 20 9 19 27 49 3 5 7 27 19 17 14 9 10 5 13 9 5 12 13 2 9 0 3 11 5 21 19 6 12 6 24 7 8 6 6 5 10 9 23 8 11 24 12 14 6 4 9 10 4 2 10 3 9 12 7 0 15 5 6 6 7 11 9 17 9 3 11 12 9 18 8 4 9 10 10 15 14 24 2 2 7 10 4 2 1 7 2 7 12 2 25 6 14 10 13 22 9 13 6 7 5 11 22 19 8 8 7 13 12 -1 16 27 3 1 0 9 7 11 7 13 17 2 10 16 32 3 7 3 38 8 30 22 1 10 8 12 0 8 37 13 23 7 11 8 24 14 22 10 12 6 6 4 8 8 8 9 9 12 13 9 29 14 -7 12 6 14 14 38 8 4 6 44 23 10 19 19 28 7 9 3 1 7 38 15 5 -3 2 8 16 1 12 14 5 9 20 11 12 -1 17 4 3 6 5 23 10 40 5 3 9 0 6 69 1 5 10 20 7 10 27 14 34 10 11 11 9 13 -1 5 18 18 5 7 3 14 8 50 3 8 9 4 6 9 16 22 8 6 1 29 7 17 24 3 3 53 7 3 2 4 27 7 8 5 11 6 5 6 4 8 1 4</t>
+  </si>
+  <si>
+    <t>5 7 9 2 19 4 6 1 4 7 2 2 2 1 5 6 17 2 4 13 1 9 9 6 4 3 5 3 0 1 3 3 5 3 13 5 3 1 7 9 5 8 7 2 3 3 5 9 1 8 7 4 2 0 7 3 3 -1 1 11 1 -1 2 5 3 30 5 6 11 3 6 4 18 4 8 11 1 4 5 24 3 2 8 5 2 2 3 4 10 18 -1 2 1 2 3 6 2 5 6 -1 8 4 4 7 0 9 41 4 2 5 3 5 1 10 7 3 6 1 2 7 2 2 43 1 3 4 4 2 0 4 2 2 0 7 7 2 4 7 2 5 1 9 10 3 9 4 2 3 5 4 1 13 3 -3 3 6 -1 7 -6 2 0 6 3 -1 6 3 2 14 2 6 20 9 4 19 6 1 1 6 5 10 8 -1 10 6 4 2 4 11 0 3 2 3 3 3 6 7 6 4 0 3 9 3 5 2 2 3 1 6 4 2 5 0 5 6 0 8 5 2 6 5 4 7 5 3 6 13 4 6 0 10 3 -1 1 2 -4 4 4 1 6 1 1 4 13 2 2 2 5 6 5 3 0 2 5 2 2 11 1 0 4 2 5 12 4 0 -3 5 4 1 2 11 3 1 34 1 6 0 3 1 0 2 8 0 4 8 8 4 3 65 1 6 3 3 13 2 0 3 5 2 7 1 3 -1 4 5 1 8 6 1 1 7 7 1 -2 6 2 2 2 2 2 3 5 2 3 7 2 9 3 5 2 1 9 5 5 4 2 3 7 2 1 11 2 3 6 2 4 5 2 1 8 14 4 3 4 -7 5 0 6 3 4 6 6 3 3 2 2 4 3 2 6 5 2 1 3 1 9 2 5 2 0 1 11 0 8 5 3 1 9 3 3 34 1 6 2 -2 5 5 5 6 0 6 4 -3 23 18 2 9 3 7 6 1 10 4 4 3 0 -1 1 3 7 17 2 15 3 7 10 4 4 5 1 18 8 11 3 13 -3 3 6 6 11 7 8 4 1 1 0 3 4 27 6 3 2 0 4 7 8 4 4 8 1 1 5 2 6 7 -1 6 4 2 4 17 8 18 5 15 6 17 4 2 6 7 6 2 2 -2 5 2 6 5 12 31 9 7 1 9 9 8 0 0 21 3 4 5 20 14 -4 3 4 -2 20 6 2 8 5 9 2 1 11 5 9 -1 3 1 1 2 1 4 -1 9 1 2 3 3 5 -2 -1 5 9 1 -1 11 6 9 6 0 8 1 2 5 11 12 5 12 6 3 3 -4 7 2 2 7 4 2 13 10 0 8 22 2 11 9 9 8 2 -1 3 5 -1 0 0 3 1 4 12 4 6 6 0 8 3 4 8 1 3 5 3 3 2 2 15 1 7 8 6 4 4 11 2 5 3 9 2 3 4 0 8 5 0 3 4 -1 2 4 0 11 1 -1 2 2 4 6 2 1 2 8 5 4 -4 9 3 2 -4 5 2 0 2 -3 11 2 2 6 2 14 5 4 0 3 5 4 10 2 2 4 9 15 2 3 -1 7 7 -2 8 5 3 1 5 5 0 7 8 2 2 4 9 6 4 9 3 5 3 3 1 -1 12 2 -1 9 2 1 3 8 -1 2 5 31 3 1 5 1 5 2 8 3 5 4 4 4 9 -1 1 14 2 9 6 7 2 14 3 0 1 11 3 5 5 -1 5 4 8 9 7 2 6 2 16 1 -3 5 1 4 3 4 1 5 3 4 15 3 15 4 3 6 2 4 1 2 7 0 9 4 6 8 4 3 1 8 2 4 8 22 1 1 3 0 2 2 3 2 6 15 2 2 -2 0 2 1 21 5 5 8 6 6 6 12 4 6 3 6 6 5 8 4 2 11 17 2 13 3 6 6 3 1 4 3 3 1 3 4 5 4 1 0 0 0</t>
+  </si>
+  <si>
+    <t>12 5 6 11 9 19 7 15 20 8 7 20 10 12 19 31 17 8 6 35 16 14 10 12 5 22 6 14 11 14 8 32 17 14 25 22 7 5 19 1 6 7 0 0 7 4 6 13 7 7 8 5 19 6 6 4 7 6 13 11 0 8 8 9 15 -4 5 8 19 0 25 4 12 30 9 46 12 5 59 23 5 72 3 8 10 1 4 2 4 23 7 2 4 11 6 4 2 15 13 4 7 5 14 22 8 3 27 5 2 10 7 19 5 17 13 21 12 13 4 6 6 13 11 24 5 11 9 8 4 15 5 -2 1 27 13 5 15 8 1 5 -6 10 6 8 3 7 4 1 12 7 0 5 11 7 14 9 3 11 12 -6 8 8 3 28 24 3 11 2 9 22 11 5 3 9 6 23 0 26 29 16 7 11 17 18 14 11 11 4 1 18 16 7 9 3 21 3 20 5 7 1 12 6 6 2 6 8 48 -4 44 9 14 9 8 7 5 7 8 6 10 11 7 37 7 5 8 11 0 10 5 5 8 21 11 10 8 5 16 14 18 7 7 10 14 2 12 16 9 10 10 -1 11 11 13 5 23 10 29 2 6 9 9 18 4 22 5 51 21 8 25 24 9 14 8 12 5 12 17 26 -1 3 15 7 7 5 8 54 5 7 0 15 17 6 9 6 2 3 7 7 17 11 8 22 9 4 20 11 32 6 6 12 17 5 8 48 27 18 27 11 -3 3 7 -8 26 26 23 25 18 0 4 2 6 17 4 3 4 5 2 17 6 7 3 2 6 14 12 20 7 2 6 17 23 6 8 6 10 6 13 9 11 7 15 6 6 34 1 5 16 15 5 8 3 31 -3 9 4 17 8 5 15 1 3 12 25 15 6 8 14 16 8 44 17 3 9 10 9 43 11 9 30 4 10 3 4 19 11 17 -4 7 20 8 9 7 11 4 4 12 8 27 20 42 19 9 10 6 0 4 3 8 8 11 19 4 20 8 6 16 5 12 7 21 11 5 0 20 43 15 6 16 4 13 22 21 12 10 6 3 5 15 3 7 14 18 6 37 12 1 21 8 7 6 4 14 14 9 18 19 17 9 9 15 23 8 24 35 61 15 53 41 1 -2 11 5 16 16 8 9 13 6 3 7 12 2 7 3 5 6 6 6 4 16 39 10 14 4 -4 -4 9 12 4 -2 7 10 18 3 5 3 24 8 13 22 10 2 20 6 12 9 11 6 5 8 24 5 50 19 3 11 1 12 41 2 5 4 22 4 6 11 6 5 7 16 4 3 3 10 15 5 6 21 35 0 11 -1 14 16 3 8 2 15 5 6 5 1 4 3 27 3 6 7 5 22 37 24 40 11 5 5 7 9 6 12 3 15 -2 8 -3 11 11 2 2 8 11 3 1 5 4 5 16 4 0 6 12 18 14 -2 3 19 5 19 7 11 16 36 10 10 6 3 2 34 5 9 5 8 11 9 13 19 12 6 19 10 7 7 8 9 16 14 2 7 19 7 2 5 7 13 10 6 4 6 4 19 19 6 4 9 4 12 12 13 15 4 2 27 7 5 4 17 6 29 8 5 15 15 8 5 14 18 9 5 -3 24 10 0 1 3 5 10 6 2 17 4 8 2 5 6 6 3 3 7 4 6 12 11 4 3 10 72 8 8 9 17 18 6 7 6 4 10 5 69 22 6 4 39 10 5 2 5 9 2 35 30</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -167,16 +167,16 @@
     <t>21 22 23 16 28 20 29 26 93 19 19 18 9 29 17 23 23 0 6 22 31 24 7 18 27 26 28 21 13 17 20 14 44 0 15 23 19 17 17 12 19 26 19 3 23 19 18 19 21 18 26 18 28 16 29 75 19 29 13</t>
   </si>
   <si>
-    <t>20 31 19 22 23 22 11 2 23 26 29 21 29 27 15 21 44 26 19 31 28 18 24 18 26 41 21 25 24 20 8 33 3 9 25 30 28 22 32 28 31 33 0 28 23 12 20 14 38 27 39 24 19 20</t>
-  </si>
-  <si>
-    <t>44 38 54 38 42 32 54 55 58 65 65 53 60 44 67 53 47 33 33 42 38 57 29 38 44 40 36 55 52 50 54 32 23 39 30 43 41 58 48 51 34 61 45 37 41 25 31 52 58 24 24 44 38 44 51 27 29 44 47 54 49 32 51 46 42 34 19 52 41 50 52 43 54 55 44 64 42 49 49 68 31 54 50 37 52 32 41 50</t>
-  </si>
-  <si>
-    <t>0 0 19 0 3 0 0 0 16 12 0 0 0 0 0 0 0 0 0 24 0 0 0 0 0 0 0 8 3 0 2 0 0 -2 0 0 0 -4 11 1 0 17 9 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 16 0 0 7 0 0 0 0 0 0 0 0 0 0 0 15 0 0 7 0 0 14 6 0 6 0 0 20</t>
-  </si>
-  <si>
-    <t>0 0 0 0 11 8 18 0</t>
+    <t>20 31 19 22 23 22 11 2 23 26 29 21 29 27 15 21 44 26 19 31 28 18 24 18 26 41 21 25 24 20 8 33 3 9 25 30 28 22 32 28 31 33 0 28 23 12 20 14 38 27 39 24 19 20 25 26 30 12</t>
+  </si>
+  <si>
+    <t>44 38 54 38 42 32 54 55 58 65 65 53 60 44 67 53 47 33 33 42 38 57 29 38 44 40 36 55 52 50 54 32 23 39 30 43 41 58 48 51 34 61 45 37 41 25 31 52 58 24 24 44 38 44 51 27 29 44 47 54 49 32 51 46 42 34 19 52 41 50 52 43 54 55 44 64 42 49 49 68 31 54 50 37 52 32 41 50 42 35 31</t>
+  </si>
+  <si>
+    <t>0 0 19 0 3 0 0 0 16 12 0 0 0 0 0 0 0 0 0 24 0 0 0 0 0 0 0 8 3 0 2 0 0 -2 0 0 0 -4 11 1 0 17 9 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 16 0 0 7 0 0 0 0 0 0 0 0 0 0 0 15 0 0 7 0 0 14 6 0 6 0 0 20 0 3 0</t>
+  </si>
+  <si>
+    <t>0 0 0 0 11 8 18 0 0 29 3</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,19 +668,19 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>15</v>
       </c>
       <c r="F2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G2">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -689,7 +689,7 @@
         <v>14</v>
       </c>
       <c r="J2">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -704,10 +704,10 @@
         <v>28</v>
       </c>
       <c r="O2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q2">
         <v>1226</v>
@@ -718,10 +718,10 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -730,28 +730,28 @@
         <v>65</v>
       </c>
       <c r="F3">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="G3">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="H3">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I3">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>609</v>
+        <v>644</v>
       </c>
       <c r="M3">
-        <v>413</v>
+        <v>439</v>
       </c>
       <c r="N3">
         <v>29</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>1000</v>
+        <v>1061</v>
       </c>
     </row>
   </sheetData>
@@ -940,22 +940,22 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="D2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E2">
         <v>6</v>
       </c>
       <c r="F2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G2">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -964,7 +964,7 @@
         <v>12</v>
       </c>
       <c r="J2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,13 +976,13 @@
         <v>417</v>
       </c>
       <c r="N2">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="O2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q2">
         <v>1144</v>
@@ -993,40 +993,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="D3">
         <v>8</v>
       </c>
       <c r="E3">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F3">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="G3">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I3">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J3">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>513</v>
+        <v>553</v>
       </c>
       <c r="M3">
-        <v>327</v>
+        <v>358</v>
       </c>
       <c r="N3">
         <v>39</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>923</v>
+        <v>993</v>
       </c>
     </row>
   </sheetData>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -1239,10 +1239,10 @@
         <v>4</v>
       </c>
       <c r="J2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L2">
         <v>43</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1368,10 +1368,10 @@
         <v>16</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E3">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1409,7 +1409,7 @@
         <v>60</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Base/Teams/Chiefs/Team Data.xlsx
+++ b/Base/Teams/Chiefs/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>3 3 1 1 18 7 9 9 6 8 8 4 4 3 -1 11 2 27 3 4 3 2 9 0 -2 4 -1 4 14 -1 2 0 17 5 0 14 3 15 10 4 1 -1 4 3 1 21 1 5 2 4 2 3 22 1 3 4 5 1 1 -1 9 4 16 1 7 3 11 2 0 -1 0 12 6 5 3 3 1 2 4 2 2 5 6 5 1 3 13 1 9 4 2 1 5 -1 11 4 1 2 1 18 9 4 2 8 5 6 6 3 3 5 10 8 5 1 4 6 2 -1 2 3 0 1 5 3 -1 9 1 9 4 2 31 0 5 5 5 12 14 5 11 5 3 4 6 8 3 17 0 8 11 5 1 8 4 5 5 7 3 9 0 -3 2 -4 3 0 9 -4 2 13 2 4 11 16 1 2 27 0 1 16 3 1 1 0 0 2 3 1 3 2 4 1 4 -3 4 3 4 3 3 8 1 2 0 11 -2 2 2 0 2 7 4 8 0 3 0 4 5 3 8 6 10 4 3 5 11 3 2 9 2 3 0 -2 14 -4 -5 7 2 3 6 1 0 8 -2 2 3 4 10 10 17 5 0 0 5 4 7 4 4 8 1 1 4 2 5 6 30 20 3 0 16 3 1 6 3 10 6 5 12 4 1 -3 2 6 3 13 32 0 8 5 9 -2 3 -1 9 2 12 4 0 0 0 -3 -8 1 5 1 1 13 -5 3 8 4 11 6 7 1 6 3 16 1 3 4 1 2 1 6 3 2 1 12 4 0 8 24 4 4 1 2 5 5 10 -3 0 3 1 13 9 7 3 6 20 11 4 3 11 2 1 17 4 3 3 2 3 6 3 0 1 0 10 3 2 6 5 2 3 1 4 12 6 4 2 1 2 4 9 13 4 1 0 16 4 1 9 2 2 13 5 -2 50 6 6 2 4 1 -3 3 9 0 5 11 1 2 5 2 -3 13 11 2 5 5 11 6 -1 2 10 7 26 10 3 3 7 1 -2 4 4 1 2 5 3 4 4 3 8 9 7 1 2 5 4 7 0 4 0 9 1 7 -1 1 3 9 4 2 7 6 15 1 3 -5 4 -2 -2 4 12 10 4 11 7 8 7 3 4 7 5 14 10 4 2 3 8 4 2 18 2 12 7 5 7 4 -1 2 2 21 5 4 5 4 5 3 12 2 15 24 17 1 1 2 9 3 10 10 1 8 1 2 4 1 12 9 16 3 3 5 4 4 2 10 5 2 3 15 3 6 4 1 9 5 0 -1 23 9 -1 -2 9 5 9 0 7 2 0 6 3 3 17 3 6 1 6 4 0 5 11 4 3 3 3 10 5 2 -1 1 3 0 5 2 2 11 -1 13 18 6 9 9 6 2 5 2 10 -3 4 2 4 4 9 7 5 9 3 8 12 -1 3 4 6 0 -1 1 8 6 -1 7 7 2 6 0 0 6 4 7 7 7 2 4 10 2 -4 -1 -1 2 3 2 5 0 5 1 3 21 1 3 2 0 6 -1 5 3 2 6 -1 4 4 4 3 6 8 33 11 4 3 4 1 5 1 5 0 2 3 3 7 4 14 3 6 4 10 -2 -7 10 2 3 5 10 4 2 12 4 2 0 5 4 2 4 4 4 4 6 7 -4 1 2 1 2 7 5 7 0 3 1 0 0 1 4 9 6 4 2 10 4 2 -2 2 4 2 5 2 5 11 9 7 0 5 0 -1 3 3 1 2 3 0 1 5 0 1 32 0 3 4 0 1 3 8 12 5 5 2 3 2 7 2 6 3 8 3 10 4 6 7 2 7 4 0 1 0 0 1 5 -2 3 1 2 23 -1 6 2 1 8 10 6 8 1 14 3 17 1 19 8 0 5 8 11</t>
-  </si>
-  <si>
-    <t>6 6 11 7 15 10 13 2 6 5 4 9 9 2 17 11 7 12 14 7 19 15 1 3 13 1 12 5 10 6 7 20 9 14 13 10 11 22 2 54 11 16 8 14 8 4 5 4 11 33 15 11 13 15 2 5 7 29 5 18 -4 20 10 49 9 5 7 24 7 6 9 7 6 18 13 11 2 17 5 8 22 17 11 2 14 21 24 8 5 5 10 6 19 45 6 6 6 1 9 12 26 32 4 13 5 16 37 8 4 23 15 23 6 16 2 42 4 3 -1 15 7 8 5 6 22 11 5 15 4 12 15 16 8 9 6 -3 21 -2 20 2 37 8 11 8 19 14 38 4 5 15 17 7 6 17 7 22 10 11 2 13 9 15 18 30 5 13 2 36 7 4 15 23 -3 18 5 3 -4 14 9 25 14 16 8 6 8 19 26 16 5 41 10 7 0 14 10 3 8 6 32 23 7 5 8 14 1 10 9 10 28 14 29 -5 3 44 4 10 26 28 8 13 2 3 8 10 14 6 8 4 3 17 21 11 8 3 19 11 6 3 9 8 11 12 13 3 5 15 6 19 9 10 9 16 15 3 22 34 23 6 3 1 75 19 3 14 7 44 20 12 14 2 9 5 13 9 2 8 29 37 7 7 8 9 14 8 2 2 4 6 20 8 11 3 15 3 2 8 19 14 18 20 1 19 6 4 10 -5 15 28 5 20 12 15 30 14 5 20 8 5 17 9 9 1 16 17 7 37 21 9 13 16 9 5 15 6 26 44 28 26 5 32 13 5 11 9 8 4 -5 11 6 5 14 10 23 23 19 1 2 13 4 20 9 5 16 9 9 8 16 7 7 10 15 6 10 31 5 4 13 9 9 5 11 2 9 4 11 12 13 26 0 4 31 2 9 17 5 19 16 9 25 12 21 9 -2 37 3 7 2 3 11 8 8 18 12 3 -2 6 9 12 10 8 10 12 31 8 3 7 26 -1 9 42 9 11 20 8 14 8 15 -5 9 7 3 13 22 16 14 8 5 23 24 4 5 1 9 1 11 11 16 11 8 3 3 5 15 9 11 33 17 16 5 6 8 9 7 0 71 1 12 12 5 3 6 14 13 4 12 11 -1 5 8 0 5 21 13 17 33 12 9 4 23 8 18 16 1 4 17 9 11 24 9 8 -6 4 11 6 22 19 -2 9 28 6 7 12 6 11 8 3 14 75 8 4 14 6 7 19 10 33 17 11 14 10 4 14 20 14 5 11 40 5 46 3 8 3 23 13 7 7 15 5 6 6 8 17 -1 5 15 28 7 6 11 12 8 10 2 6 23 18 10 5 5 7 11 8 11 9 36 1 9 2 19 32 4 6 4 9 2 15 7 6 3 14 7 10 5 12 11 44 12 6 15 11 9 7 8 5 8 10 6 26 8 12 8 11 5 4 3 11 8 17 6 8 5 5 4 1 8 6 4 4 11 6 20 9 19 27 49 3 5 7 27 19 17 14 9 10 5 13 9 5 12 13 2 9 0 3 11 5 21 19 6 12 6 24 7 8 6 6 5 10 9 23 8 11 24 12 14 6 4 9 10 4 2 10 3 9 12 7 0 15 5 6 6 7 11 9 17 9 3 11 12 9 18 8 4 9 10 10 15 14 24 2 2 7 10 4 2 1 7 2 7 12 2 25 6 14 10 13 22 9 13 6 7 5 11 22 19 8 8 7 13 12 -1 16 27 3 1 0 9 7 11 7 13 17 2 10 16 32 3 7 3 38 8 30 22 1 10 8 12 0 8 37 13 23 7 11 8 24 14 22 10 12 6 6 4 8 8 8 9 9 12 13 9 29 14 -7 12 6 14 14 38 8 4 6 44 23 10 19 19 28 7 9 3 1 7 38 15 5 -3 2 8 16 1 12 14 5 9 20 11 12 -1 17 4 3 6 5 23 10 40 5 3 9 0 6 69 1 5 10 20 7 10 27 14 34 10 11 11 9 13 -1 5 18 18 5 7 3 14 8 50 3 8 9 4 6 9 16 22 8 6 1 29 7 17 24 3 3 53 7 3 2 4 27 7 8 5 11 6 5 6 4 8 1 4</t>
-  </si>
-  <si>
-    <t>5 7 9 2 19 4 6 1 4 7 2 2 2 1 5 6 17 2 4 13 1 9 9 6 4 3 5 3 0 1 3 3 5 3 13 5 3 1 7 9 5 8 7 2 3 3 5 9 1 8 7 4 2 0 7 3 3 -1 1 11 1 -1 2 5 3 30 5 6 11 3 6 4 18 4 8 11 1 4 5 24 3 2 8 5 2 2 3 4 10 18 -1 2 1 2 3 6 2 5 6 -1 8 4 4 7 0 9 41 4 2 5 3 5 1 10 7 3 6 1 2 7 2 2 43 1 3 4 4 2 0 4 2 2 0 7 7 2 4 7 2 5 1 9 10 3 9 4 2 3 5 4 1 13 3 -3 3 6 -1 7 -6 2 0 6 3 -1 6 3 2 14 2 6 20 9 4 19 6 1 1 6 5 10 8 -1 10 6 4 2 4 11 0 3 2 3 3 3 6 7 6 4 0 3 9 3 5 2 2 3 1 6 4 2 5 0 5 6 0 8 5 2 6 5 4 7 5 3 6 13 4 6 0 10 3 -1 1 2 -4 4 4 1 6 1 1 4 13 2 2 2 5 6 5 3 0 2 5 2 2 11 1 0 4 2 5 12 4 0 -3 5 4 1 2 11 3 1 34 1 6 0 3 1 0 2 8 0 4 8 8 4 3 65 1 6 3 3 13 2 0 3 5 2 7 1 3 -1 4 5 1 8 6 1 1 7 7 1 -2 6 2 2 2 2 2 3 5 2 3 7 2 9 3 5 2 1 9 5 5 4 2 3 7 2 1 11 2 3 6 2 4 5 2 1 8 14 4 3 4 -7 5 0 6 3 4 6 6 3 3 2 2 4 3 2 6 5 2 1 3 1 9 2 5 2 0 1 11 0 8 5 3 1 9 3 3 34 1 6 2 -2 5 5 5 6 0 6 4 -3 23 18 2 9 3 7 6 1 10 4 4 3 0 -1 1 3 7 17 2 15 3 7 10 4 4 5 1 18 8 11 3 13 -3 3 6 6 11 7 8 4 1 1 0 3 4 27 6 3 2 0 4 7 8 4 4 8 1 1 5 2 6 7 -1 6 4 2 4 17 8 18 5 15 6 17 4 2 6 7 6 2 2 -2 5 2 6 5 12 31 9 7 1 9 9 8 0 0 21 3 4 5 20 14 -4 3 4 -2 20 6 2 8 5 9 2 1 11 5 9 -1 3 1 1 2 1 4 -1 9 1 2 3 3 5 -2 -1 5 9 1 -1 11 6 9 6 0 8 1 2 5 11 12 5 12 6 3 3 -4 7 2 2 7 4 2 13 10 0 8 22 2 11 9 9 8 2 -1 3 5 -1 0 0 3 1 4 12 4 6 6 0 8 3 4 8 1 3 5 3 3 2 2 15 1 7 8 6 4 4 11 2 5 3 9 2 3 4 0 8 5 0 3 4 -1 2 4 0 11 1 -1 2 2 4 6 2 1 2 8 5 4 -4 9 3 2 -4 5 2 0 2 -3 11 2 2 6 2 14 5 4 0 3 5 4 10 2 2 4 9 15 2 3 -1 7 7 -2 8 5 3 1 5 5 0 7 8 2 2 4 9 6 4 9 3 5 3 3 1 -1 12 2 -1 9 2 1 3 8 -1 2 5 31 3 1 5 1 5 2 8 3 5 4 4 4 9 -1 1 14 2 9 6 7 2 14 3 0 1 11 3 5 5 -1 5 4 8 9 7 2 6 2 16 1 -3 5 1 4 3 4 1 5 3 4 15 3 15 4 3 6 2 4 1 2 7 0 9 4 6 8 4 3 1 8 2 4 8 22 1 1 3 0 2 2 3 2 6 15 2 2 -2 0 2 1 21 5 5 8 6 6 6 12 4 6 3 6 6 5 8 4 2 11 17 2 13 3 6 6 3 1 4 3 3 1 3 4 5 4 1 0 0 0</t>
-  </si>
-  <si>
-    <t>12 5 6 11 9 19 7 15 20 8 7 20 10 12 19 31 17 8 6 35 16 14 10 12 5 22 6 14 11 14 8 32 17 14 25 22 7 5 19 1 6 7 0 0 7 4 6 13 7 7 8 5 19 6 6 4 7 6 13 11 0 8 8 9 15 -4 5 8 19 0 25 4 12 30 9 46 12 5 59 23 5 72 3 8 10 1 4 2 4 23 7 2 4 11 6 4 2 15 13 4 7 5 14 22 8 3 27 5 2 10 7 19 5 17 13 21 12 13 4 6 6 13 11 24 5 11 9 8 4 15 5 -2 1 27 13 5 15 8 1 5 -6 10 6 8 3 7 4 1 12 7 0 5 11 7 14 9 3 11 12 -6 8 8 3 28 24 3 11 2 9 22 11 5 3 9 6 23 0 26 29 16 7 11 17 18 14 11 11 4 1 18 16 7 9 3 21 3 20 5 7 1 12 6 6 2 6 8 48 -4 44 9 14 9 8 7 5 7 8 6 10 11 7 37 7 5 8 11 0 10 5 5 8 21 11 10 8 5 16 14 18 7 7 10 14 2 12 16 9 10 10 -1 11 11 13 5 23 10 29 2 6 9 9 18 4 22 5 51 21 8 25 24 9 14 8 12 5 12 17 26 -1 3 15 7 7 5 8 54 5 7 0 15 17 6 9 6 2 3 7 7 17 11 8 22 9 4 20 11 32 6 6 12 17 5 8 48 27 18 27 11 -3 3 7 -8 26 26 23 25 18 0 4 2 6 17 4 3 4 5 2 17 6 7 3 2 6 14 12 20 7 2 6 17 23 6 8 6 10 6 13 9 11 7 15 6 6 34 1 5 16 15 5 8 3 31 -3 9 4 17 8 5 15 1 3 12 25 15 6 8 14 16 8 44 17 3 9 10 9 43 11 9 30 4 10 3 4 19 11 17 -4 7 20 8 9 7 11 4 4 12 8 27 20 42 19 9 10 6 0 4 3 8 8 11 19 4 20 8 6 16 5 12 7 21 11 5 0 20 43 15 6 16 4 13 22 21 12 10 6 3 5 15 3 7 14 18 6 37 12 1 21 8 7 6 4 14 14 9 18 19 17 9 9 15 23 8 24 35 61 15 53 41 1 -2 11 5 16 16 8 9 13 6 3 7 12 2 7 3 5 6 6 6 4 16 39 10 14 4 -4 -4 9 12 4 -2 7 10 18 3 5 3 24 8 13 22 10 2 20 6 12 9 11 6 5 8 24 5 50 19 3 11 1 12 41 2 5 4 22 4 6 11 6 5 7 16 4 3 3 10 15 5 6 21 35 0 11 -1 14 16 3 8 2 15 5 6 5 1 4 3 27 3 6 7 5 22 37 24 40 11 5 5 7 9 6 12 3 15 -2 8 -3 11 11 2 2 8 11 3 1 5 4 5 16 4 0 6 12 18 14 -2 3 19 5 19 7 11 16 36 10 10 6 3 2 34 5 9 5 8 11 9 13 19 12 6 19 10 7 7 8 9 16 14 2 7 19 7 2 5 7 13 10 6 4 6 4 19 19 6 4 9 4 12 12 13 15 4 2 27 7 5 4 17 6 29 8 5 15 15 8 5 14 18 9 5 -3 24 10 0 1 3 5 10 6 2 17 4 8 2 5 6 6 3 3 7 4 6 12 11 4 3 10 72 8 8 9 17 18 6 7 6 4 10 5 69 22 6 4 39 10 5 2 5 9 2 35 30</t>
+    <t>3 3 1 1 18 7 9 9 6 8 8 4 4 3 -1 11 2 27 3 4 3 2 9 0 -2 4 -1 4 14 -1 2 0 17 5 0 14 3 15 10 4 1 -1 4 3 1 21 1 5 2 4 2 3 22 1 3 4 5 1 1 -1 9 4 16 1 7 3 11 2 0 -1 0 12 6 5 3 3 1 2 4 2 2 5 6 5 1 3 13 1 9 4 2 1 5 -1 11 4 1 2 1 18 9 4 2 8 5 6 6 3 3 5 10 8 5 1 4 6 2 -1 2 3 0 1 5 3 -1 9 1 9 4 2 31 0 5 5 5 12 14 5 11 5 3 4 6 8 3 17 0 8 11 5 1 8 4 5 5 7 3 9 0 -3 2 -4 3 0 9 -4 2 13 2 4 11 16 1 2 27 0 1 16 3 1 1 0 0 2 3 1 3 2 4 1 4 -3 4 3 4 3 3 8 1 2 0 11 -2 2 2 0 2 7 4 8 0 3 0 4 5 3 8 6 10 4 3 5 11 3 2 9 2 3 0 -2 14 -4 -5 7 2 3 6 1 0 8 -2 2 3 4 10 10 17 5 0 0 5 4 7 4 4 8 1 1 4 2 5 6 30 20 3 0 16 3 1 6 3 10 6 5 12 4 1 -3 2 6 3 13 32 0 8 5 9 -2 3 -1 9 2 12 4 0 0 0 -3 -8 1 5 1 1 13 -5 3 8 4 11 6 7 1 6 3 16 1 3 4 1 2 1 6 3 2 1 12 4 0 8 24 4 4 1 2 5 5 10 -3 0 3 1 13 9 7 3 6 20 11 4 3 11 2 1 17 4 3 3 2 3 6 3 0 1 0 10 3 2 6 5 2 3 1 4 12 6 4 2 1 2 4 9 13 4 1 0 16 4 1 9 2 2 13 5 -2 50 6 6 2 4 1 -3 3 9 0 5 11 1 2 5 2 -3 13 11 2 5 5 11 6 -1 2 10 7 26 10 3 3 7 1 -2 4 4 1 2 5 3 4 4 3 8 9 7 1 2 5 4 7 0 4 0 9 1 7 -1 1 3 9 4 2 7 6 15 1 3 -5 4 -2 -2 4 12 10 4 11 7 8 7 3 4 7 5 14 10 4 2 3 8 4 2 18 2 12 7 5 7 4 -1 2 2 21 5 4 5 4 5 3 12 2 15 24 17 1 1 2 9 3 10 10 1 8 1 2 4 1 12 9 16 3 3 5 4 4 2 10 5 2 3 15 3 6 4 1 9 5 0 -1 23 9 -1 -2 9 5 9 0 7 2 0 6 3 3 17 3 6 1 6 4 0 5 11 4 3 3 3 10 5 2 -1 1 3 0 5 2 2 11 -1 13 18 6 9 9 6 2 5 2 10 -3 4 2 4 4 9 7 5 9 3 8 12 -1 3 4 6 0 -1 1 8 6 -1 7 7 2 6 0 0 6 4 7 7 7 2 4 10 2 -4 -1 -1 2 3 2 5 0 5 1 3 21 1 3 2 0 6 -1 5 3 2 6 -1 4 4 4 3 6 8 33 11 4 3 4 1 5 1 5 0 2 3 3 7 4 14 3 6 4 10 -2 -7 10 2 3 5 10 4 2 12 4 2 0 5 4 2 4 4 4 4 6 7 -4 1 2 1 2 7 5 7 0 3 1 0 0 1 4 9 6 4 2 10 4 2 -2 2 4 2 5 2 5 11 9 7 0 5 0 -1 3 3 1 2 3 0 1 5 0 1 32 0 3 4 0 1 3 8 12 5 5 2 3 2 7 2 6 3 8 3 10 4 6 7 2 7 4 0 1 0 0 1 5 -2 3 1 2 23 -1 6 2 1 8 10 6 8 1 14 3 17 1 19 8 0 5 8 11 0 11 3 3 3 11 3 0 1 6 10 5 6 5 25 5 3 6 7 4 6 4 4 2 5 6 4 4 4 2 2 -1 23 -2 15 13 12 1 0 -2 -4 5 4 3 6 11 -1</t>
+  </si>
+  <si>
+    <t>6 6 11 7 15 10 13 2 6 5 4 9 9 2 17 11 7 12 14 7 19 15 1 3 13 1 12 5 10 6 7 20 9 14 13 10 11 22 2 54 11 16 8 14 8 4 5 4 11 33 15 11 13 15 2 5 7 29 5 18 -4 20 10 49 9 5 7 24 7 6 9 7 6 18 13 11 2 17 5 8 22 17 11 2 14 21 24 8 5 5 10 6 19 45 6 6 6 1 9 12 26 32 4 13 5 16 37 8 4 23 15 23 6 16 2 42 4 3 -1 15 7 8 5 6 22 11 5 15 4 12 15 16 8 9 6 -3 21 -2 20 2 37 8 11 8 19 14 38 4 5 15 17 7 6 17 7 22 10 11 2 13 9 15 18 30 5 13 2 36 7 4 15 23 -3 18 5 3 -4 14 9 25 14 16 8 6 8 19 26 16 5 41 10 7 0 14 10 3 8 6 32 23 7 5 8 14 1 10 9 10 28 14 29 -5 3 44 4 10 26 28 8 13 2 3 8 10 14 6 8 4 3 17 21 11 8 3 19 11 6 3 9 8 11 12 13 3 5 15 6 19 9 10 9 16 15 3 22 34 23 6 3 1 75 19 3 14 7 44 20 12 14 2 9 5 13 9 2 8 29 37 7 7 8 9 14 8 2 2 4 6 20 8 11 3 15 3 2 8 19 14 18 20 1 19 6 4 10 -5 15 28 5 20 12 15 30 14 5 20 8 5 17 9 9 1 16 17 7 37 21 9 13 16 9 5 15 6 26 44 28 26 5 32 13 5 11 9 8 4 -5 11 6 5 14 10 23 23 19 1 2 13 4 20 9 5 16 9 9 8 16 7 7 10 15 6 10 31 5 4 13 9 9 5 11 2 9 4 11 12 13 26 0 4 31 2 9 17 5 19 16 9 25 12 21 9 -2 37 3 7 2 3 11 8 8 18 12 3 -2 6 9 12 10 8 10 12 31 8 3 7 26 -1 9 42 9 11 20 8 14 8 15 -5 9 7 3 13 22 16 14 8 5 23 24 4 5 1 9 1 11 11 16 11 8 3 3 5 15 9 11 33 17 16 5 6 8 9 7 0 71 1 12 12 5 3 6 14 13 4 12 11 -1 5 8 0 5 21 13 17 33 12 9 4 23 8 18 16 1 4 17 9 11 24 9 8 -6 4 11 6 22 19 -2 9 28 6 7 12 6 11 8 3 14 75 8 4 14 6 7 19 10 33 17 11 14 10 4 14 20 14 5 11 40 5 46 3 8 3 23 13 7 7 15 5 6 6 8 17 -1 5 15 28 7 6 11 12 8 10 2 6 23 18 10 5 5 7 11 8 11 9 36 1 9 2 19 32 4 6 4 9 2 15 7 6 3 14 7 10 5 12 11 44 12 6 15 11 9 7 8 5 8 10 6 26 8 12 8 11 5 4 3 11 8 17 6 8 5 5 4 1 8 6 4 4 11 6 20 9 19 27 49 3 5 7 27 19 17 14 9 10 5 13 9 5 12 13 2 9 0 3 11 5 21 19 6 12 6 24 7 8 6 6 5 10 9 23 8 11 24 12 14 6 4 9 10 4 2 10 3 9 12 7 0 15 5 6 6 7 11 9 17 9 3 11 12 9 18 8 4 9 10 10 15 14 24 2 2 7 10 4 2 1 7 2 7 12 2 25 6 14 10 13 22 9 13 6 7 5 11 22 19 8 8 7 13 12 -1 16 27 3 1 0 9 7 11 7 13 17 2 10 16 32 3 7 3 38 8 30 22 1 10 8 12 0 8 37 13 23 7 11 8 24 14 22 10 12 6 6 4 8 8 8 9 9 12 13 9 29 14 -7 12 6 14 14 38 8 4 6 44 23 10 19 19 28 7 9 3 1 7 38 15 5 -3 2 8 16 1 12 14 5 9 20 11 12 -1 17 4 3 6 5 23 10 40 5 3 9 0 6 69 1 5 10 20 7 10 27 14 34 10 11 11 9 13 -1 5 18 18 5 7 3 14 8 50 3 8 9 4 6 9 16 22 8 6 1 29 7 17 24 3 3 53 7 3 2 4 27 7 8 5 11 6 5 6 4 8 1 4 3 21 11 4 9 4 3 3 11 11 10 11 2 11 17 10 7 14 5 10 4 1 19 4 44 8 12 -4 20 5 5 4 15 20 2 14 15 5 4 31 0 3 12 15 27 48 29 8 23 4 1 31 6 15 3 41 2 2</t>
+  </si>
+  <si>
+    <t>5 7 9 2 19 4 6 1 4 7 2 2 2 1 5 6 17 2 4 13 1 9 9 6 4 3 5 3 0 1 3 3 5 3 13 5 3 1 7 9 5 8 7 2 3 3 5 9 1 8 7 4 2 0 7 3 3 -1 1 11 1 -1 2 5 3 30 5 6 11 3 6 4 18 4 8 11 1 4 5 24 3 2 8 5 2 2 3 4 10 18 -1 2 1 2 3 6 2 5 6 -1 8 4 4 7 0 9 41 4 2 5 3 5 1 10 7 3 6 1 2 7 2 2 43 1 3 4 4 2 0 4 2 2 0 7 7 2 4 7 2 5 1 9 10 3 9 4 2 3 5 4 1 13 3 -3 3 6 -1 7 -6 2 0 6 3 -1 6 3 2 14 2 6 20 9 4 19 6 1 1 6 5 10 8 -1 10 6 4 2 4 11 0 3 2 3 3 3 6 7 6 4 0 3 9 3 5 2 2 3 1 6 4 2 5 0 5 6 0 8 5 2 6 5 4 7 5 3 6 13 4 6 0 10 3 -1 1 2 -4 4 4 1 6 1 1 4 13 2 2 2 5 6 5 3 0 2 5 2 2 11 1 0 4 2 5 12 4 0 -3 5 4 1 2 11 3 1 34 1 6 0 3 1 0 2 8 0 4 8 8 4 3 65 1 6 3 3 13 2 0 3 5 2 7 1 3 -1 4 5 1 8 6 1 1 7 7 1 -2 6 2 2 2 2 2 3 5 2 3 7 2 9 3 5 2 1 9 5 5 4 2 3 7 2 1 11 2 3 6 2 4 5 2 1 8 14 4 3 4 -7 5 0 6 3 4 6 6 3 3 2 2 4 3 2 6 5 2 1 3 1 9 2 5 2 0 1 11 0 8 5 3 1 9 3 3 34 1 6 2 -2 5 5 5 6 0 6 4 -3 23 18 2 9 3 7 6 1 10 4 4 3 0 -1 1 3 7 17 2 15 3 7 10 4 4 5 1 18 8 11 3 13 -3 3 6 6 11 7 8 4 1 1 0 3 4 27 6 3 2 0 4 7 8 4 4 8 1 1 5 2 6 7 -1 6 4 2 4 17 8 18 5 15 6 17 4 2 6 7 6 2 2 -2 5 2 6 5 12 31 9 7 1 9 9 8 0 0 21 3 4 5 20 14 -4 3 4 -2 20 6 2 8 5 9 2 1 11 5 9 -1 3 1 1 2 1 4 -1 9 1 2 3 3 5 -2 -1 5 9 1 -1 11 6 9 6 0 8 1 2 5 11 12 5 12 6 3 3 -4 7 2 2 7 4 2 13 10 0 8 22 2 11 9 9 8 2 -1 3 5 -1 0 0 3 1 4 12 4 6 6 0 8 3 4 8 1 3 5 3 3 2 2 15 1 7 8 6 4 4 11 2 5 3 9 2 3 4 0 8 5 0 3 4 -1 2 4 0 11 1 -1 2 2 4 6 2 1 2 8 5 4 -4 9 3 2 -4 5 2 0 2 -3 11 2 2 6 2 14 5 4 0 3 5 4 10 2 2 4 9 15 2 3 -1 7 7 -2 8 5 3 1 5 5 0 7 8 2 2 4 9 6 4 9 3 5 3 3 1 -1 12 2 -1 9 2 1 3 8 -1 2 5 31 3 1 5 1 5 2 8 3 5 4 4 4 9 -1 1 14 2 9 6 7 2 14 3 0 1 11 3 5 5 -1 5 4 8 9 7 2 6 2 16 1 -3 5 1 4 3 4 1 5 3 4 15 3 15 4 3 6 2 4 1 2 7 0 9 4 6 8 4 3 1 8 2 4 8 22 1 1 3 0 2 2 3 2 6 15 2 2 -2 0 2 1 21 5 5 8 6 6 6 12 4 6 3 6 6 5 8 4 2 11 17 2 13 3 6 6 3 1 4 3 3 1 3 4 5 4 1 0 0 0 6 2 6 1 9 6 1 5 29 6 5 3 0 3 23 -1 4 3 -3 47 7 0 5 15 8 -4 4 1 2 -2 2 5 2 4 3 4 4 8 0 -2 2 4 7 2 13 4</t>
+  </si>
+  <si>
+    <t>12 5 6 11 9 19 7 15 20 8 7 20 10 12 19 31 17 8 6 35 16 14 10 12 5 22 6 14 11 14 8 32 17 14 25 22 7 5 19 1 6 7 0 0 7 4 6 13 7 7 8 5 19 6 6 4 7 6 13 11 0 8 8 9 15 -4 5 8 19 0 25 4 12 30 9 46 12 5 59 23 5 72 3 8 10 1 4 2 4 23 7 2 4 11 6 4 2 15 13 4 7 5 14 22 8 3 27 5 2 10 7 19 5 17 13 21 12 13 4 6 6 13 11 24 5 11 9 8 4 15 5 -2 1 27 13 5 15 8 1 5 -6 10 6 8 3 7 4 1 12 7 0 5 11 7 14 9 3 11 12 -6 8 8 3 28 24 3 11 2 9 22 11 5 3 9 6 23 0 26 29 16 7 11 17 18 14 11 11 4 1 18 16 7 9 3 21 3 20 5 7 1 12 6 6 2 6 8 48 -4 44 9 14 9 8 7 5 7 8 6 10 11 7 37 7 5 8 11 0 10 5 5 8 21 11 10 8 5 16 14 18 7 7 10 14 2 12 16 9 10 10 -1 11 11 13 5 23 10 29 2 6 9 9 18 4 22 5 51 21 8 25 24 9 14 8 12 5 12 17 26 -1 3 15 7 7 5 8 54 5 7 0 15 17 6 9 6 2 3 7 7 17 11 8 22 9 4 20 11 32 6 6 12 17 5 8 48 27 18 27 11 -3 3 7 -8 26 26 23 25 18 0 4 2 6 17 4 3 4 5 2 17 6 7 3 2 6 14 12 20 7 2 6 17 23 6 8 6 10 6 13 9 11 7 15 6 6 34 1 5 16 15 5 8 3 31 -3 9 4 17 8 5 15 1 3 12 25 15 6 8 14 16 8 44 17 3 9 10 9 43 11 9 30 4 10 3 4 19 11 17 -4 7 20 8 9 7 11 4 4 12 8 27 20 42 19 9 10 6 0 4 3 8 8 11 19 4 20 8 6 16 5 12 7 21 11 5 0 20 43 15 6 16 4 13 22 21 12 10 6 3 5 15 3 7 14 18 6 37 12 1 21 8 7 6 4 14 14 9 18 19 17 9 9 15 23 8 24 35 61 15 53 41 1 -2 11 5 16 16 8 9 13 6 3 7 12 2 7 3 5 6 6 6 4 16 39 10 14 4 -4 -4 9 12 4 -2 7 10 18 3 5 3 24 8 13 22 10 2 20 6 12 9 11 6 5 8 24 5 50 19 3 11 1 12 41 2 5 4 22 4 6 11 6 5 7 16 4 3 3 10 15 5 6 21 35 0 11 -1 14 16 3 8 2 15 5 6 5 1 4 3 27 3 6 7 5 22 37 24 40 11 5 5 7 9 6 12 3 15 -2 8 -3 11 11 2 2 8 11 3 1 5 4 5 16 4 0 6 12 18 14 -2 3 19 5 19 7 11 16 36 10 10 6 3 2 34 5 9 5 8 11 9 13 19 12 6 19 10 7 7 8 9 16 14 2 7 19 7 2 5 7 13 10 6 4 6 4 19 19 6 4 9 4 12 12 13 15 4 2 27 7 5 4 17 6 29 8 5 15 15 8 5 14 18 9 5 -3 24 10 0 1 3 5 10 6 2 17 4 8 2 5 6 6 3 3 7 4 6 12 11 4 3 10 72 8 8 9 17 18 6 7 6 4 10 5 69 22 6 4 39 10 5 2 5 9 2 35 30 6 16 11 8 2 31 11 6 13 7 10 29 28 3 4 7 5 5 0 16 0 6 8 5 5 22 13 1 4 7 9 8 15 5 5 7 7 10 12 11 11</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>66 66 63 60 64 69 63 57 58 65 65 51 44 68 65 62 67 63 46 66 61 61 46 60 67 68 64 60 59 73 60 63 65 12 55 62 61 66 66 60 66 67 62 46 63 64 65 63 60 60 66 63 68 58 63 64 64 64 63</t>
-  </si>
-  <si>
-    <t>21 22 23 16 28 20 29 26 93 19 19 18 9 29 17 23 23 0 6 22 31 24 7 18 27 26 28 21 13 17 20 14 44 0 15 23 19 17 17 12 19 26 19 3 23 19 18 19 21 18 26 18 28 16 29 75 19 29 13</t>
-  </si>
-  <si>
-    <t>20 31 19 22 23 22 11 2 23 26 29 21 29 27 15 21 44 26 19 31 28 18 24 18 26 41 21 25 24 20 8 33 3 9 25 30 28 22 32 28 31 33 0 28 23 12 20 14 38 27 39 24 19 20 25 26 30 12</t>
-  </si>
-  <si>
-    <t>44 38 54 38 42 32 54 55 58 65 65 53 60 44 67 53 47 33 33 42 38 57 29 38 44 40 36 55 52 50 54 32 23 39 30 43 41 58 48 51 34 61 45 37 41 25 31 52 58 24 24 44 38 44 51 27 29 44 47 54 49 32 51 46 42 34 19 52 41 50 52 43 54 55 44 64 42 49 49 68 31 54 50 37 52 32 41 50 42 35 31</t>
-  </si>
-  <si>
-    <t>0 0 19 0 3 0 0 0 16 12 0 0 0 0 0 0 0 0 0 24 0 0 0 0 0 0 0 8 3 0 2 0 0 -2 0 0 0 -4 11 1 0 17 9 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 16 0 0 7 0 0 0 0 0 0 0 0 0 0 0 15 0 0 7 0 0 14 6 0 6 0 0 20 0 3 0</t>
-  </si>
-  <si>
-    <t>0 0 0 0 11 8 18 0 0 29 3</t>
+    <t>66 66 63 60 64 69 63 57 58 65 65 51 44 68 65 62 67 63 46 66 61 61 46 60 67 68 64 60 59 73 60 63 65 12 55 62 61 66 66 60 66 67 62 46 63 64 65 63 60 60 66 63 68 58 63 64 64 64 63 32 63 50 64</t>
+  </si>
+  <si>
+    <t>21 22 23 16 28 20 29 26 93 19 19 18 9 29 17 23 23 0 6 22 31 24 7 18 27 26 28 21 13 17 20 14 44 0 15 23 19 17 17 12 19 26 19 3 23 19 18 19 21 18 26 18 28 16 29 75 19 29 13 0 23 14 29</t>
+  </si>
+  <si>
+    <t>20 31 19 22 23 22 11 2 23 26 29 21 29 27 15 21 44 26 19 31 28 18 24 18 26 41 21 25 24 20 8 33 3 9 25 30 28 22 32 28 31 33 0 28 23 12 20 14 38 27 39 24 19 20 25 26 30 12 23 27</t>
+  </si>
+  <si>
+    <t>44 38 54 38 42 32 54 55 58 65 65 53 60 44 67 53 47 33 33 42 38 57 29 38 44 40 36 55 52 50 54 32 23 39 30 43 41 58 48 51 34 61 45 37 41 25 31 52 58 24 24 44 38 44 51 27 29 44 47 54 49 32 51 46 42 34 19 52 41 50 52 43 54 55 44 64 42 49 49 68 31 54 50 37 52 32 41 50 42 35 31 58 43 41 33 32 32</t>
+  </si>
+  <si>
+    <t>0 0 19 0 3 0 0 0 16 12 0 0 0 0 0 0 0 0 0 24 0 0 0 0 0 0 0 8 3 0 2 0 0 -2 0 0 0 -4 11 1 0 17 9 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 16 0 0 7 0 0 0 0 0 0 0 0 0 0 0 15 0 0 7 0 0 14 6 0 6 0 0 20 0 3 0 0 0 8 0 0 5</t>
+  </si>
+  <si>
+    <t>0 0 0 0 11 8 18 0 0 29 3 5 0 0 21 1 48 0 0 0 -8</t>
   </si>
   <si>
     <t>INT</t>
@@ -665,52 +665,52 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>423</v>
+        <v>456</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G2">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H2">
         <v>5</v>
       </c>
       <c r="I2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J2">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>746</v>
+        <v>831</v>
       </c>
       <c r="M2">
-        <v>484</v>
+        <v>543</v>
       </c>
       <c r="N2">
         <v>28</v>
       </c>
       <c r="O2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q2">
-        <v>1226</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -721,28 +721,28 @@
         <v>29</v>
       </c>
       <c r="C3">
-        <v>473</v>
+        <v>499</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F3">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="G3">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="H3">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I3">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="J3">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>439</v>
       </c>
       <c r="N3">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -943,7 +943,7 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="D2">
         <v>29</v>
@@ -952,40 +952,40 @@
         <v>6</v>
       </c>
       <c r="F2">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="G2">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="H2">
         <v>4</v>
       </c>
       <c r="I2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J2">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>643</v>
+        <v>713</v>
       </c>
       <c r="M2">
-        <v>417</v>
+        <v>459</v>
       </c>
       <c r="N2">
         <v>27</v>
       </c>
       <c r="O2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q2">
-        <v>1144</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -993,31 +993,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C3">
-        <v>400</v>
+        <v>422</v>
       </c>
       <c r="D3">
         <v>8</v>
       </c>
       <c r="E3">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F3">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="G3">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="H3">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I3">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="J3">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>358</v>
       </c>
       <c r="N3">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,34 +1215,34 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="G2">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2">
         <v>5</v>
       </c>
-      <c r="I2">
-        <v>4</v>
-      </c>
       <c r="J2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L2">
         <v>43</v>
@@ -1251,10 +1251,10 @@
         <v>37</v>
       </c>
       <c r="N2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1345,16 +1345,16 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1371,7 +1371,7 @@
         <v>14</v>
       </c>
       <c r="E3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>

--- a/Base/Teams/Chiefs/Team Data.xlsx
+++ b/Base/Teams/Chiefs/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>3 3 1 1 18 7 9 9 6 8 8 4 4 3 -1 11 2 27 3 4 3 2 9 0 -2 4 -1 4 14 -1 2 0 17 5 0 14 3 15 10 4 1 -1 4 3 1 21 1 5 2 4 2 3 22 1 3 4 5 1 1 -1 9 4 16 1 7 3 11 2 0 -1 0 12 6 5 3 3 1 2 4 2 2 5 6 5 1 3 13 1 9 4 2 1 5 -1 11 4 1 2 1 18 9 4 2 8 5 6 6 3 3 5 10 8 5 1 4 6 2 -1 2 3 0 1 5 3 -1 9 1 9 4 2 31 0 5 5 5 12 14 5 11 5 3 4 6 8 3 17 0 8 11 5 1 8 4 5 5 7 3 9 0 -3 2 -4 3 0 9 -4 2 13 2 4 11 16 1 2 27 0 1 16 3 1 1 0 0 2 3 1 3 2 4 1 4 -3 4 3 4 3 3 8 1 2 0 11 -2 2 2 0 2 7 4 8 0 3 0 4 5 3 8 6 10 4 3 5 11 3 2 9 2 3 0 -2 14 -4 -5 7 2 3 6 1 0 8 -2 2 3 4 10 10 17 5 0 0 5 4 7 4 4 8 1 1 4 2 5 6 30 20 3 0 16 3 1 6 3 10 6 5 12 4 1 -3 2 6 3 13 32 0 8 5 9 -2 3 -1 9 2 12 4 0 0 0 -3 -8 1 5 1 1 13 -5 3 8 4 11 6 7 1 6 3 16 1 3 4 1 2 1 6 3 2 1 12 4 0 8 24 4 4 1 2 5 5 10 -3 0 3 1 13 9 7 3 6 20 11 4 3 11 2 1 17 4 3 3 2 3 6 3 0 1 0 10 3 2 6 5 2 3 1 4 12 6 4 2 1 2 4 9 13 4 1 0 16 4 1 9 2 2 13 5 -2 50 6 6 2 4 1 -3 3 9 0 5 11 1 2 5 2 -3 13 11 2 5 5 11 6 -1 2 10 7 26 10 3 3 7 1 -2 4 4 1 2 5 3 4 4 3 8 9 7 1 2 5 4 7 0 4 0 9 1 7 -1 1 3 9 4 2 7 6 15 1 3 -5 4 -2 -2 4 12 10 4 11 7 8 7 3 4 7 5 14 10 4 2 3 8 4 2 18 2 12 7 5 7 4 -1 2 2 21 5 4 5 4 5 3 12 2 15 24 17 1 1 2 9 3 10 10 1 8 1 2 4 1 12 9 16 3 3 5 4 4 2 10 5 2 3 15 3 6 4 1 9 5 0 -1 23 9 -1 -2 9 5 9 0 7 2 0 6 3 3 17 3 6 1 6 4 0 5 11 4 3 3 3 10 5 2 -1 1 3 0 5 2 2 11 -1 13 18 6 9 9 6 2 5 2 10 -3 4 2 4 4 9 7 5 9 3 8 12 -1 3 4 6 0 -1 1 8 6 -1 7 7 2 6 0 0 6 4 7 7 7 2 4 10 2 -4 -1 -1 2 3 2 5 0 5 1 3 21 1 3 2 0 6 -1 5 3 2 6 -1 4 4 4 3 6 8 33 11 4 3 4 1 5 1 5 0 2 3 3 7 4 14 3 6 4 10 -2 -7 10 2 3 5 10 4 2 12 4 2 0 5 4 2 4 4 4 4 6 7 -4 1 2 1 2 7 5 7 0 3 1 0 0 1 4 9 6 4 2 10 4 2 -2 2 4 2 5 2 5 11 9 7 0 5 0 -1 3 3 1 2 3 0 1 5 0 1 32 0 3 4 0 1 3 8 12 5 5 2 3 2 7 2 6 3 8 3 10 4 6 7 2 7 4 0 1 0 0 1 5 -2 3 1 2 23 -1 6 2 1 8 10 6 8 1 14 3 17 1 19 8 0 5 8 11 0 11 3 3 3 11 3 0 1 6 10 5 6 5 25 5 3 6 7 4 6 4 4 2 5 6 4 4 4 2 2 -1 23 -2 15 13 12 1 0 -2 -4 5 4 3 6 11 -1</t>
-  </si>
-  <si>
-    <t>6 6 11 7 15 10 13 2 6 5 4 9 9 2 17 11 7 12 14 7 19 15 1 3 13 1 12 5 10 6 7 20 9 14 13 10 11 22 2 54 11 16 8 14 8 4 5 4 11 33 15 11 13 15 2 5 7 29 5 18 -4 20 10 49 9 5 7 24 7 6 9 7 6 18 13 11 2 17 5 8 22 17 11 2 14 21 24 8 5 5 10 6 19 45 6 6 6 1 9 12 26 32 4 13 5 16 37 8 4 23 15 23 6 16 2 42 4 3 -1 15 7 8 5 6 22 11 5 15 4 12 15 16 8 9 6 -3 21 -2 20 2 37 8 11 8 19 14 38 4 5 15 17 7 6 17 7 22 10 11 2 13 9 15 18 30 5 13 2 36 7 4 15 23 -3 18 5 3 -4 14 9 25 14 16 8 6 8 19 26 16 5 41 10 7 0 14 10 3 8 6 32 23 7 5 8 14 1 10 9 10 28 14 29 -5 3 44 4 10 26 28 8 13 2 3 8 10 14 6 8 4 3 17 21 11 8 3 19 11 6 3 9 8 11 12 13 3 5 15 6 19 9 10 9 16 15 3 22 34 23 6 3 1 75 19 3 14 7 44 20 12 14 2 9 5 13 9 2 8 29 37 7 7 8 9 14 8 2 2 4 6 20 8 11 3 15 3 2 8 19 14 18 20 1 19 6 4 10 -5 15 28 5 20 12 15 30 14 5 20 8 5 17 9 9 1 16 17 7 37 21 9 13 16 9 5 15 6 26 44 28 26 5 32 13 5 11 9 8 4 -5 11 6 5 14 10 23 23 19 1 2 13 4 20 9 5 16 9 9 8 16 7 7 10 15 6 10 31 5 4 13 9 9 5 11 2 9 4 11 12 13 26 0 4 31 2 9 17 5 19 16 9 25 12 21 9 -2 37 3 7 2 3 11 8 8 18 12 3 -2 6 9 12 10 8 10 12 31 8 3 7 26 -1 9 42 9 11 20 8 14 8 15 -5 9 7 3 13 22 16 14 8 5 23 24 4 5 1 9 1 11 11 16 11 8 3 3 5 15 9 11 33 17 16 5 6 8 9 7 0 71 1 12 12 5 3 6 14 13 4 12 11 -1 5 8 0 5 21 13 17 33 12 9 4 23 8 18 16 1 4 17 9 11 24 9 8 -6 4 11 6 22 19 -2 9 28 6 7 12 6 11 8 3 14 75 8 4 14 6 7 19 10 33 17 11 14 10 4 14 20 14 5 11 40 5 46 3 8 3 23 13 7 7 15 5 6 6 8 17 -1 5 15 28 7 6 11 12 8 10 2 6 23 18 10 5 5 7 11 8 11 9 36 1 9 2 19 32 4 6 4 9 2 15 7 6 3 14 7 10 5 12 11 44 12 6 15 11 9 7 8 5 8 10 6 26 8 12 8 11 5 4 3 11 8 17 6 8 5 5 4 1 8 6 4 4 11 6 20 9 19 27 49 3 5 7 27 19 17 14 9 10 5 13 9 5 12 13 2 9 0 3 11 5 21 19 6 12 6 24 7 8 6 6 5 10 9 23 8 11 24 12 14 6 4 9 10 4 2 10 3 9 12 7 0 15 5 6 6 7 11 9 17 9 3 11 12 9 18 8 4 9 10 10 15 14 24 2 2 7 10 4 2 1 7 2 7 12 2 25 6 14 10 13 22 9 13 6 7 5 11 22 19 8 8 7 13 12 -1 16 27 3 1 0 9 7 11 7 13 17 2 10 16 32 3 7 3 38 8 30 22 1 10 8 12 0 8 37 13 23 7 11 8 24 14 22 10 12 6 6 4 8 8 8 9 9 12 13 9 29 14 -7 12 6 14 14 38 8 4 6 44 23 10 19 19 28 7 9 3 1 7 38 15 5 -3 2 8 16 1 12 14 5 9 20 11 12 -1 17 4 3 6 5 23 10 40 5 3 9 0 6 69 1 5 10 20 7 10 27 14 34 10 11 11 9 13 -1 5 18 18 5 7 3 14 8 50 3 8 9 4 6 9 16 22 8 6 1 29 7 17 24 3 3 53 7 3 2 4 27 7 8 5 11 6 5 6 4 8 1 4 3 21 11 4 9 4 3 3 11 11 10 11 2 11 17 10 7 14 5 10 4 1 19 4 44 8 12 -4 20 5 5 4 15 20 2 14 15 5 4 31 0 3 12 15 27 48 29 8 23 4 1 31 6 15 3 41 2 2</t>
-  </si>
-  <si>
-    <t>5 7 9 2 19 4 6 1 4 7 2 2 2 1 5 6 17 2 4 13 1 9 9 6 4 3 5 3 0 1 3 3 5 3 13 5 3 1 7 9 5 8 7 2 3 3 5 9 1 8 7 4 2 0 7 3 3 -1 1 11 1 -1 2 5 3 30 5 6 11 3 6 4 18 4 8 11 1 4 5 24 3 2 8 5 2 2 3 4 10 18 -1 2 1 2 3 6 2 5 6 -1 8 4 4 7 0 9 41 4 2 5 3 5 1 10 7 3 6 1 2 7 2 2 43 1 3 4 4 2 0 4 2 2 0 7 7 2 4 7 2 5 1 9 10 3 9 4 2 3 5 4 1 13 3 -3 3 6 -1 7 -6 2 0 6 3 -1 6 3 2 14 2 6 20 9 4 19 6 1 1 6 5 10 8 -1 10 6 4 2 4 11 0 3 2 3 3 3 6 7 6 4 0 3 9 3 5 2 2 3 1 6 4 2 5 0 5 6 0 8 5 2 6 5 4 7 5 3 6 13 4 6 0 10 3 -1 1 2 -4 4 4 1 6 1 1 4 13 2 2 2 5 6 5 3 0 2 5 2 2 11 1 0 4 2 5 12 4 0 -3 5 4 1 2 11 3 1 34 1 6 0 3 1 0 2 8 0 4 8 8 4 3 65 1 6 3 3 13 2 0 3 5 2 7 1 3 -1 4 5 1 8 6 1 1 7 7 1 -2 6 2 2 2 2 2 3 5 2 3 7 2 9 3 5 2 1 9 5 5 4 2 3 7 2 1 11 2 3 6 2 4 5 2 1 8 14 4 3 4 -7 5 0 6 3 4 6 6 3 3 2 2 4 3 2 6 5 2 1 3 1 9 2 5 2 0 1 11 0 8 5 3 1 9 3 3 34 1 6 2 -2 5 5 5 6 0 6 4 -3 23 18 2 9 3 7 6 1 10 4 4 3 0 -1 1 3 7 17 2 15 3 7 10 4 4 5 1 18 8 11 3 13 -3 3 6 6 11 7 8 4 1 1 0 3 4 27 6 3 2 0 4 7 8 4 4 8 1 1 5 2 6 7 -1 6 4 2 4 17 8 18 5 15 6 17 4 2 6 7 6 2 2 -2 5 2 6 5 12 31 9 7 1 9 9 8 0 0 21 3 4 5 20 14 -4 3 4 -2 20 6 2 8 5 9 2 1 11 5 9 -1 3 1 1 2 1 4 -1 9 1 2 3 3 5 -2 -1 5 9 1 -1 11 6 9 6 0 8 1 2 5 11 12 5 12 6 3 3 -4 7 2 2 7 4 2 13 10 0 8 22 2 11 9 9 8 2 -1 3 5 -1 0 0 3 1 4 12 4 6 6 0 8 3 4 8 1 3 5 3 3 2 2 15 1 7 8 6 4 4 11 2 5 3 9 2 3 4 0 8 5 0 3 4 -1 2 4 0 11 1 -1 2 2 4 6 2 1 2 8 5 4 -4 9 3 2 -4 5 2 0 2 -3 11 2 2 6 2 14 5 4 0 3 5 4 10 2 2 4 9 15 2 3 -1 7 7 -2 8 5 3 1 5 5 0 7 8 2 2 4 9 6 4 9 3 5 3 3 1 -1 12 2 -1 9 2 1 3 8 -1 2 5 31 3 1 5 1 5 2 8 3 5 4 4 4 9 -1 1 14 2 9 6 7 2 14 3 0 1 11 3 5 5 -1 5 4 8 9 7 2 6 2 16 1 -3 5 1 4 3 4 1 5 3 4 15 3 15 4 3 6 2 4 1 2 7 0 9 4 6 8 4 3 1 8 2 4 8 22 1 1 3 0 2 2 3 2 6 15 2 2 -2 0 2 1 21 5 5 8 6 6 6 12 4 6 3 6 6 5 8 4 2 11 17 2 13 3 6 6 3 1 4 3 3 1 3 4 5 4 1 0 0 0 6 2 6 1 9 6 1 5 29 6 5 3 0 3 23 -1 4 3 -3 47 7 0 5 15 8 -4 4 1 2 -2 2 5 2 4 3 4 4 8 0 -2 2 4 7 2 13 4</t>
-  </si>
-  <si>
-    <t>12 5 6 11 9 19 7 15 20 8 7 20 10 12 19 31 17 8 6 35 16 14 10 12 5 22 6 14 11 14 8 32 17 14 25 22 7 5 19 1 6 7 0 0 7 4 6 13 7 7 8 5 19 6 6 4 7 6 13 11 0 8 8 9 15 -4 5 8 19 0 25 4 12 30 9 46 12 5 59 23 5 72 3 8 10 1 4 2 4 23 7 2 4 11 6 4 2 15 13 4 7 5 14 22 8 3 27 5 2 10 7 19 5 17 13 21 12 13 4 6 6 13 11 24 5 11 9 8 4 15 5 -2 1 27 13 5 15 8 1 5 -6 10 6 8 3 7 4 1 12 7 0 5 11 7 14 9 3 11 12 -6 8 8 3 28 24 3 11 2 9 22 11 5 3 9 6 23 0 26 29 16 7 11 17 18 14 11 11 4 1 18 16 7 9 3 21 3 20 5 7 1 12 6 6 2 6 8 48 -4 44 9 14 9 8 7 5 7 8 6 10 11 7 37 7 5 8 11 0 10 5 5 8 21 11 10 8 5 16 14 18 7 7 10 14 2 12 16 9 10 10 -1 11 11 13 5 23 10 29 2 6 9 9 18 4 22 5 51 21 8 25 24 9 14 8 12 5 12 17 26 -1 3 15 7 7 5 8 54 5 7 0 15 17 6 9 6 2 3 7 7 17 11 8 22 9 4 20 11 32 6 6 12 17 5 8 48 27 18 27 11 -3 3 7 -8 26 26 23 25 18 0 4 2 6 17 4 3 4 5 2 17 6 7 3 2 6 14 12 20 7 2 6 17 23 6 8 6 10 6 13 9 11 7 15 6 6 34 1 5 16 15 5 8 3 31 -3 9 4 17 8 5 15 1 3 12 25 15 6 8 14 16 8 44 17 3 9 10 9 43 11 9 30 4 10 3 4 19 11 17 -4 7 20 8 9 7 11 4 4 12 8 27 20 42 19 9 10 6 0 4 3 8 8 11 19 4 20 8 6 16 5 12 7 21 11 5 0 20 43 15 6 16 4 13 22 21 12 10 6 3 5 15 3 7 14 18 6 37 12 1 21 8 7 6 4 14 14 9 18 19 17 9 9 15 23 8 24 35 61 15 53 41 1 -2 11 5 16 16 8 9 13 6 3 7 12 2 7 3 5 6 6 6 4 16 39 10 14 4 -4 -4 9 12 4 -2 7 10 18 3 5 3 24 8 13 22 10 2 20 6 12 9 11 6 5 8 24 5 50 19 3 11 1 12 41 2 5 4 22 4 6 11 6 5 7 16 4 3 3 10 15 5 6 21 35 0 11 -1 14 16 3 8 2 15 5 6 5 1 4 3 27 3 6 7 5 22 37 24 40 11 5 5 7 9 6 12 3 15 -2 8 -3 11 11 2 2 8 11 3 1 5 4 5 16 4 0 6 12 18 14 -2 3 19 5 19 7 11 16 36 10 10 6 3 2 34 5 9 5 8 11 9 13 19 12 6 19 10 7 7 8 9 16 14 2 7 19 7 2 5 7 13 10 6 4 6 4 19 19 6 4 9 4 12 12 13 15 4 2 27 7 5 4 17 6 29 8 5 15 15 8 5 14 18 9 5 -3 24 10 0 1 3 5 10 6 2 17 4 8 2 5 6 6 3 3 7 4 6 12 11 4 3 10 72 8 8 9 17 18 6 7 6 4 10 5 69 22 6 4 39 10 5 2 5 9 2 35 30 6 16 11 8 2 31 11 6 13 7 10 29 28 3 4 7 5 5 0 16 0 6 8 5 5 22 13 1 4 7 9 8 15 5 5 7 7 10 12 11 11</t>
+    <t>3 3 1 1 18 7 9 9 6 8 8 4 4 3 -1 11 2 27 3 4 3 2 9 0 -2 4 -1 4 14 -1 2 0 17 5 0 14 3 15 10 4 1 -1 4 3 1 21 1 5 2 4 2 3 22 1 3 4 5 1 1 -1 9 4 16 1 7 3 11 2 0 -1 0 12 6 5 3 3 1 2 4 2 2 5 6 5 1 3 13 1 9 4 2 1 5 -1 11 4 1 2 1 18 9 4 2 8 5 6 6 3 3 5 10 8 5 1 4 6 2 -1 2 3 0 1 5 3 -1 9 1 9 4 2 31 0 5 5 5 12 14 5 11 5 3 4 6 8 3 17 0 8 11 5 1 8 4 5 5 7 3 9 0 -3 2 -4 3 0 9 -4 2 13 2 4 11 16 1 2 27 0 1 16 3 1 1 0 0 2 3 1 3 2 4 1 4 -3 4 3 4 3 3 8 1 2 0 11 -2 2 2 0 2 7 4 8 0 3 0 4 5 3 8 6 10 4 3 5 11 3 2 9 2 3 0 -2 14 -4 -5 7 2 3 6 1 0 8 -2 2 3 4 10 10 17 5 0 0 5 4 7 4 4 8 1 1 4 2 5 6 30 20 3 0 16 3 1 6 3 10 6 5 12 4 1 -3 2 6 3 13 32 0 8 5 9 -2 3 -1 9 2 12 4 0 0 0 -3 -8 1 5 1 1 13 -5 3 8 4 11 6 7 1 6 3 16 1 3 4 1 2 1 6 3 2 1 12 4 0 8 24 4 4 1 2 5 5 10 -3 0 3 1 13 9 7 3 6 20 11 4 3 11 2 1 17 4 3 3 2 3 6 3 0 1 0 10 3 2 6 5 2 3 1 4 12 6 4 2 1 2 4 9 13 4 1 0 16 4 1 9 2 2 13 5 -2 50 6 6 2 4 1 -3 3 9 0 5 11 1 2 5 2 -3 13 11 2 5 5 11 6 -1 2 10 7 26 10 3 3 7 1 -2 4 4 1 2 5 3 4 4 3 8 9 7 1 2 5 4 7 0 4 0 9 1 7 -1 1 3 9 4 2 7 6 15 1 3 -5 4 -2 -2 4 12 10 4 11 7 8 7 3 4 7 5 14 10 4 2 3 8 4 2 18 2 12 7 5 7 4 -1 2 2 21 5 4 5 4 5 3 12 2 15 24 17 1 1 2 9 3 10 10 1 8 1 2 4 1 12 9 16 3 3 5 4 4 2 10 5 2 3 15 3 6 4 1 9 5 0 -1 23 9 -1 -2 9 5 9 0 7 2 0 6 3 3 17 3 6 1 6 4 0 5 11 4 3 3 3 10 5 2 -1 1 3 0 5 2 2 11 -1 13 18 6 9 9 6 2 5 2 10 -3 4 2 4 4 9 7 5 9 3 8 12 -1 3 4 6 0 -1 1 8 6 -1 7 7 2 6 0 0 6 4 7 7 7 2 4 10 2 -4 -1 -1 2 3 2 5 0 5 1 3 21 1 3 2 0 6 -1 5 3 2 6 -1 4 4 4 3 6 8 33 11 4 3 4 1 5 1 5 0 2 3 3 7 4 14 3 6 4 10 -2 -7 10 2 3 5 10 4 2 12 4 2 0 5 4 2 4 4 4 4 6 7 -4 1 2 1 2 7 5 7 0 3 1 0 0 1 4 9 6 4 2 10 4 2 -2 2 4 2 5 2 5 11 9 7 0 5 0 -1 3 3 1 2 3 0 1 5 0 1 32 0 3 4 0 1 3 8 12 5 5 2 3 2 7 2 6 3 8 3 10 4 6 7 2 7 4 0 1 0 0 1 5 -2 3 1 2 23 -1 6 2 1 8 10 6 8 1 14 3 17 1 19 8 0 5 8 11 0 11 3 3 3 11 3 0 1 6 10 5 6 5 25 5 3 6 7 4 6 4 4 2 5 6 4 4 4 2 2 -1 23 -2 15 13 12 1 0 -2 -4 5 4 3 6 11 -1 4 4 34 6 7 8 1 22 -2 4 4 5 4 3 -2 3 7 3 20 25 6 5 3 5 -3 4 2</t>
+  </si>
+  <si>
+    <t>6 6 11 7 15 10 13 2 6 5 4 9 9 2 17 11 7 12 14 7 19 15 1 3 13 1 12 5 10 6 7 20 9 14 13 10 11 22 2 54 11 16 8 14 8 4 5 4 11 33 15 11 13 15 2 5 7 29 5 18 -4 20 10 49 9 5 7 24 7 6 9 7 6 18 13 11 2 17 5 8 22 17 11 2 14 21 24 8 5 5 10 6 19 45 6 6 6 1 9 12 26 32 4 13 5 16 37 8 4 23 15 23 6 16 2 42 4 3 -1 15 7 8 5 6 22 11 5 15 4 12 15 16 8 9 6 -3 21 -2 20 2 37 8 11 8 19 14 38 4 5 15 17 7 6 17 7 22 10 11 2 13 9 15 18 30 5 13 2 36 7 4 15 23 -3 18 5 3 -4 14 9 25 14 16 8 6 8 19 26 16 5 41 10 7 0 14 10 3 8 6 32 23 7 5 8 14 1 10 9 10 28 14 29 -5 3 44 4 10 26 28 8 13 2 3 8 10 14 6 8 4 3 17 21 11 8 3 19 11 6 3 9 8 11 12 13 3 5 15 6 19 9 10 9 16 15 3 22 34 23 6 3 1 75 19 3 14 7 44 20 12 14 2 9 5 13 9 2 8 29 37 7 7 8 9 14 8 2 2 4 6 20 8 11 3 15 3 2 8 19 14 18 20 1 19 6 4 10 -5 15 28 5 20 12 15 30 14 5 20 8 5 17 9 9 1 16 17 7 37 21 9 13 16 9 5 15 6 26 44 28 26 5 32 13 5 11 9 8 4 -5 11 6 5 14 10 23 23 19 1 2 13 4 20 9 5 16 9 9 8 16 7 7 10 15 6 10 31 5 4 13 9 9 5 11 2 9 4 11 12 13 26 0 4 31 2 9 17 5 19 16 9 25 12 21 9 -2 37 3 7 2 3 11 8 8 18 12 3 -2 6 9 12 10 8 10 12 31 8 3 7 26 -1 9 42 9 11 20 8 14 8 15 -5 9 7 3 13 22 16 14 8 5 23 24 4 5 1 9 1 11 11 16 11 8 3 3 5 15 9 11 33 17 16 5 6 8 9 7 0 71 1 12 12 5 3 6 14 13 4 12 11 -1 5 8 0 5 21 13 17 33 12 9 4 23 8 18 16 1 4 17 9 11 24 9 8 -6 4 11 6 22 19 -2 9 28 6 7 12 6 11 8 3 14 75 8 4 14 6 7 19 10 33 17 11 14 10 4 14 20 14 5 11 40 5 46 3 8 3 23 13 7 7 15 5 6 6 8 17 -1 5 15 28 7 6 11 12 8 10 2 6 23 18 10 5 5 7 11 8 11 9 36 1 9 2 19 32 4 6 4 9 2 15 7 6 3 14 7 10 5 12 11 44 12 6 15 11 9 7 8 5 8 10 6 26 8 12 8 11 5 4 3 11 8 17 6 8 5 5 4 1 8 6 4 4 11 6 20 9 19 27 49 3 5 7 27 19 17 14 9 10 5 13 9 5 12 13 2 9 0 3 11 5 21 19 6 12 6 24 7 8 6 6 5 10 9 23 8 11 24 12 14 6 4 9 10 4 2 10 3 9 12 7 0 15 5 6 6 7 11 9 17 9 3 11 12 9 18 8 4 9 10 10 15 14 24 2 2 7 10 4 2 1 7 2 7 12 2 25 6 14 10 13 22 9 13 6 7 5 11 22 19 8 8 7 13 12 -1 16 27 3 1 0 9 7 11 7 13 17 2 10 16 32 3 7 3 38 8 30 22 1 10 8 12 0 8 37 13 23 7 11 8 24 14 22 10 12 6 6 4 8 8 8 9 9 12 13 9 29 14 -7 12 6 14 14 38 8 4 6 44 23 10 19 19 28 7 9 3 1 7 38 15 5 -3 2 8 16 1 12 14 5 9 20 11 12 -1 17 4 3 6 5 23 10 40 5 3 9 0 6 69 1 5 10 20 7 10 27 14 34 10 11 11 9 13 -1 5 18 18 5 7 3 14 8 50 3 8 9 4 6 9 16 22 8 6 1 29 7 17 24 3 3 53 7 3 2 4 27 7 8 5 11 6 5 6 4 8 1 4 3 21 11 4 9 4 3 3 11 11 10 11 2 11 17 10 7 14 5 10 4 1 19 4 44 8 12 -4 20 5 5 4 15 20 2 14 15 5 4 31 0 3 12 15 27 48 29 8 23 4 1 31 6 15 3 41 2 2 1 5 5 5 21 12 10 9 6 2 26 4 8 7 7 8 3 8 5 6 5 7 11 64 19 25 5 10 16 4 26 8</t>
+  </si>
+  <si>
+    <t>5 7 9 2 19 4 6 1 4 7 2 2 2 1 5 6 17 2 4 13 1 9 9 6 4 3 5 3 0 1 3 3 5 3 13 5 3 1 7 9 5 8 7 2 3 3 5 9 1 8 7 4 2 0 7 3 3 -1 1 11 1 -1 2 5 3 30 5 6 11 3 6 4 18 4 8 11 1 4 5 24 3 2 8 5 2 2 3 4 10 18 -1 2 1 2 3 6 2 5 6 -1 8 4 4 7 0 9 41 4 2 5 3 5 1 10 7 3 6 1 2 7 2 2 43 1 3 4 4 2 0 4 2 2 0 7 7 2 4 7 2 5 1 9 10 3 9 4 2 3 5 4 1 13 3 -3 3 6 -1 7 -6 2 0 6 3 -1 6 3 2 14 2 6 20 9 4 19 6 1 1 6 5 10 8 -1 10 6 4 2 4 11 0 3 2 3 3 3 6 7 6 4 0 3 9 3 5 2 2 3 1 6 4 2 5 0 5 6 0 8 5 2 6 5 4 7 5 3 6 13 4 6 0 10 3 -1 1 2 -4 4 4 1 6 1 1 4 13 2 2 2 5 6 5 3 0 2 5 2 2 11 1 0 4 2 5 12 4 0 -3 5 4 1 2 11 3 1 34 1 6 0 3 1 0 2 8 0 4 8 8 4 3 65 1 6 3 3 13 2 0 3 5 2 7 1 3 -1 4 5 1 8 6 1 1 7 7 1 -2 6 2 2 2 2 2 3 5 2 3 7 2 9 3 5 2 1 9 5 5 4 2 3 7 2 1 11 2 3 6 2 4 5 2 1 8 14 4 3 4 -7 5 0 6 3 4 6 6 3 3 2 2 4 3 2 6 5 2 1 3 1 9 2 5 2 0 1 11 0 8 5 3 1 9 3 3 34 1 6 2 -2 5 5 5 6 0 6 4 -3 23 18 2 9 3 7 6 1 10 4 4 3 0 -1 1 3 7 17 2 15 3 7 10 4 4 5 1 18 8 11 3 13 -3 3 6 6 11 7 8 4 1 1 0 3 4 27 6 3 2 0 4 7 8 4 4 8 1 1 5 2 6 7 -1 6 4 2 4 17 8 18 5 15 6 17 4 2 6 7 6 2 2 -2 5 2 6 5 12 31 9 7 1 9 9 8 0 0 21 3 4 5 20 14 -4 3 4 -2 20 6 2 8 5 9 2 1 11 5 9 -1 3 1 1 2 1 4 -1 9 1 2 3 3 5 -2 -1 5 9 1 -1 11 6 9 6 0 8 1 2 5 11 12 5 12 6 3 3 -4 7 2 2 7 4 2 13 10 0 8 22 2 11 9 9 8 2 -1 3 5 -1 0 0 3 1 4 12 4 6 6 0 8 3 4 8 1 3 5 3 3 2 2 15 1 7 8 6 4 4 11 2 5 3 9 2 3 4 0 8 5 0 3 4 -1 2 4 0 11 1 -1 2 2 4 6 2 1 2 8 5 4 -4 9 3 2 -4 5 2 0 2 -3 11 2 2 6 2 14 5 4 0 3 5 4 10 2 2 4 9 15 2 3 -1 7 7 -2 8 5 3 1 5 5 0 7 8 2 2 4 9 6 4 9 3 5 3 3 1 -1 12 2 -1 9 2 1 3 8 -1 2 5 31 3 1 5 1 5 2 8 3 5 4 4 4 9 -1 1 14 2 9 6 7 2 14 3 0 1 11 3 5 5 -1 5 4 8 9 7 2 6 2 16 1 -3 5 1 4 3 4 1 5 3 4 15 3 15 4 3 6 2 4 1 2 7 0 9 4 6 8 4 3 1 8 2 4 8 22 1 1 3 0 2 2 3 2 6 15 2 2 -2 0 2 1 21 5 5 8 6 6 6 12 4 6 3 6 6 5 8 4 2 11 17 2 13 3 6 6 3 1 4 3 3 1 3 4 5 4 1 0 0 0 6 2 6 1 9 6 1 5 29 6 5 3 0 3 23 -1 4 3 -3 47 7 0 5 15 8 -4 4 1 2 -2 2 5 2 4 3 4 4 8 0 -2 2 4 7 2 13 4 7 11 1 1 3 14 7 1 -2 9 11 1 1 -1 5 1 9 3 4 2 4</t>
+  </si>
+  <si>
+    <t>12 5 6 11 9 19 7 15 20 8 7 20 10 12 19 31 17 8 6 35 16 14 10 12 5 22 6 14 11 14 8 32 17 14 25 22 7 5 19 1 6 7 0 0 7 4 6 13 7 7 8 5 19 6 6 4 7 6 13 11 0 8 8 9 15 -4 5 8 19 0 25 4 12 30 9 46 12 5 59 23 5 72 3 8 10 1 4 2 4 23 7 2 4 11 6 4 2 15 13 4 7 5 14 22 8 3 27 5 2 10 7 19 5 17 13 21 12 13 4 6 6 13 11 24 5 11 9 8 4 15 5 -2 1 27 13 5 15 8 1 5 -6 10 6 8 3 7 4 1 12 7 0 5 11 7 14 9 3 11 12 -6 8 8 3 28 24 3 11 2 9 22 11 5 3 9 6 23 0 26 29 16 7 11 17 18 14 11 11 4 1 18 16 7 9 3 21 3 20 5 7 1 12 6 6 2 6 8 48 -4 44 9 14 9 8 7 5 7 8 6 10 11 7 37 7 5 8 11 0 10 5 5 8 21 11 10 8 5 16 14 18 7 7 10 14 2 12 16 9 10 10 -1 11 11 13 5 23 10 29 2 6 9 9 18 4 22 5 51 21 8 25 24 9 14 8 12 5 12 17 26 -1 3 15 7 7 5 8 54 5 7 0 15 17 6 9 6 2 3 7 7 17 11 8 22 9 4 20 11 32 6 6 12 17 5 8 48 27 18 27 11 -3 3 7 -8 26 26 23 25 18 0 4 2 6 17 4 3 4 5 2 17 6 7 3 2 6 14 12 20 7 2 6 17 23 6 8 6 10 6 13 9 11 7 15 6 6 34 1 5 16 15 5 8 3 31 -3 9 4 17 8 5 15 1 3 12 25 15 6 8 14 16 8 44 17 3 9 10 9 43 11 9 30 4 10 3 4 19 11 17 -4 7 20 8 9 7 11 4 4 12 8 27 20 42 19 9 10 6 0 4 3 8 8 11 19 4 20 8 6 16 5 12 7 21 11 5 0 20 43 15 6 16 4 13 22 21 12 10 6 3 5 15 3 7 14 18 6 37 12 1 21 8 7 6 4 14 14 9 18 19 17 9 9 15 23 8 24 35 61 15 53 41 1 -2 11 5 16 16 8 9 13 6 3 7 12 2 7 3 5 6 6 6 4 16 39 10 14 4 -4 -4 9 12 4 -2 7 10 18 3 5 3 24 8 13 22 10 2 20 6 12 9 11 6 5 8 24 5 50 19 3 11 1 12 41 2 5 4 22 4 6 11 6 5 7 16 4 3 3 10 15 5 6 21 35 0 11 -1 14 16 3 8 2 15 5 6 5 1 4 3 27 3 6 7 5 22 37 24 40 11 5 5 7 9 6 12 3 15 -2 8 -3 11 11 2 2 8 11 3 1 5 4 5 16 4 0 6 12 18 14 -2 3 19 5 19 7 11 16 36 10 10 6 3 2 34 5 9 5 8 11 9 13 19 12 6 19 10 7 7 8 9 16 14 2 7 19 7 2 5 7 13 10 6 4 6 4 19 19 6 4 9 4 12 12 13 15 4 2 27 7 5 4 17 6 29 8 5 15 15 8 5 14 18 9 5 -3 24 10 0 1 3 5 10 6 2 17 4 8 2 5 6 6 3 3 7 4 6 12 11 4 3 10 72 8 8 9 17 18 6 7 6 4 10 5 69 22 6 4 39 10 5 2 5 9 2 35 30 6 16 11 8 2 31 11 6 13 7 10 29 28 3 4 7 5 5 0 16 0 6 8 5 5 22 13 1 4 7 9 8 15 5 5 7 7 10 12 11 11 13 1 7 4 15 3 5 1 8 1 24 1 7 5 18 7 75 17 8 5 9 -7 28 12 16 19</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>66 66 63 60 64 69 63 57 58 65 65 51 44 68 65 62 67 63 46 66 61 61 46 60 67 68 64 60 59 73 60 63 65 12 55 62 61 66 66 60 66 67 62 46 63 64 65 63 60 60 66 63 68 58 63 64 64 64 63 32 63 50 64</t>
-  </si>
-  <si>
-    <t>21 22 23 16 28 20 29 26 93 19 19 18 9 29 17 23 23 0 6 22 31 24 7 18 27 26 28 21 13 17 20 14 44 0 15 23 19 17 17 12 19 26 19 3 23 19 18 19 21 18 26 18 28 16 29 75 19 29 13 0 23 14 29</t>
-  </si>
-  <si>
-    <t>20 31 19 22 23 22 11 2 23 26 29 21 29 27 15 21 44 26 19 31 28 18 24 18 26 41 21 25 24 20 8 33 3 9 25 30 28 22 32 28 31 33 0 28 23 12 20 14 38 27 39 24 19 20 25 26 30 12 23 27</t>
-  </si>
-  <si>
-    <t>44 38 54 38 42 32 54 55 58 65 65 53 60 44 67 53 47 33 33 42 38 57 29 38 44 40 36 55 52 50 54 32 23 39 30 43 41 58 48 51 34 61 45 37 41 25 31 52 58 24 24 44 38 44 51 27 29 44 47 54 49 32 51 46 42 34 19 52 41 50 52 43 54 55 44 64 42 49 49 68 31 54 50 37 52 32 41 50 42 35 31 58 43 41 33 32 32</t>
-  </si>
-  <si>
-    <t>0 0 19 0 3 0 0 0 16 12 0 0 0 0 0 0 0 0 0 24 0 0 0 0 0 0 0 8 3 0 2 0 0 -2 0 0 0 -4 11 1 0 17 9 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 16 0 0 7 0 0 0 0 0 0 0 0 0 0 0 15 0 0 7 0 0 14 6 0 6 0 0 20 0 3 0 0 0 8 0 0 5</t>
-  </si>
-  <si>
-    <t>0 0 0 0 11 8 18 0 0 29 3 5 0 0 21 1 48 0 0 0 -8</t>
+    <t>66 66 63 60 64 69 63 57 58 65 65 51 44 68 65 62 67 63 46 66 61 61 46 60 67 68 64 60 59 73 60 63 65 12 55 62 61 66 66 60 66 67 62 46 63 64 65 63 60 60 66 63 68 58 63 64 64 64 63 32 63 50 64 58</t>
+  </si>
+  <si>
+    <t>21 22 23 16 28 20 29 26 93 19 19 18 9 29 17 23 23 0 6 22 31 24 7 18 27 26 28 21 13 17 20 14 44 0 15 23 19 17 17 12 19 26 19 3 23 19 18 19 21 18 26 18 28 16 29 75 19 29 13 0 23 14 29 22</t>
+  </si>
+  <si>
+    <t>20 31 19 22 23 22 11 2 23 26 29 21 29 27 15 21 44 26 19 31 28 18 24 18 26 41 21 25 24 20 8 33 3 9 25 30 28 22 32 28 31 33 0 28 23 12 20 14 38 27 39 24 19 20 25 26 30 12 23 27 26</t>
+  </si>
+  <si>
+    <t>44 38 54 38 42 32 54 55 58 65 65 53 60 44 67 53 47 33 33 42 38 57 29 38 44 40 36 55 52 50 54 32 23 39 30 43 41 58 48 51 34 61 45 37 41 25 31 52 58 24 24 44 38 44 51 27 29 44 47 54 49 32 51 46 42 34 19 52 41 50 52 43 54 55 44 64 42 49 49 68 31 54 50 37 52 32 41 50 42 35 31 58 43 41 33 32 32 50 38</t>
+  </si>
+  <si>
+    <t>0 0 19 0 3 0 0 0 16 12 0 0 0 0 0 0 0 0 0 24 0 0 0 0 0 0 0 8 3 0 2 0 0 -2 0 0 0 -4 11 1 0 17 9 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 16 0 0 7 0 0 0 0 0 0 0 0 0 0 0 15 0 0 7 0 0 14 6 0 6 0 0 20 0 3 0 0 0 8 0 0 5 0 0</t>
+  </si>
+  <si>
+    <t>0 0 0 0 11 8 18 0 0 29 3 5 0 0 21 1 48 0 0 0 -8 0 0 15 13 45</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,49 +668,49 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="D2">
         <v>26</v>
       </c>
       <c r="E2">
+        <v>18</v>
+      </c>
+      <c r="F2">
+        <v>104</v>
+      </c>
+      <c r="G2">
+        <v>132</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2">
         <v>16</v>
       </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="G2">
-        <v>128</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-      <c r="I2">
-        <v>15</v>
-      </c>
       <c r="J2">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>831</v>
+        <v>877</v>
       </c>
       <c r="M2">
-        <v>543</v>
+        <v>576</v>
       </c>
       <c r="N2">
         <v>28</v>
       </c>
       <c r="O2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q2">
-        <v>1369</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -721,28 +721,28 @@
         <v>29</v>
       </c>
       <c r="C3">
-        <v>499</v>
+        <v>523</v>
       </c>
       <c r="D3">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F3">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G3">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H3">
         <v>59</v>
       </c>
       <c r="I3">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J3">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>439</v>
       </c>
       <c r="N3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -943,7 +943,7 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="D2">
         <v>29</v>
@@ -952,40 +952,40 @@
         <v>6</v>
       </c>
       <c r="F2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G2">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="H2">
         <v>4</v>
       </c>
       <c r="I2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>713</v>
+        <v>750</v>
       </c>
       <c r="M2">
-        <v>459</v>
+        <v>486</v>
       </c>
       <c r="N2">
         <v>27</v>
       </c>
       <c r="O2">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="P2">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="Q2">
-        <v>1268</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -996,28 +996,28 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>422</v>
+        <v>443</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F3">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="G3">
         <v>114</v>
       </c>
       <c r="H3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I3">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J3">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>358</v>
       </c>
       <c r="N3">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="G2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -1239,19 +1239,19 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O2">
         <v>20</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1351,10 +1351,10 @@
         <v>19</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1368,10 +1368,10 @@
         <v>16</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>

--- a/Base/Teams/Chiefs/Team Data.xlsx
+++ b/Base/Teams/Chiefs/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>3 3 1 1 18 7 9 9 6 8 8 4 4 3 -1 11 2 27 3 4 3 2 9 0 -2 4 -1 4 14 -1 2 0 17 5 0 14 3 15 10 4 1 -1 4 3 1 21 1 5 2 4 2 3 22 1 3 4 5 1 1 -1 9 4 16 1 7 3 11 2 0 -1 0 12 6 5 3 3 1 2 4 2 2 5 6 5 1 3 13 1 9 4 2 1 5 -1 11 4 1 2 1 18 9 4 2 8 5 6 6 3 3 5 10 8 5 1 4 6 2 -1 2 3 0 1 5 3 -1 9 1 9 4 2 31 0 5 5 5 12 14 5 11 5 3 4 6 8 3 17 0 8 11 5 1 8 4 5 5 7 3 9 0 -3 2 -4 3 0 9 -4 2 13 2 4 11 16 1 2 27 0 1 16 3 1 1 0 0 2 3 1 3 2 4 1 4 -3 4 3 4 3 3 8 1 2 0 11 -2 2 2 0 2 7 4 8 0 3 0 4 5 3 8 6 10 4 3 5 11 3 2 9 2 3 0 -2 14 -4 -5 7 2 3 6 1 0 8 -2 2 3 4 10 10 17 5 0 0 5 4 7 4 4 8 1 1 4 2 5 6 30 20 3 0 16 3 1 6 3 10 6 5 12 4 1 -3 2 6 3 13 32 0 8 5 9 -2 3 -1 9 2 12 4 0 0 0 -3 -8 1 5 1 1 13 -5 3 8 4 11 6 7 1 6 3 16 1 3 4 1 2 1 6 3 2 1 12 4 0 8 24 4 4 1 2 5 5 10 -3 0 3 1 13 9 7 3 6 20 11 4 3 11 2 1 17 4 3 3 2 3 6 3 0 1 0 10 3 2 6 5 2 3 1 4 12 6 4 2 1 2 4 9 13 4 1 0 16 4 1 9 2 2 13 5 -2 50 6 6 2 4 1 -3 3 9 0 5 11 1 2 5 2 -3 13 11 2 5 5 11 6 -1 2 10 7 26 10 3 3 7 1 -2 4 4 1 2 5 3 4 4 3 8 9 7 1 2 5 4 7 0 4 0 9 1 7 -1 1 3 9 4 2 7 6 15 1 3 -5 4 -2 -2 4 12 10 4 11 7 8 7 3 4 7 5 14 10 4 2 3 8 4 2 18 2 12 7 5 7 4 -1 2 2 21 5 4 5 4 5 3 12 2 15 24 17 1 1 2 9 3 10 10 1 8 1 2 4 1 12 9 16 3 3 5 4 4 2 10 5 2 3 15 3 6 4 1 9 5 0 -1 23 9 -1 -2 9 5 9 0 7 2 0 6 3 3 17 3 6 1 6 4 0 5 11 4 3 3 3 10 5 2 -1 1 3 0 5 2 2 11 -1 13 18 6 9 9 6 2 5 2 10 -3 4 2 4 4 9 7 5 9 3 8 12 -1 3 4 6 0 -1 1 8 6 -1 7 7 2 6 0 0 6 4 7 7 7 2 4 10 2 -4 -1 -1 2 3 2 5 0 5 1 3 21 1 3 2 0 6 -1 5 3 2 6 -1 4 4 4 3 6 8 33 11 4 3 4 1 5 1 5 0 2 3 3 7 4 14 3 6 4 10 -2 -7 10 2 3 5 10 4 2 12 4 2 0 5 4 2 4 4 4 4 6 7 -4 1 2 1 2 7 5 7 0 3 1 0 0 1 4 9 6 4 2 10 4 2 -2 2 4 2 5 2 5 11 9 7 0 5 0 -1 3 3 1 2 3 0 1 5 0 1 32 0 3 4 0 1 3 8 12 5 5 2 3 2 7 2 6 3 8 3 10 4 6 7 2 7 4 0 1 0 0 1 5 -2 3 1 2 23 -1 6 2 1 8 10 6 8 1 14 3 17 1 19 8 0 5 8 11 0 11 3 3 3 11 3 0 1 6 10 5 6 5 25 5 3 6 7 4 6 4 4 2 5 6 4 4 4 2 2 -1 23 -2 15 13 12 1 0 -2 -4 5 4 3 6 11 -1 4 4 34 6 7 8 1 22 -2 4 4 5 4 3 -2 3 7 3 20 25 6 5 3 5 -3 4 2</t>
-  </si>
-  <si>
-    <t>6 6 11 7 15 10 13 2 6 5 4 9 9 2 17 11 7 12 14 7 19 15 1 3 13 1 12 5 10 6 7 20 9 14 13 10 11 22 2 54 11 16 8 14 8 4 5 4 11 33 15 11 13 15 2 5 7 29 5 18 -4 20 10 49 9 5 7 24 7 6 9 7 6 18 13 11 2 17 5 8 22 17 11 2 14 21 24 8 5 5 10 6 19 45 6 6 6 1 9 12 26 32 4 13 5 16 37 8 4 23 15 23 6 16 2 42 4 3 -1 15 7 8 5 6 22 11 5 15 4 12 15 16 8 9 6 -3 21 -2 20 2 37 8 11 8 19 14 38 4 5 15 17 7 6 17 7 22 10 11 2 13 9 15 18 30 5 13 2 36 7 4 15 23 -3 18 5 3 -4 14 9 25 14 16 8 6 8 19 26 16 5 41 10 7 0 14 10 3 8 6 32 23 7 5 8 14 1 10 9 10 28 14 29 -5 3 44 4 10 26 28 8 13 2 3 8 10 14 6 8 4 3 17 21 11 8 3 19 11 6 3 9 8 11 12 13 3 5 15 6 19 9 10 9 16 15 3 22 34 23 6 3 1 75 19 3 14 7 44 20 12 14 2 9 5 13 9 2 8 29 37 7 7 8 9 14 8 2 2 4 6 20 8 11 3 15 3 2 8 19 14 18 20 1 19 6 4 10 -5 15 28 5 20 12 15 30 14 5 20 8 5 17 9 9 1 16 17 7 37 21 9 13 16 9 5 15 6 26 44 28 26 5 32 13 5 11 9 8 4 -5 11 6 5 14 10 23 23 19 1 2 13 4 20 9 5 16 9 9 8 16 7 7 10 15 6 10 31 5 4 13 9 9 5 11 2 9 4 11 12 13 26 0 4 31 2 9 17 5 19 16 9 25 12 21 9 -2 37 3 7 2 3 11 8 8 18 12 3 -2 6 9 12 10 8 10 12 31 8 3 7 26 -1 9 42 9 11 20 8 14 8 15 -5 9 7 3 13 22 16 14 8 5 23 24 4 5 1 9 1 11 11 16 11 8 3 3 5 15 9 11 33 17 16 5 6 8 9 7 0 71 1 12 12 5 3 6 14 13 4 12 11 -1 5 8 0 5 21 13 17 33 12 9 4 23 8 18 16 1 4 17 9 11 24 9 8 -6 4 11 6 22 19 -2 9 28 6 7 12 6 11 8 3 14 75 8 4 14 6 7 19 10 33 17 11 14 10 4 14 20 14 5 11 40 5 46 3 8 3 23 13 7 7 15 5 6 6 8 17 -1 5 15 28 7 6 11 12 8 10 2 6 23 18 10 5 5 7 11 8 11 9 36 1 9 2 19 32 4 6 4 9 2 15 7 6 3 14 7 10 5 12 11 44 12 6 15 11 9 7 8 5 8 10 6 26 8 12 8 11 5 4 3 11 8 17 6 8 5 5 4 1 8 6 4 4 11 6 20 9 19 27 49 3 5 7 27 19 17 14 9 10 5 13 9 5 12 13 2 9 0 3 11 5 21 19 6 12 6 24 7 8 6 6 5 10 9 23 8 11 24 12 14 6 4 9 10 4 2 10 3 9 12 7 0 15 5 6 6 7 11 9 17 9 3 11 12 9 18 8 4 9 10 10 15 14 24 2 2 7 10 4 2 1 7 2 7 12 2 25 6 14 10 13 22 9 13 6 7 5 11 22 19 8 8 7 13 12 -1 16 27 3 1 0 9 7 11 7 13 17 2 10 16 32 3 7 3 38 8 30 22 1 10 8 12 0 8 37 13 23 7 11 8 24 14 22 10 12 6 6 4 8 8 8 9 9 12 13 9 29 14 -7 12 6 14 14 38 8 4 6 44 23 10 19 19 28 7 9 3 1 7 38 15 5 -3 2 8 16 1 12 14 5 9 20 11 12 -1 17 4 3 6 5 23 10 40 5 3 9 0 6 69 1 5 10 20 7 10 27 14 34 10 11 11 9 13 -1 5 18 18 5 7 3 14 8 50 3 8 9 4 6 9 16 22 8 6 1 29 7 17 24 3 3 53 7 3 2 4 27 7 8 5 11 6 5 6 4 8 1 4 3 21 11 4 9 4 3 3 11 11 10 11 2 11 17 10 7 14 5 10 4 1 19 4 44 8 12 -4 20 5 5 4 15 20 2 14 15 5 4 31 0 3 12 15 27 48 29 8 23 4 1 31 6 15 3 41 2 2 1 5 5 5 21 12 10 9 6 2 26 4 8 7 7 8 3 8 5 6 5 7 11 64 19 25 5 10 16 4 26 8</t>
-  </si>
-  <si>
-    <t>5 7 9 2 19 4 6 1 4 7 2 2 2 1 5 6 17 2 4 13 1 9 9 6 4 3 5 3 0 1 3 3 5 3 13 5 3 1 7 9 5 8 7 2 3 3 5 9 1 8 7 4 2 0 7 3 3 -1 1 11 1 -1 2 5 3 30 5 6 11 3 6 4 18 4 8 11 1 4 5 24 3 2 8 5 2 2 3 4 10 18 -1 2 1 2 3 6 2 5 6 -1 8 4 4 7 0 9 41 4 2 5 3 5 1 10 7 3 6 1 2 7 2 2 43 1 3 4 4 2 0 4 2 2 0 7 7 2 4 7 2 5 1 9 10 3 9 4 2 3 5 4 1 13 3 -3 3 6 -1 7 -6 2 0 6 3 -1 6 3 2 14 2 6 20 9 4 19 6 1 1 6 5 10 8 -1 10 6 4 2 4 11 0 3 2 3 3 3 6 7 6 4 0 3 9 3 5 2 2 3 1 6 4 2 5 0 5 6 0 8 5 2 6 5 4 7 5 3 6 13 4 6 0 10 3 -1 1 2 -4 4 4 1 6 1 1 4 13 2 2 2 5 6 5 3 0 2 5 2 2 11 1 0 4 2 5 12 4 0 -3 5 4 1 2 11 3 1 34 1 6 0 3 1 0 2 8 0 4 8 8 4 3 65 1 6 3 3 13 2 0 3 5 2 7 1 3 -1 4 5 1 8 6 1 1 7 7 1 -2 6 2 2 2 2 2 3 5 2 3 7 2 9 3 5 2 1 9 5 5 4 2 3 7 2 1 11 2 3 6 2 4 5 2 1 8 14 4 3 4 -7 5 0 6 3 4 6 6 3 3 2 2 4 3 2 6 5 2 1 3 1 9 2 5 2 0 1 11 0 8 5 3 1 9 3 3 34 1 6 2 -2 5 5 5 6 0 6 4 -3 23 18 2 9 3 7 6 1 10 4 4 3 0 -1 1 3 7 17 2 15 3 7 10 4 4 5 1 18 8 11 3 13 -3 3 6 6 11 7 8 4 1 1 0 3 4 27 6 3 2 0 4 7 8 4 4 8 1 1 5 2 6 7 -1 6 4 2 4 17 8 18 5 15 6 17 4 2 6 7 6 2 2 -2 5 2 6 5 12 31 9 7 1 9 9 8 0 0 21 3 4 5 20 14 -4 3 4 -2 20 6 2 8 5 9 2 1 11 5 9 -1 3 1 1 2 1 4 -1 9 1 2 3 3 5 -2 -1 5 9 1 -1 11 6 9 6 0 8 1 2 5 11 12 5 12 6 3 3 -4 7 2 2 7 4 2 13 10 0 8 22 2 11 9 9 8 2 -1 3 5 -1 0 0 3 1 4 12 4 6 6 0 8 3 4 8 1 3 5 3 3 2 2 15 1 7 8 6 4 4 11 2 5 3 9 2 3 4 0 8 5 0 3 4 -1 2 4 0 11 1 -1 2 2 4 6 2 1 2 8 5 4 -4 9 3 2 -4 5 2 0 2 -3 11 2 2 6 2 14 5 4 0 3 5 4 10 2 2 4 9 15 2 3 -1 7 7 -2 8 5 3 1 5 5 0 7 8 2 2 4 9 6 4 9 3 5 3 3 1 -1 12 2 -1 9 2 1 3 8 -1 2 5 31 3 1 5 1 5 2 8 3 5 4 4 4 9 -1 1 14 2 9 6 7 2 14 3 0 1 11 3 5 5 -1 5 4 8 9 7 2 6 2 16 1 -3 5 1 4 3 4 1 5 3 4 15 3 15 4 3 6 2 4 1 2 7 0 9 4 6 8 4 3 1 8 2 4 8 22 1 1 3 0 2 2 3 2 6 15 2 2 -2 0 2 1 21 5 5 8 6 6 6 12 4 6 3 6 6 5 8 4 2 11 17 2 13 3 6 6 3 1 4 3 3 1 3 4 5 4 1 0 0 0 6 2 6 1 9 6 1 5 29 6 5 3 0 3 23 -1 4 3 -3 47 7 0 5 15 8 -4 4 1 2 -2 2 5 2 4 3 4 4 8 0 -2 2 4 7 2 13 4 7 11 1 1 3 14 7 1 -2 9 11 1 1 -1 5 1 9 3 4 2 4</t>
-  </si>
-  <si>
-    <t>12 5 6 11 9 19 7 15 20 8 7 20 10 12 19 31 17 8 6 35 16 14 10 12 5 22 6 14 11 14 8 32 17 14 25 22 7 5 19 1 6 7 0 0 7 4 6 13 7 7 8 5 19 6 6 4 7 6 13 11 0 8 8 9 15 -4 5 8 19 0 25 4 12 30 9 46 12 5 59 23 5 72 3 8 10 1 4 2 4 23 7 2 4 11 6 4 2 15 13 4 7 5 14 22 8 3 27 5 2 10 7 19 5 17 13 21 12 13 4 6 6 13 11 24 5 11 9 8 4 15 5 -2 1 27 13 5 15 8 1 5 -6 10 6 8 3 7 4 1 12 7 0 5 11 7 14 9 3 11 12 -6 8 8 3 28 24 3 11 2 9 22 11 5 3 9 6 23 0 26 29 16 7 11 17 18 14 11 11 4 1 18 16 7 9 3 21 3 20 5 7 1 12 6 6 2 6 8 48 -4 44 9 14 9 8 7 5 7 8 6 10 11 7 37 7 5 8 11 0 10 5 5 8 21 11 10 8 5 16 14 18 7 7 10 14 2 12 16 9 10 10 -1 11 11 13 5 23 10 29 2 6 9 9 18 4 22 5 51 21 8 25 24 9 14 8 12 5 12 17 26 -1 3 15 7 7 5 8 54 5 7 0 15 17 6 9 6 2 3 7 7 17 11 8 22 9 4 20 11 32 6 6 12 17 5 8 48 27 18 27 11 -3 3 7 -8 26 26 23 25 18 0 4 2 6 17 4 3 4 5 2 17 6 7 3 2 6 14 12 20 7 2 6 17 23 6 8 6 10 6 13 9 11 7 15 6 6 34 1 5 16 15 5 8 3 31 -3 9 4 17 8 5 15 1 3 12 25 15 6 8 14 16 8 44 17 3 9 10 9 43 11 9 30 4 10 3 4 19 11 17 -4 7 20 8 9 7 11 4 4 12 8 27 20 42 19 9 10 6 0 4 3 8 8 11 19 4 20 8 6 16 5 12 7 21 11 5 0 20 43 15 6 16 4 13 22 21 12 10 6 3 5 15 3 7 14 18 6 37 12 1 21 8 7 6 4 14 14 9 18 19 17 9 9 15 23 8 24 35 61 15 53 41 1 -2 11 5 16 16 8 9 13 6 3 7 12 2 7 3 5 6 6 6 4 16 39 10 14 4 -4 -4 9 12 4 -2 7 10 18 3 5 3 24 8 13 22 10 2 20 6 12 9 11 6 5 8 24 5 50 19 3 11 1 12 41 2 5 4 22 4 6 11 6 5 7 16 4 3 3 10 15 5 6 21 35 0 11 -1 14 16 3 8 2 15 5 6 5 1 4 3 27 3 6 7 5 22 37 24 40 11 5 5 7 9 6 12 3 15 -2 8 -3 11 11 2 2 8 11 3 1 5 4 5 16 4 0 6 12 18 14 -2 3 19 5 19 7 11 16 36 10 10 6 3 2 34 5 9 5 8 11 9 13 19 12 6 19 10 7 7 8 9 16 14 2 7 19 7 2 5 7 13 10 6 4 6 4 19 19 6 4 9 4 12 12 13 15 4 2 27 7 5 4 17 6 29 8 5 15 15 8 5 14 18 9 5 -3 24 10 0 1 3 5 10 6 2 17 4 8 2 5 6 6 3 3 7 4 6 12 11 4 3 10 72 8 8 9 17 18 6 7 6 4 10 5 69 22 6 4 39 10 5 2 5 9 2 35 30 6 16 11 8 2 31 11 6 13 7 10 29 28 3 4 7 5 5 0 16 0 6 8 5 5 22 13 1 4 7 9 8 15 5 5 7 7 10 12 11 11 13 1 7 4 15 3 5 1 8 1 24 1 7 5 18 7 75 17 8 5 9 -7 28 12 16 19</t>
+    <t>3 3 1 1 18 7 9 9 6 8 8 4 4 3 -1 11 2 27 3 4 3 2 9 0 -2 4 -1 4 14 -1 2 0 17 5 0 14 3 15 10 4 1 -1 4 3 1 21 1 5 2 4 2 3 22 1 3 4 5 1 1 -1 9 4 16 1 7 3 11 2 0 -1 0 12 6 5 3 3 1 2 4 2 2 5 6 5 1 3 13 1 9 4 2 1 5 -1 11 4 1 2 1 18 9 4 2 8 5 6 6 3 3 5 10 8 5 1 4 6 2 -1 2 3 0 1 5 3 -1 9 1 9 4 2 31 0 5 5 5 12 14 5 11 5 3 4 6 8 3 17 0 8 11 5 1 8 4 5 5 7 3 9 0 -3 2 -4 3 0 9 -4 2 13 2 4 11 16 1 2 27 0 1 16 3 1 1 0 0 2 3 1 3 2 4 1 4 -3 4 3 4 3 3 8 1 2 0 11 -2 2 2 0 2 7 4 8 0 3 0 4 5 3 8 6 10 4 3 5 11 3 2 9 2 3 0 -2 14 -4 -5 7 2 3 6 1 0 8 -2 2 3 4 10 10 17 5 0 0 5 4 7 4 4 8 1 1 4 2 5 6 30 20 3 0 16 3 1 6 3 10 6 5 12 4 1 -3 2 6 3 13 32 0 8 5 9 -2 3 -1 9 2 12 4 0 0 0 -3 -8 1 5 1 1 13 -5 3 8 4 11 6 7 1 6 3 16 1 3 4 1 2 1 6 3 2 1 12 4 0 8 24 4 4 1 2 5 5 10 -3 0 3 1 13 9 7 3 6 20 11 4 3 11 2 1 17 4 3 3 2 3 6 3 0 1 0 10 3 2 6 5 2 3 1 4 12 6 4 2 1 2 4 9 13 4 1 0 16 4 1 9 2 2 13 5 -2 50 6 6 2 4 1 -3 3 9 0 5 11 1 2 5 2 -3 13 11 2 5 5 11 6 -1 2 10 7 26 10 3 3 7 1 -2 4 4 1 2 5 3 4 4 3 8 9 7 1 2 5 4 7 0 4 0 9 1 7 -1 1 3 9 4 2 7 6 15 1 3 -5 4 -2 -2 4 12 10 4 11 7 8 7 3 4 7 5 14 10 4 2 3 8 4 2 18 2 12 7 5 7 4 -1 2 2 21 5 4 5 4 5 3 12 2 15 24 17 1 1 2 9 3 10 10 1 8 1 2 4 1 12 9 16 3 3 5 4 4 2 10 5 2 3 15 3 6 4 1 9 5 0 -1 23 9 -1 -2 9 5 9 0 7 2 0 6 3 3 17 3 6 1 6 4 0 5 11 4 3 3 3 10 5 2 -1 1 3 0 5 2 2 11 -1 13 18 6 9 9 6 2 5 2 10 -3 4 2 4 4 9 7 5 9 3 8 12 -1 3 4 6 0 -1 1 8 6 -1 7 7 2 6 0 0 6 4 7 7 7 2 4 10 2 -4 -1 -1 2 3 2 5 0 5 1 3 21 1 3 2 0 6 -1 5 3 2 6 -1 4 4 4 3 6 8 33 11 4 3 4 1 5 1 5 0 2 3 3 7 4 14 3 6 4 10 -2 -7 10 2 3 5 10 4 2 12 4 2 0 5 4 2 4 4 4 4 6 7 -4 1 2 1 2 7 5 7 0 3 1 0 0 1 4 9 6 4 2 10 4 2 -2 2 4 2 5 2 5 11 9 7 0 5 0 -1 3 3 1 2 3 0 1 5 0 1 32 0 3 4 0 1 3 8 12 5 5 2 3 2 7 2 6 3 8 3 10 4 6 7 2 7 4 0 1 0 0 1 5 -2 3 1 2 23 -1 6 2 1 8 10 6 8 1 14 3 17 1 19 8 0 5 8 11 0 11 3 3 3 11 3 0 1 6 10 5 6 5 25 5 3 6 7 4 6 4 4 2 5 6 4 4 4 2 2 -1 23 -2 15 13 12 1 0 -2 -4 5 4 3 6 11 -1 4 4 34 6 7 8 1 22 -2 4 4 5 4 3 -2 3 7 3 20 25 6 5 3 5 -3 4 2 8 1 1 8 11 7 7 1 3 7 14 4 6 4 9 4 7 4 1 9 14 4 4 1</t>
+  </si>
+  <si>
+    <t>6 6 11 7 15 10 13 2 6 5 4 9 9 2 17 11 7 12 14 7 19 15 1 3 13 1 12 5 10 6 7 20 9 14 13 10 11 22 2 54 11 16 8 14 8 4 5 4 11 33 15 11 13 15 2 5 7 29 5 18 -4 20 10 49 9 5 7 24 7 6 9 7 6 18 13 11 2 17 5 8 22 17 11 2 14 21 24 8 5 5 10 6 19 45 6 6 6 1 9 12 26 32 4 13 5 16 37 8 4 23 15 23 6 16 2 42 4 3 -1 15 7 8 5 6 22 11 5 15 4 12 15 16 8 9 6 -3 21 -2 20 2 37 8 11 8 19 14 38 4 5 15 17 7 6 17 7 22 10 11 2 13 9 15 18 30 5 13 2 36 7 4 15 23 -3 18 5 3 -4 14 9 25 14 16 8 6 8 19 26 16 5 41 10 7 0 14 10 3 8 6 32 23 7 5 8 14 1 10 9 10 28 14 29 -5 3 44 4 10 26 28 8 13 2 3 8 10 14 6 8 4 3 17 21 11 8 3 19 11 6 3 9 8 11 12 13 3 5 15 6 19 9 10 9 16 15 3 22 34 23 6 3 1 75 19 3 14 7 44 20 12 14 2 9 5 13 9 2 8 29 37 7 7 8 9 14 8 2 2 4 6 20 8 11 3 15 3 2 8 19 14 18 20 1 19 6 4 10 -5 15 28 5 20 12 15 30 14 5 20 8 5 17 9 9 1 16 17 7 37 21 9 13 16 9 5 15 6 26 44 28 26 5 32 13 5 11 9 8 4 -5 11 6 5 14 10 23 23 19 1 2 13 4 20 9 5 16 9 9 8 16 7 7 10 15 6 10 31 5 4 13 9 9 5 11 2 9 4 11 12 13 26 0 4 31 2 9 17 5 19 16 9 25 12 21 9 -2 37 3 7 2 3 11 8 8 18 12 3 -2 6 9 12 10 8 10 12 31 8 3 7 26 -1 9 42 9 11 20 8 14 8 15 -5 9 7 3 13 22 16 14 8 5 23 24 4 5 1 9 1 11 11 16 11 8 3 3 5 15 9 11 33 17 16 5 6 8 9 7 0 71 1 12 12 5 3 6 14 13 4 12 11 -1 5 8 0 5 21 13 17 33 12 9 4 23 8 18 16 1 4 17 9 11 24 9 8 -6 4 11 6 22 19 -2 9 28 6 7 12 6 11 8 3 14 75 8 4 14 6 7 19 10 33 17 11 14 10 4 14 20 14 5 11 40 5 46 3 8 3 23 13 7 7 15 5 6 6 8 17 -1 5 15 28 7 6 11 12 8 10 2 6 23 18 10 5 5 7 11 8 11 9 36 1 9 2 19 32 4 6 4 9 2 15 7 6 3 14 7 10 5 12 11 44 12 6 15 11 9 7 8 5 8 10 6 26 8 12 8 11 5 4 3 11 8 17 6 8 5 5 4 1 8 6 4 4 11 6 20 9 19 27 49 3 5 7 27 19 17 14 9 10 5 13 9 5 12 13 2 9 0 3 11 5 21 19 6 12 6 24 7 8 6 6 5 10 9 23 8 11 24 12 14 6 4 9 10 4 2 10 3 9 12 7 0 15 5 6 6 7 11 9 17 9 3 11 12 9 18 8 4 9 10 10 15 14 24 2 2 7 10 4 2 1 7 2 7 12 2 25 6 14 10 13 22 9 13 6 7 5 11 22 19 8 8 7 13 12 -1 16 27 3 1 0 9 7 11 7 13 17 2 10 16 32 3 7 3 38 8 30 22 1 10 8 12 0 8 37 13 23 7 11 8 24 14 22 10 12 6 6 4 8 8 8 9 9 12 13 9 29 14 -7 12 6 14 14 38 8 4 6 44 23 10 19 19 28 7 9 3 1 7 38 15 5 -3 2 8 16 1 12 14 5 9 20 11 12 -1 17 4 3 6 5 23 10 40 5 3 9 0 6 69 1 5 10 20 7 10 27 14 34 10 11 11 9 13 -1 5 18 18 5 7 3 14 8 50 3 8 9 4 6 9 16 22 8 6 1 29 7 17 24 3 3 53 7 3 2 4 27 7 8 5 11 6 5 6 4 8 1 4 3 21 11 4 9 4 3 3 11 11 10 11 2 11 17 10 7 14 5 10 4 1 19 4 44 8 12 -4 20 5 5 4 15 20 2 14 15 5 4 31 0 3 12 15 27 48 29 8 23 4 1 31 6 15 3 41 2 2 1 5 5 5 21 12 10 9 6 2 26 4 8 7 7 8 3 8 5 6 5 7 11 64 19 25 5 10 16 4 26 8 14 8 10 6 10 44 11 7 5 19 5 12 3 33 14 9 10 0 6 4 7 5 5 8 18 2</t>
+  </si>
+  <si>
+    <t>5 7 9 2 19 4 6 1 4 7 2 2 2 1 5 6 17 2 4 13 1 9 9 6 4 3 5 3 0 1 3 3 5 3 13 5 3 1 7 9 5 8 7 2 3 3 5 9 1 8 7 4 2 0 7 3 3 -1 1 11 1 -1 2 5 3 30 5 6 11 3 6 4 18 4 8 11 1 4 5 24 3 2 8 5 2 2 3 4 10 18 -1 2 1 2 3 6 2 5 6 -1 8 4 4 7 0 9 41 4 2 5 3 5 1 10 7 3 6 1 2 7 2 2 43 1 3 4 4 2 0 4 2 2 0 7 7 2 4 7 2 5 1 9 10 3 9 4 2 3 5 4 1 13 3 -3 3 6 -1 7 -6 2 0 6 3 -1 6 3 2 14 2 6 20 9 4 19 6 1 1 6 5 10 8 -1 10 6 4 2 4 11 0 3 2 3 3 3 6 7 6 4 0 3 9 3 5 2 2 3 1 6 4 2 5 0 5 6 0 8 5 2 6 5 4 7 5 3 6 13 4 6 0 10 3 -1 1 2 -4 4 4 1 6 1 1 4 13 2 2 2 5 6 5 3 0 2 5 2 2 11 1 0 4 2 5 12 4 0 -3 5 4 1 2 11 3 1 34 1 6 0 3 1 0 2 8 0 4 8 8 4 3 65 1 6 3 3 13 2 0 3 5 2 7 1 3 -1 4 5 1 8 6 1 1 7 7 1 -2 6 2 2 2 2 2 3 5 2 3 7 2 9 3 5 2 1 9 5 5 4 2 3 7 2 1 11 2 3 6 2 4 5 2 1 8 14 4 3 4 -7 5 0 6 3 4 6 6 3 3 2 2 4 3 2 6 5 2 1 3 1 9 2 5 2 0 1 11 0 8 5 3 1 9 3 3 34 1 6 2 -2 5 5 5 6 0 6 4 -3 23 18 2 9 3 7 6 1 10 4 4 3 0 -1 1 3 7 17 2 15 3 7 10 4 4 5 1 18 8 11 3 13 -3 3 6 6 11 7 8 4 1 1 0 3 4 27 6 3 2 0 4 7 8 4 4 8 1 1 5 2 6 7 -1 6 4 2 4 17 8 18 5 15 6 17 4 2 6 7 6 2 2 -2 5 2 6 5 12 31 9 7 1 9 9 8 0 0 21 3 4 5 20 14 -4 3 4 -2 20 6 2 8 5 9 2 1 11 5 9 -1 3 1 1 2 1 4 -1 9 1 2 3 3 5 -2 -1 5 9 1 -1 11 6 9 6 0 8 1 2 5 11 12 5 12 6 3 3 -4 7 2 2 7 4 2 13 10 0 8 22 2 11 9 9 8 2 -1 3 5 -1 0 0 3 1 4 12 4 6 6 0 8 3 4 8 1 3 5 3 3 2 2 15 1 7 8 6 4 4 11 2 5 3 9 2 3 4 0 8 5 0 3 4 -1 2 4 0 11 1 -1 2 2 4 6 2 1 2 8 5 4 -4 9 3 2 -4 5 2 0 2 -3 11 2 2 6 2 14 5 4 0 3 5 4 10 2 2 4 9 15 2 3 -1 7 7 -2 8 5 3 1 5 5 0 7 8 2 2 4 9 6 4 9 3 5 3 3 1 -1 12 2 -1 9 2 1 3 8 -1 2 5 31 3 1 5 1 5 2 8 3 5 4 4 4 9 -1 1 14 2 9 6 7 2 14 3 0 1 11 3 5 5 -1 5 4 8 9 7 2 6 2 16 1 -3 5 1 4 3 4 1 5 3 4 15 3 15 4 3 6 2 4 1 2 7 0 9 4 6 8 4 3 1 8 2 4 8 22 1 1 3 0 2 2 3 2 6 15 2 2 -2 0 2 1 21 5 5 8 6 6 6 12 4 6 3 6 6 5 8 4 2 11 17 2 13 3 6 6 3 1 4 3 3 1 3 4 5 4 1 0 0 0 6 2 6 1 9 6 1 5 29 6 5 3 0 3 23 -1 4 3 -3 47 7 0 5 15 8 -4 4 1 2 -2 2 5 2 4 3 4 4 8 0 -2 2 4 7 2 13 4 7 11 1 1 3 14 7 1 -2 9 11 1 1 -1 5 1 9 3 4 2 4 3 3 8 1 23 12 3 1 -1 -2 2 5 2 0 0 5 3 4 7 1 11 4 2 7 13 2 -3</t>
+  </si>
+  <si>
+    <t>12 5 6 11 9 19 7 15 20 8 7 20 10 12 19 31 17 8 6 35 16 14 10 12 5 22 6 14 11 14 8 32 17 14 25 22 7 5 19 1 6 7 0 0 7 4 6 13 7 7 8 5 19 6 6 4 7 6 13 11 0 8 8 9 15 -4 5 8 19 0 25 4 12 30 9 46 12 5 59 23 5 72 3 8 10 1 4 2 4 23 7 2 4 11 6 4 2 15 13 4 7 5 14 22 8 3 27 5 2 10 7 19 5 17 13 21 12 13 4 6 6 13 11 24 5 11 9 8 4 15 5 -2 1 27 13 5 15 8 1 5 -6 10 6 8 3 7 4 1 12 7 0 5 11 7 14 9 3 11 12 -6 8 8 3 28 24 3 11 2 9 22 11 5 3 9 6 23 0 26 29 16 7 11 17 18 14 11 11 4 1 18 16 7 9 3 21 3 20 5 7 1 12 6 6 2 6 8 48 -4 44 9 14 9 8 7 5 7 8 6 10 11 7 37 7 5 8 11 0 10 5 5 8 21 11 10 8 5 16 14 18 7 7 10 14 2 12 16 9 10 10 -1 11 11 13 5 23 10 29 2 6 9 9 18 4 22 5 51 21 8 25 24 9 14 8 12 5 12 17 26 -1 3 15 7 7 5 8 54 5 7 0 15 17 6 9 6 2 3 7 7 17 11 8 22 9 4 20 11 32 6 6 12 17 5 8 48 27 18 27 11 -3 3 7 -8 26 26 23 25 18 0 4 2 6 17 4 3 4 5 2 17 6 7 3 2 6 14 12 20 7 2 6 17 23 6 8 6 10 6 13 9 11 7 15 6 6 34 1 5 16 15 5 8 3 31 -3 9 4 17 8 5 15 1 3 12 25 15 6 8 14 16 8 44 17 3 9 10 9 43 11 9 30 4 10 3 4 19 11 17 -4 7 20 8 9 7 11 4 4 12 8 27 20 42 19 9 10 6 0 4 3 8 8 11 19 4 20 8 6 16 5 12 7 21 11 5 0 20 43 15 6 16 4 13 22 21 12 10 6 3 5 15 3 7 14 18 6 37 12 1 21 8 7 6 4 14 14 9 18 19 17 9 9 15 23 8 24 35 61 15 53 41 1 -2 11 5 16 16 8 9 13 6 3 7 12 2 7 3 5 6 6 6 4 16 39 10 14 4 -4 -4 9 12 4 -2 7 10 18 3 5 3 24 8 13 22 10 2 20 6 12 9 11 6 5 8 24 5 50 19 3 11 1 12 41 2 5 4 22 4 6 11 6 5 7 16 4 3 3 10 15 5 6 21 35 0 11 -1 14 16 3 8 2 15 5 6 5 1 4 3 27 3 6 7 5 22 37 24 40 11 5 5 7 9 6 12 3 15 -2 8 -3 11 11 2 2 8 11 3 1 5 4 5 16 4 0 6 12 18 14 -2 3 19 5 19 7 11 16 36 10 10 6 3 2 34 5 9 5 8 11 9 13 19 12 6 19 10 7 7 8 9 16 14 2 7 19 7 2 5 7 13 10 6 4 6 4 19 19 6 4 9 4 12 12 13 15 4 2 27 7 5 4 17 6 29 8 5 15 15 8 5 14 18 9 5 -3 24 10 0 1 3 5 10 6 2 17 4 8 2 5 6 6 3 3 7 4 6 12 11 4 3 10 72 8 8 9 17 18 6 7 6 4 10 5 69 22 6 4 39 10 5 2 5 9 2 35 30 6 16 11 8 2 31 11 6 13 7 10 29 28 3 4 7 5 5 0 16 0 6 8 5 5 22 13 1 4 7 9 8 15 5 5 7 7 10 12 11 11 13 1 7 4 15 3 5 1 8 1 24 1 7 5 18 7 75 17 8 5 9 -7 28 12 16 19 2 2 7 3 5 9 6 8 18 41 44 4 22 18 2 17 2 2 16 5 0 9 8</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>66 66 63 60 64 69 63 57 58 65 65 51 44 68 65 62 67 63 46 66 61 61 46 60 67 68 64 60 59 73 60 63 65 12 55 62 61 66 66 60 66 67 62 46 63 64 65 63 60 60 66 63 68 58 63 64 64 64 63 32 63 50 64 58</t>
-  </si>
-  <si>
-    <t>21 22 23 16 28 20 29 26 93 19 19 18 9 29 17 23 23 0 6 22 31 24 7 18 27 26 28 21 13 17 20 14 44 0 15 23 19 17 17 12 19 26 19 3 23 19 18 19 21 18 26 18 28 16 29 75 19 29 13 0 23 14 29 22</t>
-  </si>
-  <si>
-    <t>20 31 19 22 23 22 11 2 23 26 29 21 29 27 15 21 44 26 19 31 28 18 24 18 26 41 21 25 24 20 8 33 3 9 25 30 28 22 32 28 31 33 0 28 23 12 20 14 38 27 39 24 19 20 25 26 30 12 23 27 26</t>
-  </si>
-  <si>
-    <t>44 38 54 38 42 32 54 55 58 65 65 53 60 44 67 53 47 33 33 42 38 57 29 38 44 40 36 55 52 50 54 32 23 39 30 43 41 58 48 51 34 61 45 37 41 25 31 52 58 24 24 44 38 44 51 27 29 44 47 54 49 32 51 46 42 34 19 52 41 50 52 43 54 55 44 64 42 49 49 68 31 54 50 37 52 32 41 50 42 35 31 58 43 41 33 32 32 50 38</t>
-  </si>
-  <si>
-    <t>0 0 19 0 3 0 0 0 16 12 0 0 0 0 0 0 0 0 0 24 0 0 0 0 0 0 0 8 3 0 2 0 0 -2 0 0 0 -4 11 1 0 17 9 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 16 0 0 7 0 0 0 0 0 0 0 0 0 0 0 15 0 0 7 0 0 14 6 0 6 0 0 20 0 3 0 0 0 8 0 0 5 0 0</t>
-  </si>
-  <si>
-    <t>0 0 0 0 11 8 18 0 0 29 3 5 0 0 21 1 48 0 0 0 -8 0 0 15 13 45</t>
+    <t>66 66 63 60 64 69 63 57 58 65 65 51 44 68 65 62 67 63 46 66 61 61 46 60 67 68 64 60 59 73 60 63 65 12 55 62 61 66 66 60 66 67 62 46 63 64 65 63 60 60 66 63 68 58 63 64 64 64 63 32 63 50 64 58 61</t>
+  </si>
+  <si>
+    <t>21 22 23 16 28 20 29 26 93 19 19 18 9 29 17 23 23 0 6 22 31 24 7 18 27 26 28 21 13 17 20 14 44 0 15 23 19 17 17 12 19 26 19 3 23 19 18 19 21 18 26 18 28 16 29 75 19 29 13 0 23 14 29 22 26</t>
+  </si>
+  <si>
+    <t>20 31 19 22 23 22 11 2 23 26 29 21 29 27 15 21 44 26 19 31 28 18 24 18 26 41 21 25 24 20 8 33 3 9 25 30 28 22 32 28 31 33 0 28 23 12 20 14 38 27 39 24 19 20 25 26 30 12 23 27 26 16 22</t>
+  </si>
+  <si>
+    <t>44 38 54 38 42 32 54 55 58 65 65 53 60 44 67 53 47 33 33 42 38 57 29 38 44 40 36 55 52 50 54 32 23 39 30 43 41 58 48 51 34 61 45 37 41 25 31 52 58 24 24 44 38 44 51 27 29 44 47 54 49 32 51 46 42 34 19 52 41 50 52 43 54 55 44 64 42 49 49 68 31 54 50 37 52 32 41 50 42 35 31 58 43 41 33 32 32 50 38 57 41 54 57</t>
+  </si>
+  <si>
+    <t>0 0 19 0 3 0 0 0 16 12 0 0 0 0 0 0 0 0 0 24 0 0 0 0 0 0 0 8 3 0 2 0 0 -2 0 0 0 -4 11 1 0 17 9 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 16 0 0 7 0 0 0 0 0 0 0 0 0 0 0 15 0 0 7 0 0 14 6 0 6 0 0 20 0 3 0 0 0 8 0 0 5 0 0 11 0 11 0</t>
+  </si>
+  <si>
+    <t>0 0 0 0 11 8 18 0 0 29 3 5 0 0 21 1 48 0 0 0 -8 0 0 15 13 45 0 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,19 +668,19 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2">
         <v>18</v>
       </c>
       <c r="F2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G2">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -689,16 +689,16 @@
         <v>16</v>
       </c>
       <c r="J2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>877</v>
+        <v>916</v>
       </c>
       <c r="M2">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="N2">
         <v>28</v>
@@ -710,7 +710,7 @@
         <v>23</v>
       </c>
       <c r="Q2">
-        <v>1446</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -721,28 +721,28 @@
         <v>29</v>
       </c>
       <c r="C3">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>73</v>
       </c>
       <c r="F3">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="G3">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="H3">
         <v>59</v>
       </c>
       <c r="I3">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="J3">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>439</v>
       </c>
       <c r="N3">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -943,37 +943,37 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="D2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2">
         <v>6</v>
       </c>
       <c r="F2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H2">
         <v>4</v>
       </c>
       <c r="I2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>750</v>
+        <v>788</v>
       </c>
       <c r="M2">
-        <v>486</v>
+        <v>509</v>
       </c>
       <c r="N2">
         <v>27</v>
@@ -985,7 +985,7 @@
         <v>43</v>
       </c>
       <c r="Q2">
-        <v>1332</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -993,31 +993,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F3">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="G3">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H3">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I3">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="J3">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>358</v>
       </c>
       <c r="N3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -1245,10 +1245,10 @@
         <v>94</v>
       </c>
       <c r="L2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N2">
         <v>29</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1345,13 +1345,13 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>22</v>
@@ -1368,10 +1368,10 @@
         <v>16</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1409,7 +1409,7 @@
         <v>60</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4">
